--- a/on_trucks/Processed_Stand_Alone/51_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/51_455-55R22.xlsx
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.009068721150283324</v>
+        <v>0.009050955575362582</v>
       </c>
       <c r="F3">
         <v>0.5133010765752741</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>125</v>
       </c>
       <c r="E4">
-        <v>0.01308900727165059</v>
+        <v>0.01308383677244652</v>
       </c>
       <c r="F4">
         <v>0.5081836901200093</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>126</v>
       </c>
       <c r="E5">
-        <v>0.008572462302723214</v>
+        <v>0.008208463256187229</v>
       </c>
       <c r="F5">
         <v>0.5006593621624732</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>125</v>
       </c>
       <c r="E6">
-        <v>0.006758778424620517</v>
+        <v>0.006728400266909555</v>
       </c>
       <c r="F6">
         <v>0.5074963506668695</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>145</v>
       </c>
       <c r="E3">
-        <v>0.009068721150283324</v>
+        <v>0.009050955575362582</v>
       </c>
       <c r="F3">
         <v>0.702733729344744</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>145</v>
       </c>
       <c r="E4">
-        <v>0.01308900727165059</v>
+        <v>0.01308383677244652</v>
       </c>
       <c r="F4">
         <v>0.7238363234393059</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.008572462302723214</v>
+        <v>0.008208463256187229</v>
       </c>
       <c r="F5">
         <v>0.7097296669904295</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>145</v>
       </c>
       <c r="E6">
-        <v>0.006758778424620517</v>
+        <v>0.006728400266909555</v>
       </c>
       <c r="F6">
         <v>0.7170111397682938</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.009068721150283324</v>
+        <v>0.009050955575362582</v>
       </c>
       <c r="F3">
         <v>0.800983981112497</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>148</v>
       </c>
       <c r="E4">
-        <v>0.01308900727165059</v>
+        <v>0.01308383677244652</v>
       </c>
       <c r="F4">
         <v>0.804426141061433</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>157</v>
       </c>
       <c r="E5">
-        <v>0.008572462302723214</v>
+        <v>0.008208463256187229</v>
       </c>
       <c r="F5">
         <v>0.8212529815491186</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>149</v>
       </c>
       <c r="E6">
-        <v>0.006758778424620517</v>
+        <v>0.006728400266909555</v>
       </c>
       <c r="F6">
         <v>0.8025271839696868</v>
       </c>
       <c r="G6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>179</v>
       </c>
       <c r="E3">
-        <v>0.009068721150283324</v>
+        <v>0.009050955575362582</v>
       </c>
       <c r="F3">
         <v>0.9064173917810702</v>
       </c>
       <c r="G3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>174</v>
       </c>
       <c r="E4">
-        <v>0.01308900727165059</v>
+        <v>0.01308383677244652</v>
       </c>
       <c r="F4">
         <v>0.9056686702692613</v>
       </c>
       <c r="G4">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>179</v>
       </c>
       <c r="E5">
-        <v>0.008572462302723214</v>
+        <v>0.008208463256187229</v>
       </c>
       <c r="F5">
         <v>0.9001541440272118</v>
       </c>
       <c r="G5">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>179</v>
       </c>
       <c r="E6">
-        <v>0.006758778424620517</v>
+        <v>0.006728400266909555</v>
       </c>
       <c r="F6">
         <v>0.9070386543489434</v>
       </c>
       <c r="G6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H6">
         <v>51</v>

--- a/on_trucks/Processed_Stand_Alone/51_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/51_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.217738471458703E-05</v>
+        <v>2.091840228332953E-05</v>
       </c>
       <c r="C2">
-        <v>1.145301173617737E-07</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.404719018581741E-05</v>
+        <v>1.278631243035469E-05</v>
       </c>
       <c r="E2">
-        <v>1.26385782674613E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.072574437833017E-07</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.896597232111689E-07</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.163804442742627E-06</v>
+        <v>4.901088899541224E-06</v>
       </c>
       <c r="I2">
-        <v>8.23080102293841E-06</v>
+        <v>6.968567341350124E-06</v>
       </c>
       <c r="J2">
-        <v>4.076848763703684E-05</v>
+        <v>3.951383919400635E-05</v>
       </c>
       <c r="K2">
-        <v>4.584991734251448E-05</v>
+        <v>4.459645349066245E-05</v>
       </c>
       <c r="L2">
-        <v>5.934470056034969E-05</v>
+        <v>5.809438263436532E-05</v>
       </c>
       <c r="M2">
-        <v>0.0001119437235116824</v>
+        <v>0.0001107056675556938</v>
       </c>
       <c r="N2">
-        <v>7.184298583594246E-05</v>
+        <v>7.059558153060062E-05</v>
       </c>
       <c r="O2">
-        <v>1.068304138080526E-05</v>
+        <v>9.421379369487698E-06</v>
       </c>
       <c r="P2">
-        <v>6.728694610001293E-07</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>8.539318505056572E-06</v>
+        <v>7.277156745566771E-06</v>
       </c>
       <c r="R2">
-        <v>6.01198625154209E-08</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.352300573856761E-06</v>
+        <v>6.089862094811346E-06</v>
       </c>
       <c r="T2">
-        <v>7.352300573856761E-06</v>
+        <v>6.089862094811346E-06</v>
       </c>
       <c r="U2">
-        <v>1.327733223043878E-05</v>
+        <v>1.201627500443421E-05</v>
       </c>
       <c r="V2">
-        <v>1.327733223043878E-05</v>
+        <v>1.201627500443421E-05</v>
       </c>
       <c r="W2">
-        <v>2.860725334190843E-05</v>
+        <v>2.734976985210956E-05</v>
       </c>
       <c r="X2">
-        <v>4.982032711238743E-06</v>
+        <v>3.719041671484355E-06</v>
       </c>
       <c r="Y2">
-        <v>1.977679485372648E-06</v>
+        <v>7.139880658954989E-07</v>
       </c>
       <c r="Z2">
-        <v>2.706154843149831E-05</v>
+        <v>2.580370460445037E-05</v>
       </c>
       <c r="AA2">
-        <v>2.081899479332003E-05</v>
+        <v>1.955969569198917E-05</v>
       </c>
       <c r="AB2">
-        <v>3.556112793885817E-06</v>
+        <v>2.292789341355262E-06</v>
       </c>
       <c r="AC2">
-        <v>4.747050724858423E-06</v>
+        <v>3.484004905720221E-06</v>
       </c>
       <c r="AD2">
-        <v>6.109694945878841E-06</v>
+        <v>4.846966788583302E-06</v>
       </c>
       <c r="AE2">
-        <v>1.355291421446591E-06</v>
+        <v>9.145490984914404E-08</v>
       </c>
       <c r="AF2">
-        <v>2.717529442490553E-05</v>
+        <v>2.591747711450905E-05</v>
       </c>
       <c r="AG2">
-        <v>7.195690182933982E-06</v>
+        <v>5.933215194618875E-06</v>
       </c>
       <c r="AH2">
-        <v>3.424918801489891E-05</v>
+        <v>3.299301978211046E-05</v>
       </c>
       <c r="AI2">
-        <v>1.444936516250713E-05</v>
+        <v>1.318858116273074E-05</v>
       </c>
       <c r="AJ2">
-        <v>1.449902115962905E-07</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.780234438856138E-07</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.744354698896277E-05</v>
+        <v>1.618346099773592E-05</v>
       </c>
       <c r="AM2">
-        <v>1.823099294332198E-05</v>
+        <v>1.697109052277999E-05</v>
       </c>
       <c r="AN2">
-        <v>2.860725334190843E-05</v>
+        <v>2.734976985210956E-05</v>
       </c>
       <c r="AO2">
-        <v>7.834621945901158E-05</v>
+        <v>7.710033119809579E-05</v>
       </c>
       <c r="AP2">
-        <v>5.260775695082652E-05</v>
+        <v>5.135586849756298E-05</v>
       </c>
       <c r="AQ2">
-        <v>6.061961948645472E-05</v>
+        <v>5.936959877164923E-05</v>
       </c>
       <c r="AR2">
-        <v>1.823099294332198E-05</v>
+        <v>1.697109052277999E-05</v>
       </c>
       <c r="AS2">
-        <v>4.747050724858423E-06</v>
+        <v>3.484004905720221E-06</v>
       </c>
       <c r="AT2">
-        <v>7.589247960123164E-07</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.033762840082558E-05</v>
+        <v>9.075885866270912E-06</v>
       </c>
       <c r="AV2">
-        <v>5.457818683661936E-06</v>
+        <v>4.194938559909231E-06</v>
       </c>
       <c r="AW2">
-        <v>2.228036670861813E-05</v>
+        <v>2.102140828469101E-05</v>
       </c>
       <c r="AX2">
-        <v>4.128031460737108E-05</v>
+        <v>4.002578548227847E-05</v>
       </c>
       <c r="AY2">
-        <v>4.266080352735721E-05</v>
+        <v>4.140659622409259E-05</v>
       </c>
       <c r="AZ2">
-        <v>6.696176611886053E-05</v>
+        <v>6.571322389561918E-05</v>
       </c>
       <c r="BA2">
-        <v>3.471844498770052E-05</v>
+        <v>3.346238614886272E-05</v>
       </c>
       <c r="BB2">
-        <v>3.891909474422864E-05</v>
+        <v>3.766401516771145E-05</v>
       </c>
       <c r="BC2">
-        <v>4.38873574562655E-05</v>
+        <v>4.263343608925274E-05</v>
       </c>
       <c r="BD2">
-        <v>2.42062605969923E-05</v>
+        <v>2.29477511405887E-05</v>
       </c>
       <c r="BE2">
-        <v>3.850311176833923E-07</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>3.969314269936441E-06</v>
+        <v>2.706087143607729E-06</v>
       </c>
       <c r="BG2">
-        <v>2.536881152961024E-06</v>
+        <v>1.273320095488429E-06</v>
       </c>
       <c r="BH2">
-        <v>7.137217886323068E-06</v>
+        <v>5.874729266850832E-06</v>
       </c>
       <c r="BI2">
-        <v>2.462480457273327E-05</v>
+        <v>2.336639268798375E-05</v>
       </c>
       <c r="BJ2">
-        <v>2.887643832630632E-06</v>
+        <v>1.624164545525858E-06</v>
       </c>
       <c r="BK2">
-        <v>3.850311176833923E-07</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>4.688194228269777E-07</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>7.520091164131529E-08</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>4.539831736868946E-07</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>2.248588369670626E-06</v>
+        <v>9.849601049143145E-07</v>
       </c>
       <c r="BP2">
-        <v>2.780234438856138E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1.922258688584868E-08</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1.860352092173007E-06</v>
+        <v>5.966333211426462E-07</v>
       </c>
       <c r="BS2">
-        <v>4.012950767407246E-06</v>
+        <v>2.749733813689976E-06</v>
       </c>
       <c r="BT2">
-        <v>6.163804442742627E-06</v>
+        <v>4.901088899541224E-06</v>
       </c>
       <c r="BU2">
-        <v>2.123363876928704E-06</v>
+        <v>8.597064196344596E-07</v>
       </c>
       <c r="BV2">
-        <v>6.909056599547416E-07</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>7.400156571083002E-07</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1.587087308011578E-06</v>
+        <v>3.233048330491623E-07</v>
       </c>
       <c r="BY2">
-        <v>9.092882472971712E-06</v>
+        <v>7.830849761216723E-06</v>
       </c>
       <c r="BZ2">
-        <v>4.395163745253979E-06</v>
+        <v>3.132035893649321E-06</v>
       </c>
       <c r="CA2">
-        <v>8.003138536133848E-06</v>
+        <v>6.740851781495423E-06</v>
       </c>
       <c r="CB2">
-        <v>8.545835104678866E-07</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>1.549850710169831E-05</v>
+        <v>1.423796767960146E-05</v>
       </c>
       <c r="CD2">
-        <v>2.217738471458703E-05</v>
+        <v>2.091840228332953E-05</v>
       </c>
       <c r="CE2">
-        <v>1.915221688992735E-05</v>
+        <v>1.789252922661389E-05</v>
       </c>
       <c r="CF2">
-        <v>2.045597481436085E-05</v>
+        <v>1.919659108522058E-05</v>
       </c>
       <c r="CG2">
-        <v>1.327733223043878E-05</v>
+        <v>1.201627500443421E-05</v>
       </c>
       <c r="CH2">
-        <v>3.458985999515338E-05</v>
+        <v>3.333377118037245E-05</v>
       </c>
       <c r="CI2">
-        <v>1.997691584212737E-05</v>
+        <v>1.871742043397836E-05</v>
       </c>
       <c r="CJ2">
-        <v>2.780234438856138E-07</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>3.217552813508933E-07</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>1.239421428162477E-06</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>4.990381710754831E-05</v>
+        <v>4.86512983074196E-05</v>
       </c>
       <c r="CN2">
-        <v>0.06942574997604672</v>
+        <v>0.06944067046762395</v>
       </c>
       <c r="CO2">
-        <v>0.007777409149217243</v>
+        <v>0.007777958079060218</v>
       </c>
       <c r="CP2">
-        <v>0.07656872556203607</v>
+        <v>0.07658531123572888</v>
       </c>
       <c r="CQ2">
-        <v>0.01572159608876796</v>
+        <v>0.01572399698042367</v>
       </c>
       <c r="CR2">
-        <v>0.0352574309564606</v>
+        <v>0.03526438607379483</v>
       </c>
       <c r="CS2">
-        <v>0.007339354174607141</v>
+        <v>0.007339800984360165</v>
       </c>
       <c r="CT2">
-        <v>0.0005159029700979903</v>
+        <v>0.0005147590857802416</v>
       </c>
       <c r="CU2">
-        <v>0.02076116479667188</v>
+        <v>0.02076474052080205</v>
       </c>
       <c r="CV2">
-        <v>0.009206768466370819</v>
+        <v>0.009207650610788451</v>
       </c>
       <c r="CW2">
-        <v>0.02873895333427503</v>
+        <v>0.02874438885347727</v>
       </c>
       <c r="CX2">
-        <v>0.003052891823052772</v>
+        <v>0.00305233936571311</v>
       </c>
       <c r="CY2">
-        <v>0.02007983683616201</v>
+        <v>0.02008325372800709</v>
       </c>
       <c r="CZ2">
-        <v>0.0739395497144245</v>
+        <v>0.07395552247035671</v>
       </c>
       <c r="DA2">
-        <v>0.003357150405417783</v>
+        <v>0.003356668877334951</v>
       </c>
       <c r="DB2">
-        <v>0.04217410955556625</v>
+        <v>0.04218267710029349</v>
       </c>
       <c r="DC2">
-        <v>0.0008120289529343714</v>
+        <v>0.0008109541019885897</v>
       </c>
       <c r="DD2">
-        <v>0.0005719060668520212</v>
+        <v>0.0005707752380675036</v>
       </c>
       <c r="DE2">
-        <v>0.002157328874960074</v>
+        <v>0.002156567642525694</v>
       </c>
       <c r="DF2">
-        <v>0.0001274330526139127</v>
+        <v>0.0001261986075555805</v>
       </c>
       <c r="DG2">
-        <v>0.001459462115408802</v>
+        <v>0.001458538195137528</v>
       </c>
       <c r="DH2">
-        <v>0.007232492880800879</v>
+        <v>0.007232914778874847</v>
       </c>
       <c r="DI2">
-        <v>6.377040630383344E-05</v>
+        <v>6.252112010558834E-05</v>
       </c>
       <c r="DJ2">
-        <v>0.001403212018669088</v>
+        <v>0.001402274985283543</v>
       </c>
       <c r="DK2">
-        <v>0.002284325967599256</v>
+        <v>0.002283594340934187</v>
       </c>
       <c r="DL2">
-        <v>0.0002872680833497896</v>
+        <v>0.0002860708992944415</v>
       </c>
       <c r="DM2">
-        <v>0.001814590594825367</v>
+        <v>0.00181374946268427</v>
       </c>
       <c r="DN2">
-        <v>0.006646811614747276</v>
+        <v>0.006647096977849519</v>
       </c>
       <c r="DO2">
-        <v>0.0003448985600094966</v>
+        <v>0.0003437148108648368</v>
       </c>
       <c r="DP2">
-        <v>0.002837280335549728</v>
+        <v>0.002836677614508534</v>
       </c>
       <c r="DQ2">
-        <v>0.001262088826848663</v>
+        <v>0.001261118894594533</v>
       </c>
       <c r="DR2">
-        <v>0.0001729439599760764</v>
+        <v>0.0001717201244946763</v>
       </c>
       <c r="DS2">
-        <v>0.0001006869291641322</v>
+        <v>9.944624900589052E-05</v>
       </c>
       <c r="DT2">
-        <v>4.517745038149103E-06</v>
+        <v>3.254645762895321E-06</v>
       </c>
       <c r="DU2">
-        <v>0.01050222539128545</v>
+        <v>0.01050340953473372</v>
       </c>
       <c r="DV2">
-        <v>0.007237431180514652</v>
+        <v>0.007237854229813102</v>
       </c>
       <c r="DW2">
-        <v>0.008552212504309228</v>
+        <v>0.008552942057573697</v>
       </c>
       <c r="DX2">
-        <v>0.0003074761821785175</v>
+        <v>0.0003062837090681187</v>
       </c>
       <c r="DY2">
-        <v>3.243138212025989E-05</v>
+        <v>3.117479011759727E-05</v>
       </c>
       <c r="DZ2">
-        <v>0.01133944734275962</v>
+        <v>0.01134082666075435</v>
       </c>
       <c r="EA2">
-        <v>0.04091994762825814</v>
+        <v>0.04092822280071191</v>
       </c>
       <c r="EB2">
-        <v>0.009122618471248197</v>
+        <v>0.009123480998481754</v>
       </c>
       <c r="EC2">
-        <v>0.0001286386625440349</v>
+        <v>0.0001274044985394554</v>
       </c>
       <c r="ED2">
-        <v>0.03160211216832483</v>
+        <v>0.03160821515178298</v>
       </c>
       <c r="EE2">
-        <v>0.0087903284905079</v>
+        <v>0.008791113553759331</v>
       </c>
       <c r="EF2">
-        <v>7.644045556947068E-06</v>
+        <v>6.381675089967816E-06</v>
       </c>
       <c r="EG2">
-        <v>0.0006949953597177005</v>
+        <v>0.000693893225709839</v>
       </c>
       <c r="EH2">
-        <v>6.912715899335322E-06</v>
+        <v>5.650174943593818E-06</v>
       </c>
       <c r="EI2">
-        <v>0.001065250538257514</v>
+        <v>0.001064234718740593</v>
       </c>
       <c r="EJ2">
-        <v>0.004314040749955911</v>
+        <v>0.004313782293710457</v>
       </c>
       <c r="EK2">
-        <v>0.008653507998438089</v>
+        <v>0.008654261165873317</v>
       </c>
       <c r="EL2">
-        <v>0.00858920300216524</v>
+        <v>0.008589941178714883</v>
       </c>
       <c r="EM2">
-        <v>0.03910410173350554</v>
+        <v>0.03911195359300349</v>
       </c>
       <c r="EN2">
-        <v>0.006314846333988158</v>
+        <v>0.006315054308802866</v>
       </c>
       <c r="EO2">
-        <v>0.02144535675701575</v>
+        <v>0.02144909198109133</v>
       </c>
       <c r="EP2">
-        <v>0.03237301812364271</v>
+        <v>0.03237930082195416</v>
       </c>
       <c r="EQ2">
-        <v>0.03780776780864173</v>
+        <v>0.03781531746466138</v>
       </c>
       <c r="ER2">
-        <v>0.02927801230303089</v>
+        <v>0.02928357348853888</v>
       </c>
       <c r="ES2">
-        <v>0.005279164494016827</v>
+        <v>0.00527913102899227</v>
       </c>
       <c r="ET2">
-        <v>0.003119213119208754</v>
+        <v>0.003118676122797793</v>
       </c>
       <c r="EU2">
-        <v>0.004648900330547273</v>
+        <v>0.00464871993731325</v>
       </c>
       <c r="EV2">
-        <v>0.005607679674975914</v>
+        <v>0.005607722793946002</v>
       </c>
       <c r="EW2">
-        <v>0.0009968351422229068</v>
+        <v>0.0009958033735973078</v>
       </c>
       <c r="EX2">
-        <v>0.0005865351060041142</v>
+        <v>0.0005854076875650572</v>
       </c>
       <c r="EY2">
-        <v>8.096118530744678E-05</v>
+        <v>7.971590665163341E-05</v>
       </c>
       <c r="EZ2">
-        <v>0.001265100026674132</v>
+        <v>0.001264130796395815</v>
       </c>
       <c r="FA2">
-        <v>4.498467539266437E-05</v>
+        <v>4.373100983419818E-05</v>
       </c>
       <c r="FB2">
-        <v>0.02766098639675457</v>
+        <v>0.02766617061854665</v>
       </c>
       <c r="FC2">
-        <v>0.01061993338446303</v>
+        <v>0.0106211449681906</v>
       </c>
       <c r="FD2">
-        <v>0.0001858499592280378</v>
+        <v>0.0001846291324142272</v>
       </c>
       <c r="FE2">
-        <v>0.006549832920368212</v>
+        <v>0.006550095675639093</v>
       </c>
       <c r="FF2">
-        <v>0.0005957183654718477</v>
+        <v>0.0005945930878492116</v>
       </c>
       <c r="FG2">
-        <v>0.001659211603831216</v>
+        <v>0.001658334249486385</v>
       </c>
       <c r="FH2">
-        <v>0.000707692888981745</v>
+        <v>0.0007065937150426095</v>
       </c>
       <c r="FI2">
-        <v>0.001332114122789959</v>
+        <v>0.001331160514946999</v>
       </c>
       <c r="FJ2">
-        <v>0.01317237023652244</v>
+        <v>0.01317417684849084</v>
       </c>
       <c r="FK2">
-        <v>0.0004510331538578793</v>
+        <v>0.0004498741469827951</v>
       </c>
       <c r="FL2">
-        <v>6.728694610001293E-07</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0003192640214952881</v>
+        <v>0.0003180742963852114</v>
       </c>
       <c r="FN2">
-        <v>0.007822106546626557</v>
+        <v>0.007822665896399697</v>
       </c>
       <c r="FO2">
-        <v>0.001159398132800669</v>
+        <v>0.001158404261124501</v>
       </c>
       <c r="FP2">
-        <v>0.004641638730968158</v>
+        <v>0.004641456644898201</v>
       </c>
       <c r="FQ2">
-        <v>0.002198350072582464</v>
+        <v>0.00219759840307656</v>
       </c>
       <c r="FR2">
-        <v>0.006433555627107705</v>
+        <v>0.006433791275626386</v>
       </c>
       <c r="FS2">
-        <v>0.005223187697261272</v>
+        <v>0.005223141182834582</v>
       </c>
       <c r="FT2">
-        <v>0.0004589877733968253</v>
+        <v>0.0004578306209156185</v>
       </c>
       <c r="FU2">
-        <v>7.520091164131529E-08</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>5.030905708406038E-06</v>
+        <v>3.76792606200444E-06</v>
       </c>
       <c r="FW2">
-        <v>0.0009511166448727751</v>
+        <v>0.0009500742182765275</v>
       </c>
       <c r="FX2">
-        <v>0.01170306032168442</v>
+        <v>0.01170452440572969</v>
       </c>
       <c r="FY2">
-        <v>0.007786808048672477</v>
+        <v>0.007787359169602218</v>
       </c>
       <c r="FZ2">
-        <v>0.004548073036391276</v>
+        <v>0.004547869138134036</v>
       </c>
       <c r="GA2">
-        <v>0.0004303448950569817</v>
+        <v>0.0004291810653012727</v>
       </c>
       <c r="GB2">
-        <v>0.0001088650736901226</v>
+        <v>0.0001076263000342677</v>
       </c>
       <c r="GC2">
-        <v>1.396544419055545E-05</v>
+        <v>1.270454737833302E-05</v>
       </c>
       <c r="GD2">
-        <v>0.0002492571555529231</v>
+        <v>0.0002480511103281083</v>
       </c>
       <c r="GE2">
-        <v>9.988668421051484E-05</v>
+        <v>9.864581749786472E-05</v>
       </c>
       <c r="GF2">
-        <v>0.000909537247282739</v>
+        <v>0.0009084851276295278</v>
       </c>
       <c r="GG2">
-        <v>0.006133743644484967</v>
+        <v>0.0061339094003454</v>
       </c>
       <c r="GH2">
-        <v>0.006927690098467409</v>
+        <v>0.006928040940419765</v>
       </c>
       <c r="GI2">
-        <v>0.007659978256023599</v>
+        <v>0.007660499810185277</v>
       </c>
       <c r="GJ2">
-        <v>0.008465772509319337</v>
+        <v>0.008466481911551228</v>
       </c>
       <c r="GK2">
-        <v>0.001914650489025843</v>
+        <v>0.001913832683010434</v>
       </c>
       <c r="GL2">
-        <v>0.0006596432617667268</v>
+        <v>0.0006585328864201475</v>
       </c>
       <c r="GM2">
-        <v>1.632939805353943E-05</v>
+        <v>1.506905233009608E-05</v>
       </c>
       <c r="GN2">
-        <v>0.0002698518043592464</v>
+        <v>0.0002686505601925419</v>
       </c>
       <c r="GO2">
-        <v>0.002355943263448279</v>
+        <v>0.002355228332323993</v>
       </c>
       <c r="GP2">
-        <v>0.0001927469588282841</v>
+        <v>0.0001915277398542662</v>
       </c>
       <c r="GQ2">
-        <v>0.001755151698270477</v>
+        <v>0.001754296709636897</v>
       </c>
       <c r="GR2">
-        <v>0.01696491301670465</v>
+        <v>0.0169676037524299</v>
       </c>
       <c r="GS2">
-        <v>0.04384888445849541</v>
+        <v>0.04385784242947882</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.004297946825662E-07</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.979268920248457E-05</v>
+        <v>2.540730091970526E-05</v>
       </c>
       <c r="D3">
-        <v>6.27514964264875E-07</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.912671719795833E-05</v>
+        <v>2.474078227123903E-05</v>
       </c>
       <c r="F3">
-        <v>6.928958547092332E-05</v>
+        <v>6.4936617077939E-05</v>
       </c>
       <c r="G3">
-        <v>4.576808031106054E-05</v>
+        <v>4.139580496798291E-05</v>
       </c>
       <c r="H3">
-        <v>0.000293215651992826</v>
+        <v>0.0002890464868624962</v>
       </c>
       <c r="I3">
-        <v>0.0005515658037486903</v>
+        <v>0.0005476086978999688</v>
       </c>
       <c r="J3">
-        <v>0.0004626293031442377</v>
+        <v>0.000458599196330358</v>
       </c>
       <c r="K3">
-        <v>1.212190108238591E-05</v>
+        <v>7.722008242095279E-06</v>
       </c>
       <c r="L3">
-        <v>2.866223819480151E-05</v>
+        <v>2.427592201386943E-05</v>
       </c>
       <c r="M3">
-        <v>7.330206049819391E-05</v>
+        <v>6.895238562977682E-05</v>
       </c>
       <c r="N3">
-        <v>0.0002262729115378529</v>
+        <v>0.0002220487983869654</v>
       </c>
       <c r="O3">
-        <v>0.0001036698507045871</v>
+        <v>9.934510236217141E-05</v>
       </c>
       <c r="P3">
-        <v>2.275718215466809E-05</v>
+        <v>1.836601897855053E-05</v>
       </c>
       <c r="Q3">
-        <v>4.292864229176244E-07</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.406226029946702E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>4.09452332782823E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>9.189744062457651E-06</v>
+        <v>4.787444445523059E-06</v>
       </c>
       <c r="U3">
-        <v>3.126306221247789E-05</v>
+        <v>2.687888084303722E-05</v>
       </c>
       <c r="V3">
-        <v>4.107235527914627E-05</v>
+        <v>3.669622558541265E-05</v>
       </c>
       <c r="W3">
-        <v>1.004297946825662E-07</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1.068691657263311E-05</v>
+        <v>6.285845866635066E-06</v>
       </c>
       <c r="Y3">
-        <v>1.577012310718088E-05</v>
+        <v>1.137322480487084E-05</v>
       </c>
       <c r="Z3">
-        <v>3.326786222610342E-09</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.670476511353313E-06</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.500266610196489E-08</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.807943812287603E-05</v>
+        <v>1.368443535528856E-05</v>
       </c>
       <c r="AD3">
-        <v>0.0001421061909658178</v>
+        <v>0.0001378129919863425</v>
       </c>
       <c r="AE3">
-        <v>0.0001142653007765986</v>
+        <v>0.0001099492494042265</v>
       </c>
       <c r="AF3">
-        <v>0.0001117393107594308</v>
+        <v>0.0001074211860009014</v>
       </c>
       <c r="AG3">
-        <v>7.987614054287432E-06</v>
+        <v>3.584327703556867E-06</v>
       </c>
       <c r="AH3">
-        <v>5.071789634470173E-05</v>
+        <v>4.634968391556108E-05</v>
       </c>
       <c r="AI3">
-        <v>4.360216029633997E-05</v>
+        <v>3.922810712019655E-05</v>
       </c>
       <c r="AJ3">
-        <v>1.506445610238485E-05</v>
+        <v>1.066697857363707E-05</v>
       </c>
       <c r="AK3">
-        <v>1.832827912456726E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>3.042328020677035E-05</v>
+        <v>2.603840952645594E-05</v>
       </c>
       <c r="AM3">
-        <v>0.0001726954211737161</v>
+        <v>0.0001684273304828899</v>
       </c>
       <c r="AN3">
-        <v>1.708317011610494E-05</v>
+        <v>1.268734959061655E-05</v>
       </c>
       <c r="AO3">
-        <v>1.369837809310036E-05</v>
+        <v>9.299779258561584E-06</v>
       </c>
       <c r="AP3">
-        <v>4.084009227756771E-05</v>
+        <v>3.646377193743839E-05</v>
       </c>
       <c r="AQ3">
-        <v>0.0001541130310474218</v>
+        <v>0.0001498296875368315</v>
       </c>
       <c r="AR3">
-        <v>0.000338092002297826</v>
+        <v>0.0003339596726272093</v>
       </c>
       <c r="AS3">
-        <v>0.0002717971518472562</v>
+        <v>0.0002676104059579327</v>
       </c>
       <c r="AT3">
-        <v>0.0001734570511788925</v>
+        <v>0.0001691895856501212</v>
       </c>
       <c r="AU3">
-        <v>7.510334051043622E-05</v>
+        <v>7.075514417084048E-05</v>
       </c>
       <c r="AV3">
-        <v>0.0001969645013386597</v>
+        <v>0.0001927163312233397</v>
       </c>
       <c r="AW3">
-        <v>0.0001743116311847006</v>
+        <v>0.0001700448671133152</v>
       </c>
       <c r="AX3">
-        <v>3.610962024541729E-05</v>
+        <v>3.172941703355753E-05</v>
       </c>
       <c r="AY3">
-        <v>4.919143033432718E-06</v>
+        <v>5.133380166363647E-07</v>
       </c>
       <c r="AZ3">
-        <v>3.97821262703773E-06</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0002371233316115973</v>
+        <v>0.0002329081247155362</v>
       </c>
       <c r="BB3">
-        <v>0.0003414049023203419</v>
+        <v>0.0003372752919482975</v>
       </c>
       <c r="BC3">
-        <v>0.000400869032724487</v>
+        <v>0.0003967882317713233</v>
       </c>
       <c r="BD3">
-        <v>0.0003699170825141236</v>
+        <v>0.0003658108755440431</v>
       </c>
       <c r="BE3">
-        <v>0.0003019053820518853</v>
+        <v>0.000297743349636211</v>
       </c>
       <c r="BF3">
-        <v>5.548970037713306E-05</v>
+        <v>5.112540474590491E-05</v>
       </c>
       <c r="BG3">
-        <v>2.979268920248457E-05</v>
+        <v>2.540730091970526E-05</v>
       </c>
       <c r="BH3">
-        <v>0.0001155806907855386</v>
+        <v>0.0001112657191131722</v>
       </c>
       <c r="BI3">
-        <v>0.0003436758423357762</v>
+        <v>0.0003395480959994406</v>
       </c>
       <c r="BJ3">
-        <v>8.199413055726914E-05</v>
+        <v>7.765159032422923E-05</v>
       </c>
       <c r="BK3">
-        <v>1.088670807399098E-08</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>6.530882044386824E-08</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0001216978858271138</v>
+        <v>0.0001173879352781227</v>
       </c>
       <c r="BN3">
-        <v>2.897302319691375E-05</v>
+        <v>2.458696211490007E-05</v>
       </c>
       <c r="BO3">
-        <v>2.110642914344883E-05</v>
+        <v>1.671391099426354E-05</v>
       </c>
       <c r="BP3">
-        <v>1.4263767096943E-05</v>
+        <v>9.865632345684876E-06</v>
       </c>
       <c r="BQ3">
-        <v>7.666900052107715E-05</v>
+        <v>7.232208930841028E-05</v>
       </c>
       <c r="BR3">
-        <v>2.584383417564637E-05</v>
+        <v>2.145520458894494E-05</v>
       </c>
       <c r="BS3">
-        <v>0.000106772044725671</v>
+        <v>0.0001024498427298746</v>
       </c>
       <c r="BT3">
-        <v>0.0001676233111392437</v>
+        <v>0.0001633510571529721</v>
       </c>
       <c r="BU3">
-        <v>2.584383417564637E-05</v>
+        <v>2.145520458894494E-05</v>
       </c>
       <c r="BV3">
-        <v>0.0001123521407635959</v>
+        <v>0.0001080345190289259</v>
       </c>
       <c r="BW3">
-        <v>5.640749438337081E-05</v>
+        <v>5.20439520969203E-05</v>
       </c>
       <c r="BX3">
-        <v>0.000273223601856951</v>
+        <v>0.0002690380268280364</v>
       </c>
       <c r="BY3">
-        <v>0.0002876932619552933</v>
+        <v>0.0002835195639301456</v>
       </c>
       <c r="BZ3">
-        <v>7.3613120500308E-05</v>
+        <v>6.926370095653514E-05</v>
       </c>
       <c r="CA3">
-        <v>0.0001233717608384902</v>
+        <v>0.0001190631842415947</v>
       </c>
       <c r="CB3">
-        <v>2.726187018528398E-07</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0003608329024523833</v>
+        <v>0.0003567192389947227</v>
       </c>
       <c r="CD3">
-        <v>0.0003458096823502787</v>
+        <v>0.0003416836875150646</v>
       </c>
       <c r="CE3">
-        <v>0.0001536628410443621</v>
+        <v>0.0001493791280082732</v>
       </c>
       <c r="CF3">
-        <v>7.460244550703192E-05</v>
+        <v>7.025383802219837E-05</v>
       </c>
       <c r="CG3">
-        <v>7.565956451421657E-06</v>
+        <v>3.162323995191479E-06</v>
       </c>
       <c r="CH3">
-        <v>9.104521061878437E-07</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>5.990954040717229E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>7.21855504906056E-07</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>3.610962024541729E-05</v>
+        <v>3.172941703355753E-05</v>
       </c>
       <c r="CL3">
-        <v>2.924984819879518E-06</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>1.484059010086335E-05</v>
+        <v>1.044292881815555E-05</v>
       </c>
       <c r="CN3">
-        <v>0.03635355524707518</v>
+        <v>0.03637898517316703</v>
       </c>
       <c r="CO3">
-        <v>0.05187832635258854</v>
+        <v>0.05191649933993037</v>
       </c>
       <c r="CP3">
-        <v>0.1200759408160903</v>
+        <v>0.1201700918511796</v>
       </c>
       <c r="CQ3">
-        <v>0.01344370409136949</v>
+        <v>0.01345032912594177</v>
       </c>
       <c r="CR3">
-        <v>0.01470951009997247</v>
+        <v>0.01471717413495182</v>
       </c>
       <c r="CS3">
-        <v>0.00670257684555374</v>
+        <v>0.006703668619970135</v>
       </c>
       <c r="CT3">
-        <v>0.0006288391042738745</v>
+        <v>0.0006249454259884253</v>
       </c>
       <c r="CU3">
-        <v>0.00208387271416294</v>
+        <v>0.002081173358311335</v>
       </c>
       <c r="CV3">
-        <v>0.0005899156040093329</v>
+        <v>0.0005859899764896847</v>
       </c>
       <c r="CW3">
-        <v>0.0209839211426162</v>
+        <v>0.02099673534719745</v>
       </c>
       <c r="CX3">
-        <v>0.005825476039592566</v>
+        <v>0.005825847871072811</v>
       </c>
       <c r="CY3">
-        <v>0.006751619745887057</v>
+        <v>0.00675275177575576</v>
       </c>
       <c r="CZ3">
-        <v>0.05702359638755812</v>
+        <v>0.05706599272162486</v>
       </c>
       <c r="DA3">
-        <v>0.006210870042211878</v>
+        <v>0.006211558213259861</v>
       </c>
       <c r="DB3">
-        <v>0.03151111721416378</v>
+        <v>0.03153257236445808</v>
       </c>
       <c r="DC3">
-        <v>0.01800990312240344</v>
+        <v>0.01802027618994423</v>
       </c>
       <c r="DD3">
-        <v>0.001091937807421302</v>
+        <v>0.001088424250369132</v>
       </c>
       <c r="DE3">
-        <v>0.001051852007148861</v>
+        <v>0.001048305546822005</v>
       </c>
       <c r="DF3">
-        <v>0.0002304120115659841</v>
+        <v>0.0002261912958761489</v>
       </c>
       <c r="DG3">
-        <v>0.0004455973030284805</v>
+        <v>0.0004415532159878259</v>
       </c>
       <c r="DH3">
-        <v>0.01186962808067135</v>
+        <v>0.0118749610802835</v>
       </c>
       <c r="DI3">
-        <v>0.00508604523456706</v>
+        <v>0.005085810125566539</v>
       </c>
       <c r="DJ3">
-        <v>0.004670729031744384</v>
+        <v>0.004670153022399843</v>
       </c>
       <c r="DK3">
-        <v>0.01309206408897958</v>
+        <v>0.0130984004899831</v>
       </c>
       <c r="DL3">
-        <v>0.00108409950736803</v>
+        <v>0.001080579516473003</v>
       </c>
       <c r="DM3">
-        <v>0.002462913316739071</v>
+        <v>0.002460525085449756</v>
       </c>
       <c r="DN3">
-        <v>0.01077578207323708</v>
+        <v>0.01078021722085669</v>
       </c>
       <c r="DO3">
-        <v>7.742747452623209E-05</v>
+        <v>7.308118588510837E-05</v>
       </c>
       <c r="DP3">
-        <v>0.0001246515908471885</v>
+        <v>0.0001203440647618967</v>
       </c>
       <c r="DQ3">
-        <v>0.0009593954365204846</v>
+        <v>0.0009557730858803682</v>
       </c>
       <c r="DR3">
-        <v>0.002638541917932723</v>
+        <v>0.00263629784632261</v>
       </c>
       <c r="DS3">
-        <v>0.001197388708137994</v>
+        <v>0.001193961707420701</v>
       </c>
       <c r="DT3">
-        <v>0.0003113620621161572</v>
+        <v>0.0003072077919439622</v>
       </c>
       <c r="DU3">
-        <v>0.006521093044320293</v>
+        <v>0.006522035852985163</v>
       </c>
       <c r="DV3">
-        <v>0.008185607055633082</v>
+        <v>0.008187916132686289</v>
       </c>
       <c r="DW3">
-        <v>0.006751619745887057</v>
+        <v>0.00675275177575576</v>
       </c>
       <c r="DX3">
-        <v>0.0004795076032589502</v>
+        <v>0.0004754913505116263</v>
       </c>
       <c r="DY3">
-        <v>8.715887059237104E-05</v>
+        <v>8.282056968744491E-05</v>
       </c>
       <c r="DZ3">
-        <v>6.51596644428545E-05</v>
+        <v>6.080330612313563E-05</v>
       </c>
       <c r="EA3">
-        <v>0.03218963721877531</v>
+        <v>0.03221164931267408</v>
       </c>
       <c r="EB3">
-        <v>0.02113854314366708</v>
+        <v>0.02115148426526479</v>
       </c>
       <c r="EC3">
-        <v>0.0002019434213724987</v>
+        <v>0.000197699338060296</v>
       </c>
       <c r="ED3">
-        <v>0.03242525022037665</v>
+        <v>0.03244745571042215</v>
       </c>
       <c r="EE3">
-        <v>0.02167483014731193</v>
+        <v>0.02168821146465157</v>
       </c>
       <c r="EF3">
-        <v>2.180686214820928E-05</v>
+        <v>1.741491892928355E-05</v>
       </c>
       <c r="EG3">
-        <v>0.002049814013931462</v>
+        <v>0.002047086701976659</v>
       </c>
       <c r="EH3">
-        <v>0.001021250806940882</v>
+        <v>0.001017679228500146</v>
       </c>
       <c r="EI3">
-        <v>0.001144669607779692</v>
+        <v>0.001141199334107175</v>
       </c>
       <c r="EJ3">
-        <v>0.003408696523167041</v>
+        <v>0.003407084610784254</v>
       </c>
       <c r="EK3">
-        <v>0.008473446057589366</v>
+        <v>0.008475991398997592</v>
       </c>
       <c r="EL3">
-        <v>0.004300425329227632</v>
+        <v>0.004299545366753593</v>
       </c>
       <c r="EM3">
-        <v>0.02611808717751032</v>
+        <v>0.0261351156144178</v>
       </c>
       <c r="EN3">
-        <v>0.02088078514191525</v>
+        <v>0.02089351469028062</v>
       </c>
       <c r="EO3">
-        <v>0.01201599608166613</v>
+        <v>0.01202144922323651</v>
       </c>
       <c r="EP3">
-        <v>0.03455710823486572</v>
+        <v>0.0345810635991651</v>
       </c>
       <c r="EQ3">
-        <v>0.03643318024761635</v>
+        <v>0.03645867553159669</v>
       </c>
       <c r="ER3">
-        <v>0.03994024027145191</v>
+        <v>0.03996861422464982</v>
       </c>
       <c r="ES3">
-        <v>0.009411429063964322</v>
+        <v>0.009414744321709507</v>
       </c>
       <c r="ET3">
-        <v>0.001143441907771347</v>
+        <v>0.001139970626376636</v>
       </c>
       <c r="EU3">
-        <v>0.006930865047105289</v>
+        <v>0.006932144205317249</v>
       </c>
       <c r="EV3">
-        <v>0.0009266786062981263</v>
+        <v>0.0009230294009901636</v>
       </c>
       <c r="EW3">
-        <v>0.00346441662354574</v>
+        <v>0.003462850447402615</v>
       </c>
       <c r="EX3">
-        <v>0.0001085652557378585</v>
+        <v>0.0001042445256476771</v>
       </c>
       <c r="EY3">
-        <v>0.0005475145037211559</v>
+        <v>0.0005435540724794839</v>
       </c>
       <c r="EZ3">
-        <v>0.005777758539268256</v>
+        <v>0.005778091203212619</v>
       </c>
       <c r="FA3">
-        <v>4.052044527539525E-05</v>
+        <v>3.614386256223E-05</v>
       </c>
       <c r="FB3">
-        <v>0.013375361090905</v>
+        <v>0.01338193002809362</v>
       </c>
       <c r="FC3">
-        <v>0.01465631909961096</v>
+        <v>0.01466393947428956</v>
       </c>
       <c r="FD3">
-        <v>0.0003921284526650821</v>
+        <v>0.0003880404772585046</v>
       </c>
       <c r="FE3">
-        <v>0.005067082634438182</v>
+        <v>0.005066831960533465</v>
       </c>
       <c r="FF3">
-        <v>0.001351304009184072</v>
+        <v>0.001348003345408896</v>
       </c>
       <c r="FG3">
-        <v>0.002815631219136301</v>
+        <v>0.002813532506178927</v>
       </c>
       <c r="FH3">
-        <v>0.002411722416391155</v>
+        <v>0.002409292166525583</v>
       </c>
       <c r="FI3">
-        <v>0.0003502426623804073</v>
+        <v>0.0003461203062291815</v>
       </c>
       <c r="FJ3">
-        <v>0.01144284007777071</v>
+        <v>0.01144782276074213</v>
       </c>
       <c r="FK3">
-        <v>0.001489940010126305</v>
+        <v>0.001486753141719798</v>
       </c>
       <c r="FL3">
-        <v>0.0001833588612461896</v>
+        <v>0.0001790995233330409</v>
       </c>
       <c r="FM3">
-        <v>5.112658034747934E-06</v>
+        <v>7.070118591671963E-07</v>
       </c>
       <c r="FN3">
-        <v>0.009385627063788961</v>
+        <v>0.009388921142705398</v>
       </c>
       <c r="FO3">
-        <v>0.007472825750788698</v>
+        <v>0.007474549761835859</v>
       </c>
       <c r="FP3">
-        <v>0.0009085653061750201</v>
+        <v>0.0009049012330863127</v>
       </c>
       <c r="FQ3">
-        <v>0.006761067045951265</v>
+        <v>0.006762206830364145</v>
       </c>
       <c r="FR3">
-        <v>0.004737877832200758</v>
+        <v>0.004737356940015192</v>
       </c>
       <c r="FS3">
-        <v>0.004666773631717501</v>
+        <v>0.004666194375696763</v>
       </c>
       <c r="FT3">
-        <v>0.0004374269629729512</v>
+        <v>0.000433376169543967</v>
       </c>
       <c r="FU3">
-        <v>0.0004866294633073536</v>
+        <v>0.0004826190563337415</v>
       </c>
       <c r="FV3">
-        <v>0.002000237113594515</v>
+        <v>0.00199746910786888</v>
       </c>
       <c r="FW3">
-        <v>7.80550405304973E-06</v>
+        <v>3.4020682225694E-06</v>
       </c>
       <c r="FX3">
-        <v>0.008553173058131228</v>
+        <v>0.008555783841151719</v>
       </c>
       <c r="FY3">
-        <v>0.01284850508732424</v>
+        <v>0.01285464156993573</v>
       </c>
       <c r="FZ3">
-        <v>0.004242540028834218</v>
+        <v>0.004241612552878442</v>
       </c>
       <c r="GA3">
-        <v>0.000844416505739036</v>
+        <v>0.0008406997779549702</v>
       </c>
       <c r="GB3">
-        <v>0.0002444981016617195</v>
+        <v>0.0002402889481332614</v>
       </c>
       <c r="GC3">
-        <v>0.000396848102697159</v>
+        <v>0.0003927640012793848</v>
       </c>
       <c r="GD3">
-        <v>3.240448522023552E-06</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>1.023412406955573E-06</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.001219164708285994</v>
+        <v>0.001215755581771275</v>
       </c>
       <c r="GG3">
-        <v>0.005280444035888282</v>
+        <v>0.005280368493545158</v>
       </c>
       <c r="GH3">
-        <v>0.003396499223084143</v>
+        <v>0.003394877298898864</v>
       </c>
       <c r="GI3">
-        <v>0.004896804033280892</v>
+        <v>0.004896413591090424</v>
       </c>
       <c r="GJ3">
-        <v>0.008541830058054135</v>
+        <v>0.008544431530499689</v>
       </c>
       <c r="GK3">
-        <v>0.003917403526624444</v>
+        <v>0.00391620917173473</v>
       </c>
       <c r="GL3">
-        <v>0.0009640849065523564</v>
+        <v>0.0009604664051286594</v>
       </c>
       <c r="GM3">
-        <v>5.071789634470173E-05</v>
+        <v>4.634968391556108E-05</v>
       </c>
       <c r="GN3">
-        <v>4.63545263150463E-05</v>
+        <v>4.198273233928145E-05</v>
       </c>
       <c r="GO3">
-        <v>0.001861666912652729</v>
+        <v>0.001858785165568461</v>
       </c>
       <c r="GP3">
-        <v>0.001235815208399158</v>
+        <v>0.001232419748967925</v>
       </c>
       <c r="GQ3">
-        <v>0.0004146882028184083</v>
+        <v>0.0004106187449330255</v>
       </c>
       <c r="GR3">
-        <v>0.009080503061715199</v>
+        <v>0.009083546688382077</v>
       </c>
       <c r="GS3">
-        <v>0.03409556023172882</v>
+        <v>0.03411913674764237</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.832850357020143E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.867048757708495E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.65068775335354E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.788431076254251E-05</v>
+        <v>9.260672080817386E-06</v>
       </c>
       <c r="F4">
-        <v>0.0001098159222103955</v>
+        <v>8.1558029264176E-05</v>
       </c>
       <c r="G4">
-        <v>0.0004755588395721375</v>
+        <v>0.0004491606145747367</v>
       </c>
       <c r="H4">
-        <v>0.001082437921787513</v>
+        <v>0.00105912545327214</v>
       </c>
       <c r="I4">
-        <v>0.0009869877198662737</v>
+        <v>0.0009631899222500615</v>
       </c>
       <c r="J4">
-        <v>0.0001872060437681183</v>
+        <v>0.0001593416510697075</v>
       </c>
       <c r="K4">
-        <v>1.514422530482581E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.231635145559708E-05</v>
+        <v>4.386778701167589E-05</v>
       </c>
       <c r="M4">
-        <v>0.000241155594854025</v>
+        <v>0.0002135655157410455</v>
       </c>
       <c r="N4">
-        <v>0.0004900943698647114</v>
+        <v>0.00046377005268212</v>
       </c>
       <c r="O4">
-        <v>0.0001519344230581645</v>
+        <v>0.0001238906871669713</v>
       </c>
       <c r="P4">
-        <v>3.367122667774076E-05</v>
+        <v>5.026166016077654E-06</v>
       </c>
       <c r="Q4">
-        <v>1.306073126288885E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.029422720720413E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>2.742202055195557E-08</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.000117551222366093</v>
+        <v>8.933266057050203E-05</v>
       </c>
       <c r="U4">
-        <v>4.110705482741051E-05</v>
+        <v>1.249980261158857E-05</v>
       </c>
       <c r="V4">
-        <v>3.442128269283803E-05</v>
+        <v>5.780035789596157E-06</v>
       </c>
       <c r="W4">
-        <v>2.899631558364328E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1.481365629817205E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>2.95924755956429E-05</v>
+        <v>9.266759878552741E-07</v>
       </c>
       <c r="Z4">
-        <v>4.374944288059699E-05</v>
+        <v>1.515562623423542E-05</v>
       </c>
       <c r="AA4">
-        <v>3.041118461212202E-05</v>
+        <v>1.749547837967212E-06</v>
       </c>
       <c r="AB4">
-        <v>9.408822589382544E-05</v>
+        <v>6.575036340790946E-05</v>
       </c>
       <c r="AC4">
-        <v>4.171027483955223E-07</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.365013047603426E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>5.770499916149704E-05</v>
+        <v>2.918214137583122E-05</v>
       </c>
       <c r="AF4">
-        <v>3.736041075199735E-05</v>
+        <v>8.734108231789656E-06</v>
       </c>
       <c r="AG4">
-        <v>2.99419806026778E-05</v>
+        <v>1.277958099049086E-06</v>
       </c>
       <c r="AH4">
-        <v>0.0001516766030529751</v>
+        <v>0.000123631556242069</v>
       </c>
       <c r="AI4">
-        <v>4.814395096905046E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>8.714343175403933E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>6.199949124793738E-05</v>
+        <v>3.349846937189687E-05</v>
       </c>
       <c r="AL4">
-        <v>0.0004296810086486999</v>
+        <v>0.000403049511788251</v>
       </c>
       <c r="AM4">
-        <v>0.0001822664036686923</v>
+        <v>0.0001543768947207643</v>
       </c>
       <c r="AN4">
-        <v>2.00594514037604E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0002153570143347463</v>
+        <v>0.0001876357589472875</v>
       </c>
       <c r="AP4">
-        <v>5.577810112271208E-05</v>
+        <v>2.724544577063207E-05</v>
       </c>
       <c r="AQ4">
-        <v>0.0002747544055303082</v>
+        <v>0.0002473351639875647</v>
       </c>
       <c r="AR4">
-        <v>0.0001385609827889814</v>
+        <v>0.0001104492478824869</v>
       </c>
       <c r="AS4">
-        <v>3.172029863847212E-05</v>
+        <v>3.065318226698058E-06</v>
       </c>
       <c r="AT4">
-        <v>6.109636122975901E-06</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0001330863226787864</v>
+        <v>0.000104946751143189</v>
       </c>
       <c r="AV4">
-        <v>0.0002159904743474967</v>
+        <v>0.0001882724398707559</v>
       </c>
       <c r="AW4">
-        <v>8.440880169899618E-05</v>
+        <v>5.602172290817403E-05</v>
       </c>
       <c r="AX4">
-        <v>3.39237896828244E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>5.192239104510362E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0002883618058042005</v>
+        <v>0.0002610117528771618</v>
       </c>
       <c r="BA4">
-        <v>0.0006962954740151659</v>
+        <v>0.0006710196134566035</v>
       </c>
       <c r="BB4">
-        <v>0.000601180612100676</v>
+        <v>0.0005754211275216278</v>
       </c>
       <c r="BC4">
-        <v>0.000732246014738785</v>
+        <v>0.0007071529494310745</v>
       </c>
       <c r="BD4">
-        <v>0.0005763121116001182</v>
+        <v>0.0005504261798607267</v>
       </c>
       <c r="BE4">
-        <v>0.0001779677835821689</v>
+        <v>0.0001500564177352564</v>
       </c>
       <c r="BF4">
-        <v>2.132397542921297E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0001138807022922121</v>
+        <v>8.564347725472942E-05</v>
       </c>
       <c r="BH4">
-        <v>0.0004962685699889869</v>
+        <v>0.0004699756463386709</v>
       </c>
       <c r="BI4">
-        <v>0.0002418259048675171</v>
+        <v>0.0002142392340339292</v>
       </c>
       <c r="BJ4">
-        <v>0.0001180193523755156</v>
+        <v>8.980317084850423E-05</v>
       </c>
       <c r="BK4">
-        <v>6.489420130620266E-05</v>
+        <v>3.640789796403099E-05</v>
       </c>
       <c r="BL4">
-        <v>0.0001757018335365594</v>
+        <v>0.0001477789461687277</v>
       </c>
       <c r="BM4">
-        <v>1.008971720308772E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>8.011157761250085E-08</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>9.92691419981079E-08</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>3.84118587731611E-05</v>
+        <v>9.790902478654538E-06</v>
       </c>
       <c r="BQ4">
-        <v>6.375312128323477E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>4.137857583287574E-05</v>
+        <v>1.27727042013039E-05</v>
       </c>
       <c r="BS4">
-        <v>7.488091150721702E-05</v>
+        <v>4.644538690604993E-05</v>
       </c>
       <c r="BT4">
-        <v>6.575366732350214E-05</v>
+        <v>3.727173404929242E-05</v>
       </c>
       <c r="BU4">
-        <v>0.0001080330621745097</v>
+        <v>7.976610404203902E-05</v>
       </c>
       <c r="BV4">
-        <v>0.0001294168826049272</v>
+        <v>0.0001012586533188402</v>
       </c>
       <c r="BW4">
-        <v>0.0001431222928807923</v>
+        <v>0.0001150337505551509</v>
       </c>
       <c r="BX4">
-        <v>0.0001808335836398523</v>
+        <v>0.0001529367893301098</v>
       </c>
       <c r="BY4">
-        <v>0.0001819840036630081</v>
+        <v>0.0001540930588151231</v>
       </c>
       <c r="BZ4">
-        <v>0.000192501933874715</v>
+        <v>0.0001646644688258202</v>
       </c>
       <c r="CA4">
-        <v>0.000212552224278291</v>
+        <v>0.0001848167075670346</v>
       </c>
       <c r="CB4">
-        <v>9.20242618522816E-05</v>
+        <v>6.367590486983987E-05</v>
       </c>
       <c r="CC4">
-        <v>0.0004261472585775719</v>
+        <v>0.000399497793900292</v>
       </c>
       <c r="CD4">
-        <v>0.0001626450532737501</v>
+        <v>0.0001346557769900518</v>
       </c>
       <c r="CE4">
-        <v>5.657512113875465E-05</v>
+        <v>2.80465183397332E-05</v>
       </c>
       <c r="CF4">
-        <v>5.201321404693172E-05</v>
+        <v>2.346141563153212E-05</v>
       </c>
       <c r="CG4">
-        <v>7.325985147458802E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>2.318616646669551E-09</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>1.607209732350219E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>1.498013830152303E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>2.242243045132288E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>4.35637238768588E-06</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>8.141268163868972E-07</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.006185850124509951</v>
+        <v>0.006188486626302665</v>
       </c>
       <c r="CO4">
-        <v>0.1033778360808085</v>
+        <v>0.1038746580133643</v>
       </c>
       <c r="CP4">
-        <v>0.05911489118987561</v>
+        <v>0.05938665235973023</v>
       </c>
       <c r="CQ4">
-        <v>0.0318960906420105</v>
+        <v>0.03202945424192916</v>
       </c>
       <c r="CR4">
-        <v>0.02190576144092327</v>
+        <v>0.02198832789855569</v>
       </c>
       <c r="CS4">
-        <v>0.01573135031664357</v>
+        <v>0.01578252216914329</v>
       </c>
       <c r="CT4">
-        <v>0.004470642789985936</v>
+        <v>0.004464558094581992</v>
       </c>
       <c r="CU4">
-        <v>0.02575958351849373</v>
+        <v>0.02586174524115493</v>
       </c>
       <c r="CV4">
-        <v>0.007012850141155962</v>
+        <v>0.00701969163326188</v>
       </c>
       <c r="CW4">
-        <v>0.01645188433114661</v>
+        <v>0.01650671983357418</v>
       </c>
       <c r="CX4">
-        <v>0.01228561424728715</v>
+        <v>0.01231926580171932</v>
       </c>
       <c r="CY4">
-        <v>0.004261859085783498</v>
+        <v>0.004254712802186016</v>
       </c>
       <c r="CZ4">
-        <v>0.07474404750446219</v>
+        <v>0.07509527717441784</v>
       </c>
       <c r="DA4">
-        <v>0.001578753131777439</v>
+        <v>0.001557964243199545</v>
       </c>
       <c r="DB4">
-        <v>0.06348646127786739</v>
+        <v>0.06378045027057992</v>
       </c>
       <c r="DC4">
-        <v>0.002565990051648729</v>
+        <v>0.002550220898985392</v>
       </c>
       <c r="DD4">
-        <v>0.005575274112220163</v>
+        <v>0.005574806060003839</v>
       </c>
       <c r="DE4">
-        <v>0.002820804756777687</v>
+        <v>0.002806331242983952</v>
       </c>
       <c r="DF4">
-        <v>0.0001067010761476993</v>
+        <v>7.842734535715439E-05</v>
       </c>
       <c r="DG4">
-        <v>0.0007259036746111253</v>
+        <v>0.0007007783608411861</v>
       </c>
       <c r="DH4">
-        <v>0.004429334089154467</v>
+        <v>0.004423039354230146</v>
       </c>
       <c r="DI4">
-        <v>1.222564924608016E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.001901760238278987</v>
+        <v>0.001882613721800967</v>
       </c>
       <c r="DK4">
-        <v>0.003366639167764344</v>
+        <v>0.003354941020796019</v>
       </c>
       <c r="DL4">
-        <v>0.0002418259048675171</v>
+        <v>0.0002142392340339292</v>
       </c>
       <c r="DM4">
-        <v>0.0001217554424507164</v>
+        <v>9.355825756488905E-05</v>
       </c>
       <c r="DN4">
-        <v>0.004047140581461604</v>
+        <v>0.004038902533399109</v>
       </c>
       <c r="DO4">
-        <v>0.001290370225972814</v>
+        <v>0.001268115016595653</v>
       </c>
       <c r="DP4">
-        <v>0.002019923240657394</v>
+        <v>0.002001377539500268</v>
       </c>
       <c r="DQ4">
-        <v>0.003664071073751109</v>
+        <v>0.003653885258413181</v>
       </c>
       <c r="DR4">
-        <v>0.0009249222486170084</v>
+        <v>0.000900808870952266</v>
       </c>
       <c r="DS4">
-        <v>2.313581046568193E-05</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>2.97064205979364E-05</v>
+        <v>1.041200358493688E-06</v>
       </c>
       <c r="DU4">
-        <v>0.002700782054361848</v>
+        <v>0.002685698269357878</v>
       </c>
       <c r="DV4">
-        <v>0.0102629412065744</v>
+        <v>0.01028630821400322</v>
       </c>
       <c r="DW4">
-        <v>0.01304979276266868</v>
+        <v>0.01308732988323151</v>
       </c>
       <c r="DX4">
-        <v>0.0008655254674214588</v>
+        <v>0.0008411100790136263</v>
       </c>
       <c r="DY4">
-        <v>7.152479743966453E-06</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0005635678113435986</v>
+        <v>0.0005376170795340153</v>
       </c>
       <c r="EA4">
-        <v>0.03687811374228958</v>
+        <v>0.03703680909366551</v>
       </c>
       <c r="EB4">
-        <v>0.01190280473958188</v>
+        <v>0.01193450984874283</v>
       </c>
       <c r="EC4">
-        <v>0.0003223030464873761</v>
+        <v>0.000295125572260964</v>
       </c>
       <c r="ED4">
-        <v>0.01869843337636557</v>
+        <v>0.01876469175277517</v>
       </c>
       <c r="EE4">
-        <v>0.0167131093364046</v>
+        <v>0.01676927307171556</v>
       </c>
       <c r="EF4">
-        <v>3.879909078095538E-06</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0009829532197850666</v>
+        <v>0.0009591349082227618</v>
       </c>
       <c r="EH4">
-        <v>0.0006400083128822073</v>
+        <v>0.0006144462528525956</v>
       </c>
       <c r="EI4">
-        <v>0.001635247332914565</v>
+        <v>0.001614745696529842</v>
       </c>
       <c r="EJ4">
-        <v>0.00212196754271136</v>
+        <v>0.002103940699224148</v>
       </c>
       <c r="EK4">
-        <v>0.007135010143614821</v>
+        <v>0.007142472774314042</v>
       </c>
       <c r="EL4">
-        <v>0.008124918163539876</v>
+        <v>0.008137414111713056</v>
       </c>
       <c r="EM4">
-        <v>0.03096491062326752</v>
+        <v>0.03109353951595541</v>
       </c>
       <c r="EN4">
-        <v>0.02014746940553204</v>
+        <v>0.02022109559614175</v>
       </c>
       <c r="EO4">
-        <v>0.01234006524838315</v>
+        <v>0.01237399366608925</v>
       </c>
       <c r="EP4">
-        <v>0.0325554006552812</v>
+        <v>0.03269211660364411</v>
       </c>
       <c r="EQ4">
-        <v>0.03801024776507739</v>
+        <v>0.03817469960073777</v>
       </c>
       <c r="ER4">
-        <v>0.03269811365815376</v>
+        <v>0.03283555524954276</v>
       </c>
       <c r="ES4">
-        <v>0.009881456198895803</v>
+        <v>0.009902883495647913</v>
       </c>
       <c r="ET4">
-        <v>0.003110265162604</v>
+        <v>0.003097263448300056</v>
       </c>
       <c r="EU4">
-        <v>0.00483322059728397</v>
+        <v>0.004828979476410596</v>
       </c>
       <c r="EV4">
-        <v>0.001560142431402839</v>
+        <v>0.001539258914272077</v>
       </c>
       <c r="EW4">
-        <v>0.004055322081626283</v>
+        <v>0.004047125633477026</v>
       </c>
       <c r="EX4">
-        <v>0.0002597384752280647</v>
+        <v>0.0002322428832135029</v>
       </c>
       <c r="EY4">
-        <v>0.0007720770855405123</v>
+        <v>0.0007471865465490225</v>
       </c>
       <c r="EZ4">
-        <v>0.002737526555101448</v>
+        <v>0.002722629602342416</v>
       </c>
       <c r="FA4">
-        <v>0.0003728358775045104</v>
+        <v>0.0003459153441011319</v>
       </c>
       <c r="FB4">
-        <v>0.01445156229088375</v>
+        <v>0.01449622689290831</v>
       </c>
       <c r="FC4">
-        <v>0.01946531839180158</v>
+        <v>0.0195354760958972</v>
       </c>
       <c r="FD4">
-        <v>0.0005794022716623174</v>
+        <v>0.0005535320522480362</v>
       </c>
       <c r="FE4">
-        <v>0.002108218842434624</v>
+        <v>0.002090122091873265</v>
       </c>
       <c r="FF4">
-        <v>0.0004484816290271223</v>
+        <v>0.0004219457263927704</v>
       </c>
       <c r="FG4">
-        <v>0.0004279123086130992</v>
+        <v>0.0004012718185647822</v>
       </c>
       <c r="FH4">
-        <v>0.001815215936537007</v>
+        <v>0.0017956293741785</v>
       </c>
       <c r="FI4">
-        <v>0.001161809423385118</v>
+        <v>0.001138900529704864</v>
       </c>
       <c r="FJ4">
-        <v>0.01741031735043813</v>
+        <v>0.01747002613156081</v>
       </c>
       <c r="FK4">
-        <v>0.001172752723605387</v>
+        <v>0.001149899472573857</v>
       </c>
       <c r="FL4">
-        <v>0.0003561226871681042</v>
+        <v>0.000329117173351119</v>
       </c>
       <c r="FM4">
-        <v>0.0004052598081571454</v>
+        <v>0.0003785041384920571</v>
       </c>
       <c r="FN4">
-        <v>0.006192569724645204</v>
+        <v>0.006195240393128255</v>
       </c>
       <c r="FO4">
-        <v>0.00320507946451244</v>
+        <v>0.003192559845992115</v>
       </c>
       <c r="FP4">
-        <v>0.001205148824257461</v>
+        <v>0.001182460295458925</v>
       </c>
       <c r="FQ4">
-        <v>0.004330412587163357</v>
+        <v>0.004323614872856608</v>
       </c>
       <c r="FR4">
-        <v>0.002495096050221761</v>
+        <v>0.002478966427687487</v>
       </c>
       <c r="FS4">
-        <v>0.006310720627023368</v>
+        <v>0.006313992049303271</v>
       </c>
       <c r="FT4">
-        <v>0.0002923642858847632</v>
+        <v>0.0002650345840939141</v>
       </c>
       <c r="FU4">
-        <v>0.0001231780024793499</v>
+        <v>9.498805078701711E-05</v>
       </c>
       <c r="FV4">
-        <v>0.0004345637387469804</v>
+        <v>0.0004079570687696658</v>
       </c>
       <c r="FW4">
-        <v>2.791970256197301E-07</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.005786098616463677</v>
+        <v>0.005786702529157009</v>
       </c>
       <c r="FY4">
-        <v>0.008559808172293423</v>
+        <v>0.008574515375892612</v>
       </c>
       <c r="FZ4">
-        <v>0.004473526590043982</v>
+        <v>0.004467456557700576</v>
       </c>
       <c r="GA4">
-        <v>0.003312344766671496</v>
+        <v>0.003300370552682541</v>
       </c>
       <c r="GB4">
-        <v>0.0001075851921654949</v>
+        <v>7.931595677908032E-05</v>
       </c>
       <c r="GC4">
-        <v>0.0001164011023429432</v>
+        <v>8.817669261088422E-05</v>
       </c>
       <c r="GD4">
-        <v>3.10004366239826E-05</v>
+        <v>2.341795979153106E-06</v>
       </c>
       <c r="GE4">
-        <v>0.0001378029127737228</v>
+        <v>0.0001096873233605696</v>
       </c>
       <c r="GF4">
-        <v>0.0002989732660177899</v>
+        <v>0.0002716771684553329</v>
       </c>
       <c r="GG4">
-        <v>0.003566495071787081</v>
+        <v>0.003555813118438511</v>
       </c>
       <c r="GH4">
-        <v>0.005782818516397655</v>
+        <v>0.005783405750990955</v>
       </c>
       <c r="GI4">
-        <v>0.00686344613814873</v>
+        <v>0.006869527965958694</v>
       </c>
       <c r="GJ4">
-        <v>0.007882275158655911</v>
+        <v>0.007893537356569639</v>
       </c>
       <c r="GK4">
-        <v>0.003547392071402573</v>
+        <v>0.003536612986337009</v>
       </c>
       <c r="GL4">
-        <v>0.001221512424586831</v>
+        <v>0.001198907098665549</v>
       </c>
       <c r="GM4">
-        <v>9.161178184397912E-06</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>1.360651127387441E-05</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0007087468142657887</v>
+        <v>0.0006835342641837516</v>
       </c>
       <c r="GP4">
-        <v>0.0001388074027939414</v>
+        <v>0.0001106969208423597</v>
       </c>
       <c r="GQ4">
-        <v>0.0003577363472005842</v>
+        <v>0.0003307390382501877</v>
       </c>
       <c r="GR4">
-        <v>0.008451495170113279</v>
+        <v>0.008465651642012595</v>
       </c>
       <c r="GS4">
-        <v>0.03211391064639482</v>
+        <v>0.03224838178076332</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.227807454014945E-05</v>
+        <v>5.071269256000138E-05</v>
       </c>
       <c r="C5">
-        <v>8.329415007224762E-05</v>
+        <v>7.177293447358306E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002044452949043175</v>
+        <v>0.0001931786847704859</v>
       </c>
       <c r="E5">
-        <v>0.0001258081291715698</v>
+        <v>0.0001143762589226788</v>
       </c>
       <c r="F5">
-        <v>7.847996572128757E-05</v>
+        <v>6.69486328625165E-05</v>
       </c>
       <c r="G5">
-        <v>0.0001105863130618804</v>
+        <v>9.912245337061489E-05</v>
       </c>
       <c r="H5">
-        <v>0.000164815982015291</v>
+        <v>0.0001534660888085417</v>
       </c>
       <c r="I5">
-        <v>0.0001936178141149806</v>
+        <v>0.0001823284494641929</v>
       </c>
       <c r="J5">
-        <v>8.341749208123941E-05</v>
+        <v>7.189653569225525E-05</v>
       </c>
       <c r="K5">
-        <v>0.0001689061623134703</v>
+        <v>0.0001575648648344585</v>
       </c>
       <c r="L5">
-        <v>0.000114844328372295</v>
+        <v>0.0001033894171228199</v>
       </c>
       <c r="M5">
-        <v>9.566723697426113E-05</v>
+        <v>8.417202406460519E-05</v>
       </c>
       <c r="N5">
-        <v>0.0005483943399786326</v>
+        <v>0.0005378505567452105</v>
       </c>
       <c r="O5">
-        <v>0.0001957857642730269</v>
+        <v>0.0001845009556828401</v>
       </c>
       <c r="P5">
-        <v>0.0001284261493624268</v>
+        <v>0.0001169997810198409</v>
       </c>
       <c r="Q5">
-        <v>1.167173385088398E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>3.049573522317721E-07</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1.657135120807221E-05</v>
+        <v>4.909914159223897E-06</v>
       </c>
       <c r="T5">
-        <v>4.127449300896212E-05</v>
+        <v>2.966497090412668E-05</v>
       </c>
       <c r="U5">
-        <v>4.712894343575886E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>6.346520862669301E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>3.552290458966413E-05</v>
+        <v>2.390129522106363E-05</v>
       </c>
       <c r="X5">
-        <v>4.053464095502598E-07</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1.690927923270758E-08</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.059027077204397E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>5.812499423738472E-05</v>
+        <v>4.655088434185096E-05</v>
       </c>
       <c r="AB5">
-        <v>4.69700714241769E-05</v>
+        <v>3.537251887515465E-05</v>
       </c>
       <c r="AC5">
-        <v>8.887939647941907E-07</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>2.981413517348771E-05</v>
+        <v>1.818052852749586E-05</v>
       </c>
       <c r="AE5">
-        <v>0.0001018849724275418</v>
+        <v>9.040282641401371E-05</v>
       </c>
       <c r="AF5">
-        <v>0.0001618483817989493</v>
+        <v>0.0001504922520251946</v>
       </c>
       <c r="AG5">
-        <v>0.0001738805526761096</v>
+        <v>0.0001625497091385136</v>
       </c>
       <c r="AH5">
-        <v>0.0003243579936461031</v>
+        <v>0.000313343386317898</v>
       </c>
       <c r="AI5">
-        <v>0.0001936178141149806</v>
+        <v>0.0001823284494641929</v>
       </c>
       <c r="AJ5">
-        <v>0.0001231327089765283</v>
+        <v>0.0001116952161922223</v>
       </c>
       <c r="AK5">
-        <v>5.048843068066969E-07</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>3.464765052585702E-05</v>
+        <v>2.30242017650818E-05</v>
       </c>
       <c r="AM5">
-        <v>0.0002634120392030668</v>
+        <v>0.0002522693507652513</v>
       </c>
       <c r="AN5">
-        <v>0.0003672673467742485</v>
+        <v>0.0003563429156950092</v>
       </c>
       <c r="AO5">
-        <v>5.690191814822094E-05</v>
+        <v>4.53252378943415E-05</v>
       </c>
       <c r="AP5">
-        <v>0.0001097797380030801</v>
+        <v>9.831418325215949E-05</v>
       </c>
       <c r="AQ5">
-        <v>0.0001337430197500333</v>
+        <v>0.0001223278250885412</v>
       </c>
       <c r="AR5">
-        <v>5.407173794189726E-05</v>
+        <v>4.248910991634806E-05</v>
       </c>
       <c r="AS5">
-        <v>5.775018921006096E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.364714999489429E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0001250137991136622</v>
+        <v>0.0001135802595386257</v>
       </c>
       <c r="AV5">
-        <v>6.610678481926721E-05</v>
+        <v>5.454944907394159E-05</v>
       </c>
       <c r="AW5">
-        <v>0.0001003988973192051</v>
+        <v>8.891362824114252E-05</v>
       </c>
       <c r="AX5">
-        <v>0.0001607759317207663</v>
+        <v>0.000149417548137103</v>
       </c>
       <c r="AY5">
-        <v>5.990881736742765E-05</v>
+        <v>4.83384562694627E-05</v>
       </c>
       <c r="AZ5">
-        <v>8.329415007224762E-05</v>
+        <v>7.177293447358306E-05</v>
       </c>
       <c r="BA5">
-        <v>8.977320654457893E-05</v>
+        <v>7.826560702182603E-05</v>
       </c>
       <c r="BB5">
-        <v>0.0002512224783144326</v>
+        <v>0.0002400541728771206</v>
       </c>
       <c r="BC5">
-        <v>0.0003131872428317414</v>
+        <v>0.0003021491595866759</v>
       </c>
       <c r="BD5">
-        <v>0.0001364419199467864</v>
+        <v>0.0001250323971651605</v>
       </c>
       <c r="BE5">
-        <v>2.272821565691532E-05</v>
+        <v>1.107971758059661E-05</v>
       </c>
       <c r="BF5">
-        <v>7.430319041679543E-05</v>
+        <v>6.276307984635373E-05</v>
       </c>
       <c r="BG5">
-        <v>1.110191280934332E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0001231327089765283</v>
+        <v>0.0001116952161922223</v>
       </c>
       <c r="BI5">
-        <v>1.569129314391488E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1.791192130580145E-08</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>7.711702562192755E-09</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>3.886943083363008E-05</v>
+        <v>2.725485436489283E-05</v>
       </c>
       <c r="BM5">
-        <v>6.542202476934735E-05</v>
+        <v>5.386324996497651E-05</v>
       </c>
       <c r="BN5">
-        <v>0.0003119332527403239</v>
+        <v>0.0003008925341695208</v>
       </c>
       <c r="BO5">
-        <v>3.9881428907406E-05</v>
+        <v>2.826897920552961E-05</v>
       </c>
       <c r="BP5">
-        <v>1.753009527796585E-05</v>
+        <v>5.870673079905039E-06</v>
       </c>
       <c r="BQ5">
-        <v>4.789470749158402E-05</v>
+        <v>3.629909811359882E-05</v>
       </c>
       <c r="BR5">
-        <v>4.375174018955653E-05</v>
+        <v>3.21474241491854E-05</v>
       </c>
       <c r="BS5">
-        <v>4.740510145589113E-05</v>
+        <v>3.580846314522456E-05</v>
       </c>
       <c r="BT5">
-        <v>0.0001895273738167824</v>
+        <v>0.0001782294128918535</v>
       </c>
       <c r="BU5">
-        <v>0.0001205695187896686</v>
+        <v>0.0001091266393271774</v>
       </c>
       <c r="BV5">
-        <v>6.610678481926721E-05</v>
+        <v>5.454944907394159E-05</v>
       </c>
       <c r="BW5">
-        <v>0.0001959748142868088</v>
+        <v>0.0001846904029951098</v>
       </c>
       <c r="BX5">
-        <v>0.0001659017820944472</v>
+        <v>0.0001545541707533315</v>
       </c>
       <c r="BY5">
-        <v>3.091684825387687E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0001539862712257916</v>
+        <v>0.0001426136188156241</v>
       </c>
       <c r="CA5">
-        <v>0.00011312247824677</v>
+        <v>0.0001016639484392352</v>
       </c>
       <c r="CB5">
-        <v>5.34526118967622E-05</v>
+        <v>4.186868274546028E-05</v>
       </c>
       <c r="CC5">
-        <v>5.565404805724965E-07</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>7.570403851891901E-06</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>7.631828156369809E-05</v>
+        <v>6.478240581265367E-05</v>
       </c>
       <c r="CF5">
-        <v>6.779092094204285E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>3.453839251789198E-07</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>1.364714999489429E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>5.425372795516456E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>9.130780665645321E-05</v>
+        <v>7.980343217606666E-05</v>
       </c>
       <c r="CK5">
-        <v>0.0001446089305421717</v>
+        <v>0.0001332165711602959</v>
       </c>
       <c r="CL5">
-        <v>0.0002193901159938136</v>
+        <v>0.0002081549131828399</v>
       </c>
       <c r="CM5">
-        <v>8.50605762010223E-06</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.08438051615144508</v>
+        <v>0.08454614995507088</v>
       </c>
       <c r="CO5">
-        <v>0.002022032347408685</v>
+        <v>0.002014585491491941</v>
       </c>
       <c r="CP5">
-        <v>0.0741823554079864</v>
+        <v>0.07432655724363428</v>
       </c>
       <c r="CQ5">
-        <v>0.02433842577430165</v>
+        <v>0.02437787798590695</v>
       </c>
       <c r="CR5">
-        <v>0.03329099542695516</v>
+        <v>0.03334926193173963</v>
       </c>
       <c r="CS5">
-        <v>0.005190336378382008</v>
+        <v>0.00518954787903017</v>
       </c>
       <c r="CT5">
-        <v>0.001410059402795093</v>
+        <v>0.001401326453740356</v>
       </c>
       <c r="CU5">
-        <v>0.01589375615867468</v>
+        <v>0.0159154614555824</v>
       </c>
       <c r="CV5">
-        <v>0.00825997160216225</v>
+        <v>0.008265634101718444</v>
       </c>
       <c r="CW5">
-        <v>0.03512049756032816</v>
+        <v>0.0351826088594951</v>
       </c>
       <c r="CX5">
-        <v>0.004181220004816162</v>
+        <v>0.004178310794647117</v>
       </c>
       <c r="CY5">
-        <v>0.02095634652774385</v>
+        <v>0.02098869112299219</v>
       </c>
       <c r="CZ5">
-        <v>0.0760897355470368</v>
+        <v>0.07623794584176766</v>
       </c>
       <c r="DA5">
-        <v>0.004528524330135082</v>
+        <v>0.004526344998163299</v>
       </c>
       <c r="DB5">
-        <v>0.05070317869632509</v>
+        <v>0.0507980378145859</v>
       </c>
       <c r="DC5">
-        <v>0.001513874010363307</v>
+        <v>0.001505359233133963</v>
       </c>
       <c r="DD5">
-        <v>0.0006842557798831015</v>
+        <v>0.000673997516568684</v>
       </c>
       <c r="DE5">
-        <v>0.001075910678435233</v>
+        <v>0.001066475498366444</v>
       </c>
       <c r="DF5">
-        <v>4.639315738211915E-05</v>
+        <v>3.479439241807555E-05</v>
       </c>
       <c r="DG5">
-        <v>0.002957808215627915</v>
+        <v>0.002952327941622038</v>
       </c>
       <c r="DH5">
-        <v>0.005986765036442652</v>
+        <v>0.005987650273554244</v>
       </c>
       <c r="DI5">
-        <v>7.979448581711772E-05</v>
+        <v>6.826591549105318E-05</v>
       </c>
       <c r="DJ5">
-        <v>0.0002079737351615452</v>
+        <v>0.0001967145402293865</v>
       </c>
       <c r="DK5">
-        <v>0.004627992337386424</v>
+        <v>0.004626022042632221</v>
       </c>
       <c r="DL5">
-        <v>0.0002228429962455329</v>
+        <v>0.0002116150498429301</v>
       </c>
       <c r="DM5">
-        <v>0.003141983829054547</v>
+        <v>0.003136890609729271</v>
       </c>
       <c r="DN5">
-        <v>0.006331320861561202</v>
+        <v>0.006332930200753191</v>
       </c>
       <c r="DO5">
-        <v>7.986237582206699E-05</v>
+        <v>6.833394817039723E-05</v>
       </c>
       <c r="DP5">
-        <v>0.00252594628414464</v>
+        <v>0.002519558429711344</v>
       </c>
       <c r="DQ5">
-        <v>0.002049998249447434</v>
+        <v>0.002042610165335925</v>
       </c>
       <c r="DR5">
-        <v>0.0007276400530458691</v>
+        <v>0.0007174729640496998</v>
       </c>
       <c r="DS5">
-        <v>0.0001113334481163475</v>
+        <v>9.987115856846029E-05</v>
       </c>
       <c r="DT5">
-        <v>9.272526175978745E-05</v>
+        <v>8.12238661354073E-05</v>
       </c>
       <c r="DU5">
-        <v>0.008537850622419978</v>
+        <v>0.008544097099265185</v>
       </c>
       <c r="DV5">
-        <v>0.004970134362329006</v>
+        <v>0.004968883096927931</v>
       </c>
       <c r="DW5">
-        <v>0.005558036705187821</v>
+        <v>0.005558020947296704</v>
       </c>
       <c r="DX5">
-        <v>0.000416400380356108</v>
+        <v>0.0004055792049156918</v>
       </c>
       <c r="DY5">
-        <v>0.0008377992210766101</v>
+        <v>0.0008278636373313483</v>
       </c>
       <c r="DZ5">
-        <v>0.007260042529266173</v>
+        <v>0.007263603625597842</v>
       </c>
       <c r="EA5">
-        <v>0.03236542835948018</v>
+        <v>0.03242174973668228</v>
       </c>
       <c r="EB5">
-        <v>0.006356541063399787</v>
+        <v>0.00635820340416449</v>
       </c>
       <c r="EC5">
-        <v>0.0004853798653847987</v>
+        <v>0.000474703653938524</v>
       </c>
       <c r="ED5">
-        <v>0.03178563231721232</v>
+        <v>0.03184073522271897</v>
       </c>
       <c r="EE5">
-        <v>0.005999249437352781</v>
+        <v>0.00600016091108559</v>
       </c>
       <c r="EF5">
-        <v>0.0001579406215140687</v>
+        <v>0.0001465762793777716</v>
       </c>
       <c r="EG5">
-        <v>0.001179378785978187</v>
+        <v>0.001170161049546872</v>
       </c>
       <c r="EH5">
-        <v>6.722365190068823E-07</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.002561762186755665</v>
+        <v>0.002555449601314216</v>
       </c>
       <c r="EJ5">
-        <v>0.005512490801867468</v>
+        <v>0.005512379326879314</v>
       </c>
       <c r="EK5">
-        <v>0.00624034145492869</v>
+        <v>0.006241759596141097</v>
       </c>
       <c r="EL5">
-        <v>0.007367710537115305</v>
+        <v>0.007371497903394518</v>
       </c>
       <c r="EM5">
-        <v>0.03875455882525577</v>
+        <v>0.03882430729416528</v>
       </c>
       <c r="EN5">
-        <v>0.004707313043169003</v>
+        <v>0.00470550944502501</v>
       </c>
       <c r="EO5">
-        <v>0.02082319751803712</v>
+        <v>0.02085526229368032</v>
       </c>
       <c r="EP5">
-        <v>0.03625846564328745</v>
+        <v>0.03632296844187546</v>
       </c>
       <c r="EQ5">
-        <v>0.03581765561115185</v>
+        <v>0.0358812320244111</v>
       </c>
       <c r="ER5">
-        <v>0.02763421501456881</v>
+        <v>0.02768059349957146</v>
       </c>
       <c r="ES5">
-        <v>0.005340447389325288</v>
+        <v>0.005339974356110982</v>
       </c>
       <c r="ET5">
-        <v>0.004517167329307143</v>
+        <v>0.004514964130004359</v>
       </c>
       <c r="EU5">
-        <v>0.004903923357502141</v>
+        <v>0.004902532946212809</v>
       </c>
       <c r="EV5">
-        <v>0.005218722780451412</v>
+        <v>0.005217993936607607</v>
       </c>
       <c r="EW5">
-        <v>0.00156856831435059</v>
+        <v>0.001560168480060577</v>
       </c>
       <c r="EX5">
-        <v>3.346578743969772E-06</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.001285809393737112</v>
+        <v>0.001276815326792358</v>
       </c>
       <c r="EZ5">
-        <v>0.00279327900363353</v>
+        <v>0.002787452962886806</v>
       </c>
       <c r="FA5">
-        <v>0.0004194211805763281</v>
+        <v>0.0004086063535055068</v>
       </c>
       <c r="FB5">
-        <v>0.02202075860534082</v>
+        <v>0.02205534011821933</v>
       </c>
       <c r="FC5">
-        <v>0.00922202067229683</v>
+        <v>0.009229704968271317</v>
       </c>
       <c r="FD5">
-        <v>0.0001428374204130264</v>
+        <v>0.0001314413381099969</v>
       </c>
       <c r="FE5">
-        <v>0.004486912327101515</v>
+        <v>0.004484645545329818</v>
       </c>
       <c r="FF5">
-        <v>0.0002878116409818282</v>
+        <v>0.0002767202295827995</v>
       </c>
       <c r="FG5">
-        <v>0.001980819844404242</v>
+        <v>0.001973286378257781</v>
       </c>
       <c r="FH5">
-        <v>0.001119268981596107</v>
+        <v>0.00110992492126825</v>
       </c>
       <c r="FI5">
-        <v>0.003397844047707077</v>
+        <v>0.003393288532008066</v>
       </c>
       <c r="FJ5">
-        <v>0.01488916708543889</v>
+        <v>0.01490876118588774</v>
       </c>
       <c r="FK5">
-        <v>2.792384703568334E-06</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>1.622939918314348E-05</v>
+        <v>4.567243504237003E-06</v>
       </c>
       <c r="FM5">
-        <v>0.0006623462982858729</v>
+        <v>0.0006520419910504173</v>
       </c>
       <c r="FN5">
-        <v>0.01075685978418852</v>
+        <v>0.0107677696248004</v>
       </c>
       <c r="FO5">
-        <v>0.00164300351977701</v>
+        <v>0.001634760114962788</v>
       </c>
       <c r="FP5">
-        <v>0.00579718842262228</v>
+        <v>0.005797675254568571</v>
       </c>
       <c r="FQ5">
-        <v>0.002780308002687928</v>
+        <v>0.002774454702704572</v>
       </c>
       <c r="FR5">
-        <v>0.004871454955135154</v>
+        <v>0.00486999630980075</v>
       </c>
       <c r="FS5">
-        <v>0.003094831425617079</v>
+        <v>0.003089639113050778</v>
       </c>
       <c r="FT5">
-        <v>0.0009338923680819206</v>
+        <v>0.0009241587291089881</v>
       </c>
       <c r="FU5">
-        <v>2.100735153146218E-06</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>2.563068786850918E-06</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0008531442221952799</v>
+        <v>0.0008432408867721292</v>
       </c>
       <c r="FX5">
-        <v>0.01195776587173607</v>
+        <v>0.01197119947927616</v>
       </c>
       <c r="FY5">
-        <v>0.005101960071939265</v>
+        <v>0.005100985845158988</v>
       </c>
       <c r="FZ5">
-        <v>0.003190255532573615</v>
+        <v>0.003185263758757003</v>
       </c>
       <c r="GA5">
-        <v>0.0003370254045695732</v>
+        <v>0.0003260374184676955</v>
       </c>
       <c r="GB5">
-        <v>1.218202588808491E-05</v>
+        <v>5.113644425959584E-07</v>
       </c>
       <c r="GC5">
-        <v>4.028236693663488E-05</v>
+        <v>2.867075982698857E-05</v>
       </c>
       <c r="GD5">
-        <v>0.0001913802239518575</v>
+        <v>0.0001800861568883573</v>
       </c>
       <c r="GE5">
-        <v>0.0004256523310305868</v>
+        <v>0.0004148505990482192</v>
       </c>
       <c r="GF5">
-        <v>0.002025223147641298</v>
+        <v>0.002017782997358063</v>
       </c>
       <c r="GG5">
-        <v>0.006699331088389607</v>
+        <v>0.006701713820313417</v>
       </c>
       <c r="GH5">
-        <v>0.007886342574924227</v>
+        <v>0.007891219873545779</v>
       </c>
       <c r="GI5">
-        <v>0.007763100865939754</v>
+        <v>0.007767719165666607</v>
       </c>
       <c r="GJ5">
-        <v>0.005861658127322202</v>
+        <v>0.005862280445723496</v>
       </c>
       <c r="GK5">
-        <v>0.001789327030444177</v>
+        <v>0.00178139113213764</v>
       </c>
       <c r="GL5">
-        <v>0.0003886051983298045</v>
+        <v>0.0003777256098611851</v>
       </c>
       <c r="GM5">
-        <v>9.914445222775445E-06</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>3.886943083363008E-05</v>
+        <v>2.725485436489283E-05</v>
       </c>
       <c r="GO5">
-        <v>0.001699405223888764</v>
+        <v>0.001691280350204501</v>
       </c>
       <c r="GP5">
-        <v>5.425372795516456E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.00182580053310314</v>
+        <v>0.001817941285769332</v>
       </c>
       <c r="GR5">
-        <v>0.01521976210953968</v>
+        <v>0.01524005097271569</v>
       </c>
       <c r="GS5">
-        <v>0.03933435286752347</v>
+        <v>0.03940531980392534</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.295179130312002E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7.121376466666661E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4.014366393951084E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.864379367037116E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5.042659118016954E-05</v>
+        <v>1.03506767123996E-05</v>
       </c>
       <c r="G6">
-        <v>5.141948120340685E-05</v>
+        <v>1.135010843072011E-05</v>
       </c>
       <c r="H6">
-        <v>1.552927836344279E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.587620507367359E-05</v>
+        <v>5.770310207548477E-06</v>
       </c>
       <c r="J6">
-        <v>4.80285561240466E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4.845641413406007E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.363129831902301E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.509292882130488E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>8.49691879885946E-05</v>
+        <v>4.512085878244902E-05</v>
       </c>
       <c r="O6">
-        <v>8.829922206652977E-05</v>
+        <v>4.847283292126173E-05</v>
       </c>
       <c r="P6">
-        <v>0.0002226834252116193</v>
+        <v>0.0001837424316896327</v>
       </c>
       <c r="Q6">
-        <v>0.0002038206647701606</v>
+        <v>0.0001647553932069534</v>
       </c>
       <c r="R6">
-        <v>0.0002325793254432201</v>
+        <v>0.0001937035314502588</v>
       </c>
       <c r="S6">
-        <v>0.0001915257344824136</v>
+        <v>0.0001523794572860251</v>
       </c>
       <c r="T6">
-        <v>7.212020168788058E-05</v>
+        <v>3.21872164286573E-05</v>
       </c>
       <c r="U6">
-        <v>2.358067055187528E-06</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1.07897702525207E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.000230166585386753</v>
+        <v>0.0001912748949607577</v>
       </c>
       <c r="X6">
-        <v>2.748554764326391E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1.35594758173421E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001459352034154258</v>
+        <v>0.0001064885512067585</v>
       </c>
       <c r="AA6">
-        <v>9.651729725886325E-05</v>
+        <v>5.674505322616646E-05</v>
       </c>
       <c r="AB6">
-        <v>7.497522175469867E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>2.358067055187528E-06</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>4.400808902995274E-05</v>
+        <v>3.889886007584686E-06</v>
       </c>
       <c r="AE6">
-        <v>0.0002613038261154801</v>
+        <v>0.0002226172846282519</v>
       </c>
       <c r="AF6">
-        <v>0.0001024605123979566</v>
+        <v>6.272742547263714E-05</v>
       </c>
       <c r="AG6">
-        <v>0.0001863348043609265</v>
+        <v>0.0001471543265166735</v>
       </c>
       <c r="AH6">
-        <v>7.519066175974076E-05</v>
+        <v>3.527790634781694E-05</v>
       </c>
       <c r="AI6">
-        <v>1.109154185958328E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>3.926693091899203E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>3.742081087578597E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0001364883631943347</v>
+        <v>9.697947010623479E-05</v>
       </c>
       <c r="AM6">
-        <v>0.0001069388525027663</v>
+        <v>6.723527129787809E-05</v>
       </c>
       <c r="AN6">
-        <v>3.271514076565581E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>9.199996215314083E-07</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>4.88858941441115E-05</v>
+        <v>8.799828733145832E-06</v>
       </c>
       <c r="AQ6">
-        <v>3.802879089001495E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>9.966305733248572E-05</v>
+        <v>5.991153926412027E-05</v>
       </c>
       <c r="AS6">
-        <v>1.840652843078113E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>2.723497863739966E-07</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>5.934149538881141E-07</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1.458367734131222E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>3.802879089001495E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0002495506058404111</v>
+        <v>0.0002107866277977883</v>
       </c>
       <c r="AY6">
-        <v>4.978681416519638E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0001425928533372024</v>
+        <v>0.0001031241799232038</v>
       </c>
       <c r="BA6">
-        <v>0.0002235800852326044</v>
+        <v>0.0001846449993905354</v>
       </c>
       <c r="BB6">
-        <v>3.444272480608769E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>2.574052860242398E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.00011617002271881</v>
+        <v>7.652726144301885E-05</v>
       </c>
       <c r="BE6">
-        <v>6.7307991575257E-05</v>
+        <v>2.734330087988638E-05</v>
       </c>
       <c r="BF6">
-        <v>3.490857081699022E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>9.188369215041968E-05</v>
+        <v>5.208091942769076E-05</v>
       </c>
       <c r="BH6">
-        <v>1.085385125402043E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>9.651729725886325E-05</v>
+        <v>5.674505322616646E-05</v>
       </c>
       <c r="BJ6">
-        <v>0.0002703844863280013</v>
+        <v>0.0002317577731287751</v>
       </c>
       <c r="BK6">
-        <v>3.657450485597926E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>5.112625119654418E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>4.499060405294724E-07</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>3.693602486444017E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>3.317148077633586E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>4.672201709346874E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>3.930839091996235E-06</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>2.838138766422989E-06</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>6.250466146284124E-05</v>
+        <v>2.250832383755493E-05</v>
       </c>
       <c r="BT6">
-        <v>0.0001953962845729988</v>
+        <v>0.0001562755086485582</v>
       </c>
       <c r="BU6">
-        <v>0.0003650658085438959</v>
+        <v>0.0003270629069708468</v>
       </c>
       <c r="BV6">
-        <v>0.0002542828259511627</v>
+        <v>0.0002155500263274046</v>
       </c>
       <c r="BW6">
-        <v>5.474705128128434E-05</v>
+        <v>1.469960233531356E-05</v>
       </c>
       <c r="BX6">
-        <v>1.55277103634061E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>4.369351102259045E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0001954018245731285</v>
+        <v>0.0001562810851491972</v>
       </c>
       <c r="CA6">
-        <v>0.0003270031076530873</v>
+        <v>0.0002887494284738146</v>
       </c>
       <c r="CB6">
-        <v>6.361271148877373E-05</v>
+        <v>2.362367429479092E-05</v>
       </c>
       <c r="CC6">
-        <v>1.664525638956082E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>3.759737487991822E-08</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>2.388075055889826E-06</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>2.737910864077283E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0001131900426490674</v>
+        <v>7.352764765703976E-05</v>
       </c>
       <c r="CH6">
-        <v>0.0003624121684817909</v>
+        <v>0.0003243917832965183</v>
       </c>
       <c r="CI6">
-        <v>2.800695465546677E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>1.760112841193178E-06</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>2.280593453374358E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>2.864379367037116E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>1.73436404059056E-06</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.00501079611727124</v>
+        <v>0.005003401793090672</v>
       </c>
       <c r="CO6">
-        <v>0.1062553024867687</v>
+        <v>0.1069149615864498</v>
       </c>
       <c r="CP6">
-        <v>0.06519619552583314</v>
+        <v>0.06558533507970263</v>
       </c>
       <c r="CQ6">
-        <v>0.03414436079910486</v>
+        <v>0.03432891411502031</v>
       </c>
       <c r="CR6">
-        <v>0.02588551160581712</v>
+        <v>0.02601565116804766</v>
       </c>
       <c r="CS6">
-        <v>0.01449143083915331</v>
+        <v>0.0145465000508068</v>
       </c>
       <c r="CT6">
-        <v>0.007323197171390014</v>
+        <v>0.007331038192768461</v>
       </c>
       <c r="CU6">
-        <v>0.02229086152168895</v>
+        <v>0.02239731759004724</v>
       </c>
       <c r="CV6">
-        <v>0.003580218283790406</v>
+        <v>0.003563398541124006</v>
       </c>
       <c r="CW6">
-        <v>0.008819820206416553</v>
+        <v>0.008837521787696406</v>
       </c>
       <c r="CX6">
-        <v>0.01886097744141693</v>
+        <v>0.01894483558321864</v>
       </c>
       <c r="CY6">
-        <v>0.002824509066104003</v>
+        <v>0.002802710303447504</v>
       </c>
       <c r="CZ6">
-        <v>0.06475529151551433</v>
+        <v>0.06514152615592013</v>
       </c>
       <c r="DA6">
-        <v>0.00987442623109825</v>
+        <v>0.009899076125771242</v>
       </c>
       <c r="DB6">
-        <v>0.05280960823594098</v>
+        <v>0.05311713827085515</v>
       </c>
       <c r="DC6">
-        <v>0.004674745809406415</v>
+        <v>0.004665137404516788</v>
       </c>
       <c r="DD6">
-        <v>0.008758326204977365</v>
+        <v>0.00877562263060307</v>
       </c>
       <c r="DE6">
-        <v>0.002751066364385171</v>
+        <v>0.002728783721591409</v>
       </c>
       <c r="DF6">
-        <v>5.74293713440606E-05</v>
+        <v>1.739959496962904E-05</v>
       </c>
       <c r="DG6">
-        <v>0.0001660331238857918</v>
+        <v>0.0001267188876189172</v>
       </c>
       <c r="DH6">
-        <v>0.004542508706311576</v>
+        <v>0.004532029052052041</v>
       </c>
       <c r="DI6">
-        <v>0.0001323404130972572</v>
+        <v>9.280419107632452E-05</v>
       </c>
       <c r="DJ6">
-        <v>0.001654315038717116</v>
+        <v>0.001624806406552221</v>
       </c>
       <c r="DK6">
-        <v>0.002509507858731805</v>
+        <v>0.002485633698195135</v>
       </c>
       <c r="DL6">
-        <v>0.0003835230389758636</v>
+        <v>0.0003456417435935714</v>
       </c>
       <c r="DM6">
-        <v>0.0005218381522129511</v>
+        <v>0.0004848681514101383</v>
       </c>
       <c r="DN6">
-        <v>0.009302297217708306</v>
+        <v>0.009323177617808629</v>
       </c>
       <c r="DO6">
-        <v>0.00282769986617868</v>
+        <v>0.002805922126234336</v>
       </c>
       <c r="DP6">
-        <v>0.001114794626090335</v>
+        <v>0.001081731342405163</v>
       </c>
       <c r="DQ6">
-        <v>0.00314922107370347</v>
+        <v>0.003129561688917487</v>
       </c>
       <c r="DR6">
-        <v>0.001242353929075696</v>
+        <v>0.001210131074889892</v>
       </c>
       <c r="DS6">
-        <v>2.721423363691415E-07</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>2.737910864077283E-06</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.004826788112964771</v>
+        <v>0.004818181444789531</v>
       </c>
       <c r="DV6">
-        <v>0.009997266233973161</v>
+        <v>0.01002272546485059</v>
       </c>
       <c r="DW6">
-        <v>0.00848884019867039</v>
+        <v>0.008504361105113515</v>
       </c>
       <c r="DX6">
-        <v>0.0008367104695821328</v>
+        <v>0.0008018150174626216</v>
       </c>
       <c r="DY6">
-        <v>2.949900869038637E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0002504997858626254</v>
+        <v>0.0002117420615300199</v>
       </c>
       <c r="EA6">
-        <v>0.03600928684275106</v>
+        <v>0.03620612729746812</v>
       </c>
       <c r="EB6">
-        <v>0.01715179940141581</v>
+        <v>0.0172243965562815</v>
       </c>
       <c r="EC6">
-        <v>0.00150351733518789</v>
+        <v>0.001473015166404992</v>
       </c>
       <c r="ED6">
-        <v>0.01538284636001574</v>
+        <v>0.01544378869799082</v>
       </c>
       <c r="EE6">
-        <v>0.02407308156339952</v>
+        <v>0.02419127985880328</v>
       </c>
       <c r="EF6">
-        <v>0.0001357879531779425</v>
+        <v>9.627444541082153E-05</v>
       </c>
       <c r="EG6">
-        <v>0.0004120703796439774</v>
+        <v>0.0003743771695417429</v>
       </c>
       <c r="EH6">
-        <v>0.0002789492465284484</v>
+        <v>0.0002403789625896446</v>
       </c>
       <c r="EI6">
-        <v>0.003370468578881484</v>
+        <v>0.003352266892010597</v>
       </c>
       <c r="EJ6">
-        <v>0.004038823094523462</v>
+        <v>0.004025024887742501</v>
       </c>
       <c r="EK6">
-        <v>0.006991902563636489</v>
+        <v>0.006997560837423651</v>
       </c>
       <c r="EL6">
-        <v>0.004426678703600724</v>
+        <v>0.00441543589879935</v>
       </c>
       <c r="EM6">
-        <v>0.02312350654117594</v>
+        <v>0.02323544852408926</v>
       </c>
       <c r="EN6">
-        <v>0.02391605555972453</v>
+        <v>0.0240332192831091</v>
       </c>
       <c r="EO6">
-        <v>0.007391394772986092</v>
+        <v>0.007399685116952747</v>
       </c>
       <c r="EP6">
-        <v>0.03170307074196961</v>
+        <v>0.03187153952204557</v>
       </c>
       <c r="EQ6">
-        <v>0.03554309083184035</v>
+        <v>0.03573685973575016</v>
       </c>
       <c r="ER6">
-        <v>0.03468641681179099</v>
+        <v>0.03487454148512772</v>
       </c>
       <c r="ES6">
-        <v>0.01170631827397133</v>
+        <v>0.0117430376616288</v>
       </c>
       <c r="ET6">
-        <v>0.003580218283790406</v>
+        <v>0.003563398541124006</v>
       </c>
       <c r="EU6">
-        <v>0.005656515332383469</v>
+        <v>0.005653375354722424</v>
       </c>
       <c r="EV6">
-        <v>0.0008413165196899314</v>
+        <v>0.0008064514147132437</v>
       </c>
       <c r="EW6">
-        <v>0.00526582012323975</v>
+        <v>0.00526010603478207</v>
       </c>
       <c r="EX6">
-        <v>0.0001596867437372629</v>
+        <v>0.0001203306940944432</v>
       </c>
       <c r="EY6">
-        <v>0.0001425881033370912</v>
+        <v>0.0001031193986275296</v>
       </c>
       <c r="EZ6">
-        <v>0.001811489142395574</v>
+        <v>0.001783016058012584</v>
       </c>
       <c r="FA6">
-        <v>1.227260028722443E-05</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.009838904230266904</v>
+        <v>0.009863320086836233</v>
       </c>
       <c r="FC6">
-        <v>0.02058572948178253</v>
+        <v>0.02068095122043601</v>
       </c>
       <c r="FD6">
-        <v>0.001387892032481829</v>
+        <v>0.001356628061831147</v>
       </c>
       <c r="FE6">
-        <v>0.002898940167845968</v>
+        <v>0.002877631797439272</v>
       </c>
       <c r="FF6">
-        <v>0.002284762453471928</v>
+        <v>0.002259407548967495</v>
       </c>
       <c r="FG6">
-        <v>0.0001298370630386695</v>
+        <v>9.028434759712978E-05</v>
       </c>
       <c r="FH6">
-        <v>0.0009605883224813346</v>
+        <v>0.0009265090444820809</v>
       </c>
       <c r="FI6">
-        <v>0.0008663022202746897</v>
+        <v>0.0008316017345718795</v>
       </c>
       <c r="FJ6">
-        <v>0.01375682232196074</v>
+        <v>0.01380705153642166</v>
       </c>
       <c r="FK6">
-        <v>0.002304776853940339</v>
+        <v>0.002279553815102872</v>
       </c>
       <c r="FL6">
-        <v>0.0002756327064508291</v>
+        <v>0.0002370405713569011</v>
       </c>
       <c r="FM6">
-        <v>2.512522358802355E-06</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.004786824112029464</v>
+        <v>0.00477795413945766</v>
       </c>
       <c r="FO6">
-        <v>0.002545482559573747</v>
+        <v>0.002521845419772616</v>
       </c>
       <c r="FP6">
-        <v>0.002040836547763155</v>
+        <v>0.002013874527807167</v>
       </c>
       <c r="FQ6">
-        <v>0.006606802454623717</v>
+        <v>0.006609923481152159</v>
       </c>
       <c r="FR6">
-        <v>0.00307272507191318</v>
+        <v>0.003052561690201974</v>
       </c>
       <c r="FS6">
-        <v>0.005317902124458662</v>
+        <v>0.005312531180320417</v>
       </c>
       <c r="FT6">
-        <v>5.042659118016954E-05</v>
+        <v>1.03506767123996E-05</v>
       </c>
       <c r="FU6">
-        <v>0.0009766599228574699</v>
+        <v>0.0009426865332312477</v>
       </c>
       <c r="FV6">
-        <v>2.790396165305635E-05</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0001727538640430821</v>
+        <v>0.0001334839076378371</v>
       </c>
       <c r="FX6">
-        <v>0.009730764227736026</v>
+        <v>0.009754467599633037</v>
       </c>
       <c r="FY6">
-        <v>0.01054923824689136</v>
+        <v>0.01057833416714874</v>
       </c>
       <c r="FZ6">
-        <v>0.003752290087817526</v>
+        <v>0.003736604047019427</v>
       </c>
       <c r="GA6">
-        <v>0.002627361361490015</v>
+        <v>0.002604263683405065</v>
       </c>
       <c r="GB6">
-        <v>0.0001176788627541225</v>
+        <v>7.804604253042099E-05</v>
       </c>
       <c r="GC6">
-        <v>0.0001069347325026699</v>
+        <v>6.723112415299853E-05</v>
       </c>
       <c r="GD6">
-        <v>0.0002802787665595642</v>
+        <v>0.0002417172422159291</v>
       </c>
       <c r="GE6">
-        <v>0.001083820625365428</v>
+        <v>0.001050553268254694</v>
       </c>
       <c r="GF6">
-        <v>0.001219341528537121</v>
+        <v>0.001186967056242631</v>
       </c>
       <c r="GG6">
-        <v>0.004566654706876682</v>
+        <v>0.004556334139494324</v>
       </c>
       <c r="GH6">
-        <v>0.005861655137184503</v>
+        <v>0.005859866731219243</v>
       </c>
       <c r="GI6">
-        <v>0.00746677717475032</v>
+        <v>0.0074755641786445</v>
       </c>
       <c r="GJ6">
-        <v>0.005701452633435168</v>
+        <v>0.005698608726954679</v>
       </c>
       <c r="GK6">
-        <v>0.001940628345417911</v>
+        <v>0.001913006099768002</v>
       </c>
       <c r="GL6">
-        <v>0.0007342723671847007</v>
+        <v>0.0006987019975868158</v>
       </c>
       <c r="GM6">
-        <v>1.109154185958328E-07</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.00028495690666905</v>
+        <v>0.000246426204436058</v>
       </c>
       <c r="GO6">
-        <v>0.002153701850404623</v>
+        <v>0.002127483447947122</v>
       </c>
       <c r="GP6">
-        <v>0.0005887894137798592</v>
+        <v>0.00055226052400481</v>
       </c>
       <c r="GQ6">
-        <v>0.0006175799744536653</v>
+        <v>0.0005812407724232752</v>
       </c>
       <c r="GR6">
-        <v>0.00899805121058782</v>
+        <v>0.009016927073869075</v>
       </c>
       <c r="GS6">
-        <v>0.03430977080297608</v>
+        <v>0.03449541392922672</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.217738471458703E-05</v>
+        <v>2.091840228332953E-05</v>
       </c>
       <c r="C2">
-        <v>2.22919148319488E-05</v>
+        <v>2.091840228332953E-05</v>
       </c>
       <c r="D2">
-        <v>3.633910501776621E-05</v>
+        <v>3.370471471368422E-05</v>
       </c>
       <c r="E2">
-        <v>3.760296284451234E-05</v>
+        <v>3.370471471368422E-05</v>
       </c>
       <c r="F2">
-        <v>3.771022028829564E-05</v>
+        <v>3.370471471368422E-05</v>
       </c>
       <c r="G2">
-        <v>3.799988001150681E-05</v>
+        <v>3.370471471368422E-05</v>
       </c>
       <c r="H2">
-        <v>4.416368445424944E-05</v>
+        <v>3.860580361322544E-05</v>
       </c>
       <c r="I2">
-        <v>5.239448547718785E-05</v>
+        <v>4.557437095457557E-05</v>
       </c>
       <c r="J2">
-        <v>9.316297311422469E-05</v>
+        <v>8.508821014858192E-05</v>
       </c>
       <c r="K2">
-        <v>0.0001390128904567392</v>
+        <v>0.0001296846636392444</v>
       </c>
       <c r="L2">
-        <v>0.0001983575910170888</v>
+        <v>0.0001877790462736097</v>
       </c>
       <c r="M2">
-        <v>0.0003103013145287713</v>
+        <v>0.0002984847138293035</v>
       </c>
       <c r="N2">
-        <v>0.0003821443003647137</v>
+        <v>0.0003690802953599041</v>
       </c>
       <c r="O2">
-        <v>0.000392827341745519</v>
+        <v>0.0003785016747293918</v>
       </c>
       <c r="P2">
-        <v>0.0003935002112065191</v>
+        <v>0.0003785016747293918</v>
       </c>
       <c r="Q2">
-        <v>0.0004020395297115757</v>
+        <v>0.0003857788314749586</v>
       </c>
       <c r="R2">
-        <v>0.0004020996495740911</v>
+        <v>0.0003857788314749586</v>
       </c>
       <c r="S2">
-        <v>0.0004094519501479479</v>
+        <v>0.0003918686935697699</v>
       </c>
       <c r="T2">
-        <v>0.0004168042507218047</v>
+        <v>0.0003979585556645813</v>
       </c>
       <c r="U2">
-        <v>0.0004300815829522435</v>
+        <v>0.0004099748306690155</v>
       </c>
       <c r="V2">
-        <v>0.0004433589151826822</v>
+        <v>0.0004219911056734497</v>
       </c>
       <c r="W2">
-        <v>0.0004719661685245906</v>
+        <v>0.0004493408755255593</v>
       </c>
       <c r="X2">
-        <v>0.0004769482012358294</v>
+        <v>0.0004530599171970436</v>
       </c>
       <c r="Y2">
-        <v>0.000478925880721202</v>
+        <v>0.0004537739052629391</v>
       </c>
       <c r="Z2">
-        <v>0.0005059874291527003</v>
+        <v>0.0004795776098673895</v>
       </c>
       <c r="AA2">
-        <v>0.0005268064239460203</v>
+        <v>0.0004991373055593787</v>
       </c>
       <c r="AB2">
-        <v>0.0005303625367399061</v>
+        <v>0.0005014300949007339</v>
       </c>
       <c r="AC2">
-        <v>0.0005351095874647645</v>
+        <v>0.0005049140998064542</v>
       </c>
       <c r="AD2">
-        <v>0.0005412192824106434</v>
+        <v>0.0005097610665950375</v>
       </c>
       <c r="AE2">
-        <v>0.00054257457383209</v>
+        <v>0.0005098525215048867</v>
       </c>
       <c r="AF2">
-        <v>0.0005697498682569955</v>
+        <v>0.0005357699986193957</v>
       </c>
       <c r="AG2">
-        <v>0.0005769455584399295</v>
+        <v>0.0005417032138140146</v>
       </c>
       <c r="AH2">
-        <v>0.0006111947464548284</v>
+        <v>0.0005746962335961251</v>
       </c>
       <c r="AI2">
-        <v>0.0006256441116173356</v>
+        <v>0.0005878848147588558</v>
       </c>
       <c r="AJ2">
-        <v>0.0006257891018289319</v>
+        <v>0.0005878848147588558</v>
       </c>
       <c r="AK2">
-        <v>0.0006260671252728175</v>
+        <v>0.0005878848147588558</v>
       </c>
       <c r="AL2">
-        <v>0.0006435106722617803</v>
+        <v>0.0006040682757565916</v>
       </c>
       <c r="AM2">
-        <v>0.0006617416652051024</v>
+        <v>0.0006210393662793716</v>
       </c>
       <c r="AN2">
-        <v>0.0006903489185470108</v>
+        <v>0.0006483891361314812</v>
       </c>
       <c r="AO2">
-        <v>0.0007686951380060224</v>
+        <v>0.000725489467329577</v>
       </c>
       <c r="AP2">
-        <v>0.000821302894956849</v>
+        <v>0.0007768453358271399</v>
       </c>
       <c r="AQ2">
-        <v>0.0008819225144433036</v>
+        <v>0.0008362149345987891</v>
       </c>
       <c r="AR2">
-        <v>0.0009001535073866257</v>
+        <v>0.0008531860251215691</v>
       </c>
       <c r="AS2">
-        <v>0.000904900558111484</v>
+        <v>0.0008566700300272894</v>
       </c>
       <c r="AT2">
-        <v>0.0009056594829074964</v>
+        <v>0.0008566700300272894</v>
       </c>
       <c r="AU2">
-        <v>0.0009159971113083219</v>
+        <v>0.0008657459158935603</v>
       </c>
       <c r="AV2">
-        <v>0.0009214549299919839</v>
+        <v>0.0008699408544534696</v>
       </c>
       <c r="AW2">
-        <v>0.000943735296700602</v>
+        <v>0.0008909622627381606</v>
       </c>
       <c r="AX2">
-        <v>0.0009850156113079731</v>
+        <v>0.000930988048220439</v>
       </c>
       <c r="AY2">
-        <v>0.00102767641483533</v>
+        <v>0.0009723946444445316</v>
       </c>
       <c r="AZ2">
-        <v>0.001094638180954191</v>
+        <v>0.001038107868340151</v>
       </c>
       <c r="BA2">
-        <v>0.001129356625941891</v>
+        <v>0.001071570254489014</v>
       </c>
       <c r="BB2">
-        <v>0.00116827572068612</v>
+        <v>0.001109234269656725</v>
       </c>
       <c r="BC2">
-        <v>0.001212163078142386</v>
+        <v>0.001151867705745978</v>
       </c>
       <c r="BD2">
-        <v>0.001236369338739378</v>
+        <v>0.001174815456886566</v>
       </c>
       <c r="BE2">
-        <v>0.001236754369857061</v>
+        <v>0.001174815456886566</v>
       </c>
       <c r="BF2">
-        <v>0.001240723684126998</v>
+        <v>0.001177521544030174</v>
       </c>
       <c r="BG2">
-        <v>0.001243260565279959</v>
+        <v>0.001178794864125663</v>
       </c>
       <c r="BH2">
-        <v>0.001250397783166282</v>
+        <v>0.001184669593392513</v>
       </c>
       <c r="BI2">
-        <v>0.001275022587739015</v>
+        <v>0.001208035986080497</v>
       </c>
       <c r="BJ2">
-        <v>0.001277910231571646</v>
+        <v>0.001209660150626023</v>
       </c>
       <c r="BK2">
-        <v>0.001278295262689329</v>
+        <v>0.001209660150626023</v>
       </c>
       <c r="BL2">
-        <v>0.001278764082112156</v>
+        <v>0.001209660150626023</v>
       </c>
       <c r="BM2">
-        <v>0.001278839283023797</v>
+        <v>0.001209660150626023</v>
       </c>
       <c r="BN2">
-        <v>0.001279293266197484</v>
+        <v>0.001209660150626023</v>
       </c>
       <c r="BO2">
-        <v>0.001281541854567155</v>
+        <v>0.001210645110730937</v>
       </c>
       <c r="BP2">
-        <v>0.00128181987801104</v>
+        <v>0.001210645110730937</v>
       </c>
       <c r="BQ2">
-        <v>0.001281839100597926</v>
+        <v>0.001210645110730937</v>
       </c>
       <c r="BR2">
-        <v>0.001283699452690099</v>
+        <v>0.00121124174405208</v>
       </c>
       <c r="BS2">
-        <v>0.001287712403457506</v>
+        <v>0.00121399147786577</v>
       </c>
       <c r="BT2">
-        <v>0.001293876207900249</v>
+        <v>0.001218892566765311</v>
       </c>
       <c r="BU2">
-        <v>0.001295999571777177</v>
+        <v>0.001219752273184946</v>
       </c>
       <c r="BV2">
-        <v>0.001296690477437132</v>
+        <v>0.001219752273184946</v>
       </c>
       <c r="BW2">
-        <v>0.001297430493094241</v>
+        <v>0.001219752273184946</v>
       </c>
       <c r="BX2">
-        <v>0.001299017580402252</v>
+        <v>0.001220075578017995</v>
       </c>
       <c r="BY2">
-        <v>0.001308110462875224</v>
+        <v>0.001227906427779212</v>
       </c>
       <c r="BZ2">
-        <v>0.001312505626620478</v>
+        <v>0.001231038463672861</v>
       </c>
       <c r="CA2">
-        <v>0.001320508765156612</v>
+        <v>0.001237779315454356</v>
       </c>
       <c r="CB2">
-        <v>0.00132136334866708</v>
+        <v>0.001237779315454356</v>
       </c>
       <c r="CC2">
-        <v>0.001336861855768778</v>
+        <v>0.001252017283133958</v>
       </c>
       <c r="CD2">
-        <v>0.001359039240483365</v>
+        <v>0.001272935685417287</v>
       </c>
       <c r="CE2">
-        <v>0.001378191457373292</v>
+        <v>0.001290828214643901</v>
       </c>
       <c r="CF2">
-        <v>0.001398647432187653</v>
+        <v>0.001310024805729122</v>
       </c>
       <c r="CG2">
-        <v>0.001411924764418092</v>
+        <v>0.001322041080733556</v>
       </c>
       <c r="CH2">
-        <v>0.001446514624413246</v>
+        <v>0.001355374851913929</v>
       </c>
       <c r="CI2">
-        <v>0.001466491540255373</v>
+        <v>0.001374092272347907</v>
       </c>
       <c r="CJ2">
-        <v>0.001466769563699258</v>
+        <v>0.001374092272347907</v>
       </c>
       <c r="CK2">
-        <v>0.001467091318980609</v>
+        <v>0.001374092272347907</v>
       </c>
       <c r="CL2">
-        <v>0.001468330740408772</v>
+        <v>0.001374092272347907</v>
       </c>
       <c r="CM2">
-        <v>0.00151823455751632</v>
+        <v>0.001422743570655327</v>
       </c>
       <c r="CN2">
-        <v>0.07094398453356304</v>
+        <v>0.07086341403827928</v>
       </c>
       <c r="CO2">
-        <v>0.07872139368278029</v>
+        <v>0.0786413721173395</v>
       </c>
       <c r="CP2">
-        <v>0.1552901192448164</v>
+        <v>0.1552266833530684</v>
       </c>
       <c r="CQ2">
-        <v>0.1710117153335843</v>
+        <v>0.1709506803334921</v>
       </c>
       <c r="CR2">
-        <v>0.2062691462900449</v>
+        <v>0.2062150664072869</v>
       </c>
       <c r="CS2">
-        <v>0.2136085004646521</v>
+        <v>0.213554867391647</v>
       </c>
       <c r="CT2">
-        <v>0.2141244034347501</v>
+        <v>0.2140696264774273</v>
       </c>
       <c r="CU2">
-        <v>0.234885568231422</v>
+        <v>0.2348343669982293</v>
       </c>
       <c r="CV2">
-        <v>0.2440923366977928</v>
+        <v>0.2440420176090178</v>
       </c>
       <c r="CW2">
-        <v>0.2728312900320678</v>
+        <v>0.272786406462495</v>
       </c>
       <c r="CX2">
-        <v>0.2758841818551206</v>
+        <v>0.2758387458282081</v>
       </c>
       <c r="CY2">
-        <v>0.2959640186912826</v>
+        <v>0.2959219995562152</v>
       </c>
       <c r="CZ2">
-        <v>0.3699035684057071</v>
+        <v>0.3698775220265719</v>
       </c>
       <c r="DA2">
-        <v>0.3732607188111249</v>
+        <v>0.3732341909039068</v>
       </c>
       <c r="DB2">
-        <v>0.4154348283666912</v>
+        <v>0.4154168680042003</v>
       </c>
       <c r="DC2">
-        <v>0.4162468573196255</v>
+        <v>0.4162278221061889</v>
       </c>
       <c r="DD2">
-        <v>0.4168187633864776</v>
+        <v>0.4167985973442564</v>
       </c>
       <c r="DE2">
-        <v>0.4189760922614376</v>
+        <v>0.4189551649867821</v>
       </c>
       <c r="DF2">
-        <v>0.4191035253140515</v>
+        <v>0.4190813635943377</v>
       </c>
       <c r="DG2">
-        <v>0.4205629874294604</v>
+        <v>0.4205399017894752</v>
       </c>
       <c r="DH2">
-        <v>0.4277954803102612</v>
+        <v>0.42777281656835</v>
       </c>
       <c r="DI2">
-        <v>0.4278592507165651</v>
+        <v>0.4278353376884556</v>
       </c>
       <c r="DJ2">
-        <v>0.4292624627352342</v>
+        <v>0.4292376126737392</v>
       </c>
       <c r="DK2">
-        <v>0.4315467887028334</v>
+        <v>0.4315212070146733</v>
       </c>
       <c r="DL2">
-        <v>0.4318340567861832</v>
+        <v>0.4318072779139678</v>
       </c>
       <c r="DM2">
-        <v>0.4336486473810086</v>
+        <v>0.433621027376652</v>
       </c>
       <c r="DN2">
-        <v>0.4402954589957558</v>
+        <v>0.4402681243545016</v>
       </c>
       <c r="DO2">
-        <v>0.4406403575557654</v>
+        <v>0.4406118391653664</v>
       </c>
       <c r="DP2">
-        <v>0.4434776378913151</v>
+        <v>0.4434485167798749</v>
       </c>
       <c r="DQ2">
-        <v>0.4447397267181638</v>
+        <v>0.4447096356744694</v>
       </c>
       <c r="DR2">
-        <v>0.4449126706781398</v>
+        <v>0.4448813557989641</v>
       </c>
       <c r="DS2">
-        <v>0.445013357607304</v>
+        <v>0.44498080204797</v>
       </c>
       <c r="DT2">
-        <v>0.4450178753523421</v>
+        <v>0.4449840566937329</v>
       </c>
       <c r="DU2">
-        <v>0.4555201007436275</v>
+        <v>0.4554874662284666</v>
       </c>
       <c r="DV2">
-        <v>0.4627575319241422</v>
+        <v>0.4627253204582797</v>
       </c>
       <c r="DW2">
-        <v>0.4713097444284514</v>
+        <v>0.4712782625158534</v>
       </c>
       <c r="DX2">
-        <v>0.4716172206106299</v>
+        <v>0.4715845462249215</v>
       </c>
       <c r="DY2">
-        <v>0.4716496519927502</v>
+        <v>0.4716157210150391</v>
       </c>
       <c r="DZ2">
-        <v>0.4829890993355098</v>
+        <v>0.4829565476757934</v>
       </c>
       <c r="EA2">
-        <v>0.5239090469637679</v>
+        <v>0.5238847704765054</v>
       </c>
       <c r="EB2">
-        <v>0.5330316654350161</v>
+        <v>0.5330082514749871</v>
       </c>
       <c r="EC2">
-        <v>0.5331603040975602</v>
+        <v>0.5331356559735265</v>
       </c>
       <c r="ED2">
-        <v>0.5647624162658851</v>
+        <v>0.5647438711253095</v>
       </c>
       <c r="EE2">
-        <v>0.573552744756393</v>
+        <v>0.5735349846790688</v>
       </c>
       <c r="EF2">
-        <v>0.5735603888019499</v>
+        <v>0.5735413663541588</v>
       </c>
       <c r="EG2">
-        <v>0.5742553841616677</v>
+        <v>0.5742352595798685</v>
       </c>
       <c r="EH2">
-        <v>0.574262296877567</v>
+        <v>0.5742409097548121</v>
       </c>
       <c r="EI2">
-        <v>0.5753275474158246</v>
+        <v>0.5753051444735527</v>
       </c>
       <c r="EJ2">
-        <v>0.5796415881657805</v>
+        <v>0.5796189267672632</v>
       </c>
       <c r="EK2">
-        <v>0.5882950961642186</v>
+        <v>0.5882731879331365</v>
       </c>
       <c r="EL2">
-        <v>0.5968842991663839</v>
+        <v>0.5968631291118515</v>
       </c>
       <c r="EM2">
-        <v>0.6359884008998894</v>
+        <v>0.6359750827048549</v>
       </c>
       <c r="EN2">
-        <v>0.6423032472338776</v>
+        <v>0.6422901370136578</v>
       </c>
       <c r="EO2">
-        <v>0.6637486039908933</v>
+        <v>0.6637392289947491</v>
       </c>
       <c r="EP2">
-        <v>0.696121622114536</v>
+        <v>0.6961185298167033</v>
       </c>
       <c r="EQ2">
-        <v>0.7339293899231777</v>
+        <v>0.7339338472813647</v>
       </c>
       <c r="ER2">
-        <v>0.7632074022262085</v>
+        <v>0.7632174207699036</v>
       </c>
       <c r="ES2">
-        <v>0.7684865667202253</v>
+        <v>0.7684965517988959</v>
       </c>
       <c r="ET2">
-        <v>0.771605779839434</v>
+        <v>0.7716152279216937</v>
       </c>
       <c r="EU2">
-        <v>0.7762546801699813</v>
+        <v>0.776263947859007</v>
       </c>
       <c r="EV2">
-        <v>0.7818623598449572</v>
+        <v>0.7818716706529529</v>
       </c>
       <c r="EW2">
-        <v>0.7828591949871802</v>
+        <v>0.7828674740265502</v>
       </c>
       <c r="EX2">
-        <v>0.7834457300931843</v>
+        <v>0.7834528817141153</v>
       </c>
       <c r="EY2">
-        <v>0.7835266912784917</v>
+        <v>0.783532597620767</v>
       </c>
       <c r="EZ2">
-        <v>0.7847917913051659</v>
+        <v>0.7847967284171629</v>
       </c>
       <c r="FA2">
-        <v>0.7848367759805586</v>
+        <v>0.7848404594269971</v>
       </c>
       <c r="FB2">
-        <v>0.8124977623773131</v>
+        <v>0.8125066300455438</v>
       </c>
       <c r="FC2">
-        <v>0.8231176957617761</v>
+        <v>0.8231277750137344</v>
       </c>
       <c r="FD2">
-        <v>0.8233035457210041</v>
+        <v>0.8233124041461486</v>
       </c>
       <c r="FE2">
-        <v>0.8298533786413723</v>
+        <v>0.8298624998217877</v>
       </c>
       <c r="FF2">
-        <v>0.8304490970068442</v>
+        <v>0.830457092909637</v>
       </c>
       <c r="FG2">
-        <v>0.8321083086106754</v>
+        <v>0.8321154271591233</v>
       </c>
       <c r="FH2">
-        <v>0.8328160014996572</v>
+        <v>0.8328220208741659</v>
       </c>
       <c r="FI2">
-        <v>0.8341481156224472</v>
+        <v>0.8341531813891129</v>
       </c>
       <c r="FJ2">
-        <v>0.8473204858589696</v>
+        <v>0.8473273582376037</v>
       </c>
       <c r="FK2">
-        <v>0.8477715190128274</v>
+        <v>0.8477772323845866</v>
       </c>
       <c r="FL2">
-        <v>0.8477721918822885</v>
+        <v>0.8477772323845866</v>
       </c>
       <c r="FM2">
-        <v>0.8480914559037838</v>
+        <v>0.8480953066809718</v>
       </c>
       <c r="FN2">
-        <v>0.8559135624504103</v>
+        <v>0.8559179725773715</v>
       </c>
       <c r="FO2">
-        <v>0.8570729605832109</v>
+        <v>0.8570763768384959</v>
       </c>
       <c r="FP2">
-        <v>0.861714599314179</v>
+        <v>0.8617178334833941</v>
       </c>
       <c r="FQ2">
-        <v>0.8639129493867616</v>
+        <v>0.8639154318864707</v>
       </c>
       <c r="FR2">
-        <v>0.8703465050138692</v>
+        <v>0.8703492231620971</v>
       </c>
       <c r="FS2">
-        <v>0.8755696927111305</v>
+        <v>0.8755723643449317</v>
       </c>
       <c r="FT2">
-        <v>0.8760286804845273</v>
+        <v>0.8760301949658473</v>
       </c>
       <c r="FU2">
-        <v>0.8760287556854389</v>
+        <v>0.8760301949658473</v>
       </c>
       <c r="FV2">
-        <v>0.8760337865911473</v>
+        <v>0.8760339628919094</v>
       </c>
       <c r="FW2">
-        <v>0.8769849032360201</v>
+        <v>0.8769840371101859</v>
       </c>
       <c r="FX2">
-        <v>0.8886879635577045</v>
+        <v>0.8886885615159156</v>
       </c>
       <c r="FY2">
-        <v>0.896474771606377</v>
+        <v>0.8964759206855178</v>
       </c>
       <c r="FZ2">
-        <v>0.9010228446427683</v>
+        <v>0.9010237898236518</v>
       </c>
       <c r="GA2">
-        <v>0.9014531895378253</v>
+        <v>0.9014529708889532</v>
       </c>
       <c r="GB2">
-        <v>0.9015620546115154</v>
+        <v>0.9015605971889874</v>
       </c>
       <c r="GC2">
-        <v>0.9015760200557059</v>
+        <v>0.9015733017363657</v>
       </c>
       <c r="GD2">
-        <v>0.9018252772112588</v>
+        <v>0.9018213528466938</v>
       </c>
       <c r="GE2">
-        <v>0.9019251638954693</v>
+        <v>0.9019199986641917</v>
       </c>
       <c r="GF2">
-        <v>0.902834701142752</v>
+        <v>0.9028284837918212</v>
       </c>
       <c r="GG2">
-        <v>0.9089684447872369</v>
+        <v>0.9089623931921667</v>
       </c>
       <c r="GH2">
-        <v>0.9158961348857043</v>
+        <v>0.9158904341325864</v>
       </c>
       <c r="GI2">
-        <v>0.9235561131417279</v>
+        <v>0.9235509339427717</v>
       </c>
       <c r="GJ2">
-        <v>0.9320218856510473</v>
+        <v>0.9320174158543229</v>
       </c>
       <c r="GK2">
-        <v>0.9339365361400731</v>
+        <v>0.9339312485373333</v>
       </c>
       <c r="GL2">
-        <v>0.9345961794018398</v>
+        <v>0.9345897814237535</v>
       </c>
       <c r="GM2">
-        <v>0.9346125087998933</v>
+        <v>0.9346048504760835</v>
       </c>
       <c r="GN2">
-        <v>0.9348823606042526</v>
+        <v>0.9348735010362761</v>
       </c>
       <c r="GO2">
-        <v>0.9372383038677008</v>
+        <v>0.9372287293686001</v>
       </c>
       <c r="GP2">
-        <v>0.9374310508265291</v>
+        <v>0.9374202571084544</v>
       </c>
       <c r="GQ2">
-        <v>0.9391862025247996</v>
+        <v>0.9391745538180913</v>
       </c>
       <c r="GR2">
-        <v>0.9561511155415042</v>
+        <v>0.9561421575705212</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.004297946825662E-07</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.989311899716714E-05</v>
+        <v>2.540730091970526E-05</v>
       </c>
       <c r="D3">
-        <v>3.052063396143202E-05</v>
+        <v>2.540730091970526E-05</v>
       </c>
       <c r="E3">
-        <v>5.964735115939034E-05</v>
+        <v>5.014808319094429E-05</v>
       </c>
       <c r="F3">
-        <v>0.0001289369366303137</v>
+        <v>0.0001150847002688833</v>
       </c>
       <c r="G3">
-        <v>0.0001747050169413742</v>
+        <v>0.0001564805052368662</v>
       </c>
       <c r="H3">
-        <v>0.0004679206689342002</v>
+        <v>0.0004455269920993624</v>
       </c>
       <c r="I3">
-        <v>0.00101948647268289</v>
+        <v>0.0009931356899993311</v>
       </c>
       <c r="J3">
-        <v>0.001482115775827128</v>
+        <v>0.001451734886329689</v>
       </c>
       <c r="K3">
-        <v>0.001494237676909514</v>
+        <v>0.001459456894571785</v>
       </c>
       <c r="L3">
-        <v>0.001522899915104316</v>
+        <v>0.001483732816585654</v>
       </c>
       <c r="M3">
-        <v>0.00159620197560251</v>
+        <v>0.001552685202215431</v>
       </c>
       <c r="N3">
-        <v>0.001822474887140362</v>
+        <v>0.001774734000602396</v>
       </c>
       <c r="O3">
-        <v>0.001926144737844949</v>
+        <v>0.001874079102964567</v>
       </c>
       <c r="P3">
-        <v>0.001948901919999618</v>
+        <v>0.001892445121943118</v>
       </c>
       <c r="Q3">
-        <v>0.001949331206422535</v>
+        <v>0.001892445121943118</v>
       </c>
       <c r="R3">
-        <v>0.001953737432452482</v>
+        <v>0.001892445121943118</v>
       </c>
       <c r="S3">
-        <v>0.00195783195578031</v>
+        <v>0.001892445121943118</v>
       </c>
       <c r="T3">
-        <v>0.001967021699842768</v>
+        <v>0.001897232566388641</v>
       </c>
       <c r="U3">
-        <v>0.001998284762055246</v>
+        <v>0.001924111447231678</v>
       </c>
       <c r="V3">
-        <v>0.002039357117334392</v>
+        <v>0.001960807672817091</v>
       </c>
       <c r="W3">
-        <v>0.002039457547129075</v>
+        <v>0.001960807672817091</v>
       </c>
       <c r="X3">
-        <v>0.002050144463701708</v>
+        <v>0.001967093518683726</v>
       </c>
       <c r="Y3">
-        <v>0.002065914586808889</v>
+        <v>0.001978466743488597</v>
       </c>
       <c r="Z3">
-        <v>0.002065917913595111</v>
+        <v>0.001978466743488597</v>
       </c>
       <c r="AA3">
-        <v>0.002067588390106465</v>
+        <v>0.001978466743488597</v>
       </c>
       <c r="AB3">
-        <v>0.002067603392772567</v>
+        <v>0.001978466743488597</v>
       </c>
       <c r="AC3">
-        <v>0.002085682830895443</v>
+        <v>0.001992151178843885</v>
       </c>
       <c r="AD3">
-        <v>0.002227789021861261</v>
+        <v>0.002129964170830228</v>
       </c>
       <c r="AE3">
-        <v>0.002342054322637859</v>
+        <v>0.002239913420234454</v>
       </c>
       <c r="AF3">
-        <v>0.00245379363339729</v>
+        <v>0.002347334606235356</v>
       </c>
       <c r="AG3">
-        <v>0.002461781247451578</v>
+        <v>0.002350918933938913</v>
       </c>
       <c r="AH3">
-        <v>0.002512499143796279</v>
+        <v>0.002397268617854474</v>
       </c>
       <c r="AI3">
-        <v>0.002556101304092619</v>
+        <v>0.00243649672497467</v>
       </c>
       <c r="AJ3">
-        <v>0.002571165760195004</v>
+        <v>0.002447163703548307</v>
       </c>
       <c r="AK3">
-        <v>0.002572998588107461</v>
+        <v>0.002447163703548307</v>
       </c>
       <c r="AL3">
-        <v>0.002603421868314231</v>
+        <v>0.002473202113074763</v>
       </c>
       <c r="AM3">
-        <v>0.002776117289487947</v>
+        <v>0.002641629443557653</v>
       </c>
       <c r="AN3">
-        <v>0.002793200459604052</v>
+        <v>0.00265431679314827</v>
       </c>
       <c r="AO3">
-        <v>0.002806898837697152</v>
+        <v>0.002663616572406831</v>
       </c>
       <c r="AP3">
-        <v>0.00284773892997472</v>
+        <v>0.00270008034434427</v>
       </c>
       <c r="AQ3">
-        <v>0.003001851961022142</v>
+        <v>0.002849910031881101</v>
       </c>
       <c r="AR3">
-        <v>0.003339943963319968</v>
+        <v>0.00318386970450831</v>
       </c>
       <c r="AS3">
-        <v>0.003611741115167224</v>
+        <v>0.003451480110466243</v>
       </c>
       <c r="AT3">
-        <v>0.003785198166346116</v>
+        <v>0.003620669696116364</v>
       </c>
       <c r="AU3">
-        <v>0.003860301506856552</v>
+        <v>0.003691424840287205</v>
       </c>
       <c r="AV3">
-        <v>0.004057266008195212</v>
+        <v>0.003884141171510544</v>
       </c>
       <c r="AW3">
-        <v>0.004231577639379913</v>
+        <v>0.00405418603862386</v>
       </c>
       <c r="AX3">
-        <v>0.00426768725962533</v>
+        <v>0.004085915455657417</v>
       </c>
       <c r="AY3">
-        <v>0.004272606402658763</v>
+        <v>0.004086428793674053</v>
       </c>
       <c r="AZ3">
-        <v>0.004276584615285801</v>
+        <v>0.004086428793674053</v>
       </c>
       <c r="BA3">
-        <v>0.004513707946897398</v>
+        <v>0.004319336918389589</v>
       </c>
       <c r="BB3">
-        <v>0.00485511284921774</v>
+        <v>0.004656612210337887</v>
       </c>
       <c r="BC3">
-        <v>0.005255981881942227</v>
+        <v>0.00505340044210921</v>
       </c>
       <c r="BD3">
-        <v>0.005625898964456351</v>
+        <v>0.005419211317653253</v>
       </c>
       <c r="BE3">
-        <v>0.005927804346508236</v>
+        <v>0.005716954667289464</v>
       </c>
       <c r="BF3">
-        <v>0.005983294046885369</v>
+        <v>0.005768080072035369</v>
       </c>
       <c r="BG3">
-        <v>0.006013086736087854</v>
+        <v>0.005793487372955075</v>
       </c>
       <c r="BH3">
-        <v>0.006128667426873393</v>
+        <v>0.005904753092068247</v>
       </c>
       <c r="BI3">
-        <v>0.006472343269209169</v>
+        <v>0.006244301188067687</v>
       </c>
       <c r="BJ3">
-        <v>0.006554337399766438</v>
+        <v>0.006321952778391917</v>
       </c>
       <c r="BK3">
-        <v>0.006554348286474512</v>
+        <v>0.006321952778391917</v>
       </c>
       <c r="BL3">
-        <v>0.006554413595294956</v>
+        <v>0.006321952778391917</v>
       </c>
       <c r="BM3">
-        <v>0.006676111481122069</v>
+        <v>0.006439340713670039</v>
       </c>
       <c r="BN3">
-        <v>0.006705084504318983</v>
+        <v>0.006463927675784939</v>
       </c>
       <c r="BO3">
-        <v>0.006726190933462432</v>
+        <v>0.006480641586779202</v>
       </c>
       <c r="BP3">
-        <v>0.006740454700559375</v>
+        <v>0.006490507219124887</v>
       </c>
       <c r="BQ3">
-        <v>0.006817123701080452</v>
+        <v>0.006562829308433297</v>
       </c>
       <c r="BR3">
-        <v>0.006842967535256098</v>
+        <v>0.006584284513022242</v>
       </c>
       <c r="BS3">
-        <v>0.006949739579981769</v>
+        <v>0.006686734355752117</v>
       </c>
       <c r="BT3">
-        <v>0.007117362891121013</v>
+        <v>0.006850085412905089</v>
       </c>
       <c r="BU3">
-        <v>0.00714320672529666</v>
+        <v>0.006871540617494034</v>
       </c>
       <c r="BV3">
-        <v>0.007255558866060255</v>
+        <v>0.00697957513652296</v>
       </c>
       <c r="BW3">
-        <v>0.007311966360443626</v>
+        <v>0.00703161908861988</v>
       </c>
       <c r="BX3">
-        <v>0.007585189962300577</v>
+        <v>0.007300657115447916</v>
       </c>
       <c r="BY3">
-        <v>0.00787288322425587</v>
+        <v>0.007584176679378062</v>
       </c>
       <c r="BZ3">
-        <v>0.007946496344756178</v>
+        <v>0.007653440380334597</v>
       </c>
       <c r="CA3">
-        <v>0.008069868105594668</v>
+        <v>0.007772503564576192</v>
       </c>
       <c r="CB3">
-        <v>0.00807014072429652</v>
+        <v>0.007772503564576192</v>
       </c>
       <c r="CC3">
-        <v>0.008430973626748904</v>
+        <v>0.008129222803570915</v>
       </c>
       <c r="CD3">
-        <v>0.008776783309099184</v>
+        <v>0.008470906491085979</v>
       </c>
       <c r="CE3">
-        <v>0.008930446150143545</v>
+        <v>0.008620285619094253</v>
       </c>
       <c r="CF3">
-        <v>0.009005048595650577</v>
+        <v>0.008690539457116451</v>
       </c>
       <c r="CG3">
-        <v>0.009012614552101998</v>
+        <v>0.008693701781111642</v>
       </c>
       <c r="CH3">
-        <v>0.009013525004208186</v>
+        <v>0.008693701781111642</v>
       </c>
       <c r="CI3">
-        <v>0.009014124099612258</v>
+        <v>0.008693701781111642</v>
       </c>
       <c r="CJ3">
-        <v>0.009014845955117165</v>
+        <v>0.008693701781111642</v>
       </c>
       <c r="CK3">
-        <v>0.009050955575362582</v>
+        <v>0.0087254311981452</v>
       </c>
       <c r="CL3">
-        <v>0.009053880560182461</v>
+        <v>0.0087254311981452</v>
       </c>
       <c r="CM3">
-        <v>0.009068721150283324</v>
+        <v>0.008735874126963356</v>
       </c>
       <c r="CN3">
-        <v>0.0454222763973585</v>
+        <v>0.04511485930013039</v>
       </c>
       <c r="CO3">
-        <v>0.09730060274994703</v>
+        <v>0.09703135864006077</v>
       </c>
       <c r="CP3">
-        <v>0.2173765435660374</v>
+        <v>0.2172014504912403</v>
       </c>
       <c r="CQ3">
-        <v>0.2308202476574069</v>
+        <v>0.2306517796171821</v>
       </c>
       <c r="CR3">
-        <v>0.2455297577573793</v>
+        <v>0.2453689537521339</v>
       </c>
       <c r="CS3">
-        <v>0.2522323346029331</v>
+        <v>0.252072622372104</v>
       </c>
       <c r="CT3">
-        <v>0.252861173707207</v>
+        <v>0.2526975677980924</v>
       </c>
       <c r="CU3">
-        <v>0.2549450464213699</v>
+        <v>0.2547787411564038</v>
       </c>
       <c r="CV3">
-        <v>0.2555349620253792</v>
+        <v>0.2553647311328934</v>
       </c>
       <c r="CW3">
-        <v>0.2765188831679954</v>
+        <v>0.2763614664800909</v>
       </c>
       <c r="CX3">
-        <v>0.282344359207588</v>
+        <v>0.2821873143511637</v>
       </c>
       <c r="CY3">
-        <v>0.2890959789534751</v>
+        <v>0.2889400661269194</v>
       </c>
       <c r="CZ3">
-        <v>0.3461195753410332</v>
+        <v>0.3460060588485443</v>
       </c>
       <c r="DA3">
-        <v>0.352330445383245</v>
+        <v>0.3522176170618042</v>
       </c>
       <c r="DB3">
-        <v>0.3838415625974088</v>
+        <v>0.3837501894262623</v>
       </c>
       <c r="DC3">
-        <v>0.4018514657198122</v>
+        <v>0.4017704656162065</v>
       </c>
       <c r="DD3">
-        <v>0.4029434035272335</v>
+        <v>0.4028588898665756</v>
       </c>
       <c r="DE3">
-        <v>0.4039952555343824</v>
+        <v>0.4039071954133976</v>
       </c>
       <c r="DF3">
-        <v>0.4042256675459484</v>
+        <v>0.4041333867092738</v>
       </c>
       <c r="DG3">
-        <v>0.4046712648489768</v>
+        <v>0.4045749399252616</v>
       </c>
       <c r="DH3">
-        <v>0.4165408929296482</v>
+        <v>0.4164499010055451</v>
       </c>
       <c r="DI3">
-        <v>0.4216269381642153</v>
+        <v>0.4215357111311117</v>
       </c>
       <c r="DJ3">
-        <v>0.4262976671959596</v>
+        <v>0.4262058641535115</v>
       </c>
       <c r="DK3">
-        <v>0.4393897312849392</v>
+        <v>0.4393042646434946</v>
       </c>
       <c r="DL3">
-        <v>0.4404738307923072</v>
+        <v>0.4403848441599676</v>
       </c>
       <c r="DM3">
-        <v>0.4429367441090463</v>
+        <v>0.4428453692454174</v>
       </c>
       <c r="DN3">
-        <v>0.4537125261822834</v>
+        <v>0.4536255864662741</v>
       </c>
       <c r="DO3">
-        <v>0.4537899536568096</v>
+        <v>0.4536986676521592</v>
       </c>
       <c r="DP3">
-        <v>0.4539146052476568</v>
+        <v>0.4538190117169211</v>
       </c>
       <c r="DQ3">
-        <v>0.4548740006841773</v>
+        <v>0.4547747848028015</v>
       </c>
       <c r="DR3">
-        <v>0.45751254260211</v>
+        <v>0.4574110826491241</v>
       </c>
       <c r="DS3">
-        <v>0.458709931310248</v>
+        <v>0.4586050443565448</v>
       </c>
       <c r="DT3">
-        <v>0.4590212933723642</v>
+        <v>0.4589122521484888</v>
       </c>
       <c r="DU3">
-        <v>0.4655423864166845</v>
+        <v>0.465434288001474</v>
       </c>
       <c r="DV3">
-        <v>0.4737279934723176</v>
+        <v>0.4736222041341602</v>
       </c>
       <c r="DW3">
-        <v>0.4804796132182046</v>
+        <v>0.480374955909916</v>
       </c>
       <c r="DX3">
-        <v>0.4809591208214636</v>
+        <v>0.4808504472604276</v>
       </c>
       <c r="DY3">
-        <v>0.4810462796920559</v>
+        <v>0.480933267830115</v>
       </c>
       <c r="DZ3">
-        <v>0.4811114393564988</v>
+        <v>0.4809940711362382</v>
       </c>
       <c r="EA3">
-        <v>0.5133010765752741</v>
+        <v>0.5132057204489122</v>
       </c>
       <c r="EB3">
-        <v>0.5344396197189412</v>
+        <v>0.534357204714177</v>
       </c>
       <c r="EC3">
-        <v>0.5346415631403136</v>
+        <v>0.5345549040522373</v>
       </c>
       <c r="ED3">
-        <v>0.5670668133606903</v>
+        <v>0.5670023597626594</v>
       </c>
       <c r="EE3">
-        <v>0.5887416435080023</v>
+        <v>0.5886905712273111</v>
       </c>
       <c r="EF3">
-        <v>0.5887634503701505</v>
+        <v>0.5887079861462403</v>
       </c>
       <c r="EG3">
-        <v>0.590813264384082</v>
+        <v>0.5907550728482169</v>
       </c>
       <c r="EH3">
-        <v>0.5918345151910229</v>
+        <v>0.5917727520767171</v>
       </c>
       <c r="EI3">
-        <v>0.5929791847988026</v>
+        <v>0.5929139514108243</v>
       </c>
       <c r="EJ3">
-        <v>0.5963878813219696</v>
+        <v>0.5963210360216085</v>
       </c>
       <c r="EK3">
-        <v>0.604861327379559</v>
+        <v>0.604797027420606</v>
       </c>
       <c r="EL3">
-        <v>0.6091617527087866</v>
+        <v>0.6090965727873596</v>
       </c>
       <c r="EM3">
-        <v>0.6352798398862969</v>
+        <v>0.6352316884017775</v>
       </c>
       <c r="EN3">
-        <v>0.6561606250282122</v>
+        <v>0.6561252030920581</v>
       </c>
       <c r="EO3">
-        <v>0.6681766211098783</v>
+        <v>0.6681466523152947</v>
       </c>
       <c r="EP3">
-        <v>0.702733729344744</v>
+        <v>0.7027277159144598</v>
       </c>
       <c r="EQ3">
-        <v>0.7391669095923603</v>
+        <v>0.7391863914460565</v>
       </c>
       <c r="ER3">
-        <v>0.7791071498638122</v>
+        <v>0.7791550056707063</v>
       </c>
       <c r="ES3">
-        <v>0.7885185789277765</v>
+        <v>0.7885697499924158</v>
       </c>
       <c r="ET3">
-        <v>0.7896620208355479</v>
+        <v>0.7897097206187924</v>
       </c>
       <c r="EU3">
-        <v>0.7965928858826532</v>
+        <v>0.7966418648241097</v>
       </c>
       <c r="EV3">
-        <v>0.7975195644889513</v>
+        <v>0.7975648942250999</v>
       </c>
       <c r="EW3">
-        <v>0.800983981112497</v>
+        <v>0.8010277446725025</v>
       </c>
       <c r="EX3">
-        <v>0.8010925463682349</v>
+        <v>0.8011319891981502</v>
       </c>
       <c r="EY3">
-        <v>0.8016400608719561</v>
+        <v>0.8016755432706297</v>
       </c>
       <c r="EZ3">
-        <v>0.8074178194112243</v>
+        <v>0.8074536344738423</v>
       </c>
       <c r="FA3">
-        <v>0.8074583398564996</v>
+        <v>0.8074897783364046</v>
       </c>
       <c r="FB3">
-        <v>0.8208337009474046</v>
+        <v>0.8208717083644982</v>
       </c>
       <c r="FC3">
-        <v>0.8354900200470156</v>
+        <v>0.8355356478387878</v>
       </c>
       <c r="FD3">
-        <v>0.8358821484996807</v>
+        <v>0.8359236883160462</v>
       </c>
       <c r="FE3">
-        <v>0.8409492311341189</v>
+        <v>0.8409905202765797</v>
       </c>
       <c r="FF3">
-        <v>0.8423005351433029</v>
+        <v>0.8423385236219886</v>
       </c>
       <c r="FG3">
-        <v>0.8451161663624392</v>
+        <v>0.8451520561281675</v>
       </c>
       <c r="FH3">
-        <v>0.8475278887788305</v>
+        <v>0.8475613482946931</v>
       </c>
       <c r="FI3">
-        <v>0.8478781314412108</v>
+        <v>0.8479074686009223</v>
       </c>
       <c r="FJ3">
-        <v>0.8593209715189816</v>
+        <v>0.8593552913616643</v>
       </c>
       <c r="FK3">
-        <v>0.8608109115291078</v>
+        <v>0.8608420445033841</v>
       </c>
       <c r="FL3">
-        <v>0.860994270390354</v>
+        <v>0.8610211440267171</v>
       </c>
       <c r="FM3">
-        <v>0.8609993830483887</v>
+        <v>0.8610218510385763</v>
       </c>
       <c r="FN3">
-        <v>0.8703850101121777</v>
+        <v>0.8704107721812817</v>
       </c>
       <c r="FO3">
-        <v>0.8778578358629664</v>
+        <v>0.8778853219431175</v>
       </c>
       <c r="FP3">
-        <v>0.8787664011691414</v>
+        <v>0.8787902231762038</v>
       </c>
       <c r="FQ3">
-        <v>0.8855274682150927</v>
+        <v>0.8855524300065679</v>
       </c>
       <c r="FR3">
-        <v>0.8902653460472935</v>
+        <v>0.8902897869465831</v>
       </c>
       <c r="FS3">
-        <v>0.894932119679011</v>
+        <v>0.8949559813222798</v>
       </c>
       <c r="FT3">
-        <v>0.895369546641984</v>
+        <v>0.8953893574918238</v>
       </c>
       <c r="FU3">
-        <v>0.8958561761052913</v>
+        <v>0.8958719765481575</v>
       </c>
       <c r="FV3">
-        <v>0.8978564132188859</v>
+        <v>0.8978694456560264</v>
       </c>
       <c r="FW3">
-        <v>0.897864218722939</v>
+        <v>0.897872847724249</v>
       </c>
       <c r="FX3">
-        <v>0.9064173917810702</v>
+        <v>0.9064286315654008</v>
       </c>
       <c r="FY3">
-        <v>0.9192658968683944</v>
+        <v>0.9192832731353365</v>
       </c>
       <c r="FZ3">
-        <v>0.9235084368972286</v>
+        <v>0.923524885688215</v>
       </c>
       <c r="GA3">
-        <v>0.9243528534029677</v>
+        <v>0.92436558546617</v>
       </c>
       <c r="GB3">
-        <v>0.9245973515046294</v>
+        <v>0.9246058744143032</v>
       </c>
       <c r="GC3">
-        <v>0.9249941996073265</v>
+        <v>0.9249986384155826</v>
       </c>
       <c r="GD3">
-        <v>0.9249974400558486</v>
+        <v>0.9249986384155826</v>
       </c>
       <c r="GE3">
-        <v>0.9249984634682555</v>
+        <v>0.9249986384155826</v>
       </c>
       <c r="GF3">
-        <v>0.9262176281765415</v>
+        <v>0.9262143939973538</v>
       </c>
       <c r="GG3">
-        <v>0.9314980722124298</v>
+        <v>0.931494762490899</v>
       </c>
       <c r="GH3">
-        <v>0.9348945714355139</v>
+        <v>0.9348896397897979</v>
       </c>
       <c r="GI3">
-        <v>0.9397913754687948</v>
+        <v>0.9397860533808883</v>
       </c>
       <c r="GJ3">
-        <v>0.9483332055268489</v>
+        <v>0.9483304849113879</v>
       </c>
       <c r="GK3">
-        <v>0.9522506090534733</v>
+        <v>0.9522466940831227</v>
       </c>
       <c r="GL3">
-        <v>0.9532146939600256</v>
+        <v>0.9532071604882514</v>
       </c>
       <c r="GM3">
-        <v>0.9532654118563703</v>
+        <v>0.953253510172167</v>
       </c>
       <c r="GN3">
-        <v>0.9533117663826853</v>
+        <v>0.9532954929045062</v>
       </c>
       <c r="GO3">
-        <v>0.9551734332953381</v>
+        <v>0.9551542780700747</v>
       </c>
       <c r="GP3">
-        <v>0.9564092485037372</v>
+        <v>0.9563866978190426</v>
       </c>
       <c r="GQ3">
-        <v>0.9568239367065556</v>
+        <v>0.9567973165639756</v>
       </c>
       <c r="GR3">
-        <v>0.9659044397682708</v>
+        <v>0.9658808632523577</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.832850357020143E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.699899114728638E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5.964967890063992E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>9.753398966318242E-05</v>
+        <v>9.260672080817386E-06</v>
       </c>
       <c r="F4">
-        <v>0.0002073499118735779</v>
+        <v>9.081870134499339E-05</v>
       </c>
       <c r="G4">
-        <v>0.0006829087514457154</v>
+        <v>0.0005399793159197302</v>
       </c>
       <c r="H4">
-        <v>0.001765346673233229</v>
+        <v>0.00159910476919187</v>
       </c>
       <c r="I4">
-        <v>0.002752334393099503</v>
+        <v>0.002562294691441931</v>
       </c>
       <c r="J4">
-        <v>0.002939540436867621</v>
+        <v>0.002721636342511639</v>
       </c>
       <c r="K4">
-        <v>0.002954684662172447</v>
+        <v>0.002721636342511639</v>
       </c>
       <c r="L4">
-        <v>0.003027001013628044</v>
+        <v>0.002765504129523315</v>
       </c>
       <c r="M4">
-        <v>0.003268156608482069</v>
+        <v>0.00297906964526436</v>
       </c>
       <c r="N4">
-        <v>0.00375825097834678</v>
+        <v>0.00344283969794648</v>
       </c>
       <c r="O4">
-        <v>0.003910185401404945</v>
+        <v>0.003566730385113451</v>
       </c>
       <c r="P4">
-        <v>0.003943856628082686</v>
+        <v>0.003571756551129529</v>
       </c>
       <c r="Q4">
-        <v>0.003956917359345574</v>
+        <v>0.003571756551129529</v>
       </c>
       <c r="R4">
-        <v>0.003967211586552779</v>
+        <v>0.003571756551129529</v>
       </c>
       <c r="S4">
-        <v>0.00396723900857333</v>
+        <v>0.003571756551129529</v>
       </c>
       <c r="T4">
-        <v>0.004084790230939423</v>
+        <v>0.003661089211700031</v>
       </c>
       <c r="U4">
-        <v>0.004125897285766834</v>
+        <v>0.00367358901431162</v>
       </c>
       <c r="V4">
-        <v>0.004160318568459671</v>
+        <v>0.003679369050101216</v>
       </c>
       <c r="W4">
-        <v>0.004163218200018036</v>
+        <v>0.003679369050101216</v>
       </c>
       <c r="X4">
-        <v>0.004178031856316208</v>
+        <v>0.003679369050101216</v>
       </c>
       <c r="Y4">
-        <v>0.004207624331911851</v>
+        <v>0.003680295726089071</v>
       </c>
       <c r="Z4">
-        <v>0.004251373774792447</v>
+        <v>0.003695451352323306</v>
       </c>
       <c r="AA4">
-        <v>0.004281784959404569</v>
+        <v>0.003697200900161274</v>
       </c>
       <c r="AB4">
-        <v>0.004375873185298394</v>
+        <v>0.003762951263569183</v>
       </c>
       <c r="AC4">
-        <v>0.00437629028804679</v>
+        <v>0.003762951263569183</v>
       </c>
       <c r="AD4">
-        <v>0.004399940418522825</v>
+        <v>0.003762951263569183</v>
       </c>
       <c r="AE4">
-        <v>0.004457645417684322</v>
+        <v>0.003792133404945014</v>
       </c>
       <c r="AF4">
-        <v>0.004495005828436319</v>
+        <v>0.003800867513176804</v>
       </c>
       <c r="AG4">
-        <v>0.004524947809038997</v>
+        <v>0.003802145471275853</v>
       </c>
       <c r="AH4">
-        <v>0.004676624412091972</v>
+        <v>0.003925777027517922</v>
       </c>
       <c r="AI4">
-        <v>0.004681438807188878</v>
+        <v>0.003925777027517922</v>
       </c>
       <c r="AJ4">
-        <v>0.004690153150364282</v>
+        <v>0.003925777027517922</v>
       </c>
       <c r="AK4">
-        <v>0.004752152641612219</v>
+        <v>0.003959275496889819</v>
       </c>
       <c r="AL4">
-        <v>0.005181833650260919</v>
+        <v>0.00436232500867807</v>
       </c>
       <c r="AM4">
-        <v>0.005364100053929612</v>
+        <v>0.004516701903398834</v>
       </c>
       <c r="AN4">
-        <v>0.005384159505333372</v>
+        <v>0.004516701903398834</v>
       </c>
       <c r="AO4">
-        <v>0.005599516519668118</v>
+        <v>0.004704337662346121</v>
       </c>
       <c r="AP4">
-        <v>0.00565529462079083</v>
+        <v>0.004731583108116753</v>
       </c>
       <c r="AQ4">
-        <v>0.005930049026321139</v>
+        <v>0.004978918272104317</v>
       </c>
       <c r="AR4">
-        <v>0.00606861000911012</v>
+        <v>0.005089367519986804</v>
       </c>
       <c r="AS4">
-        <v>0.006100330307748592</v>
+        <v>0.005092432838213502</v>
       </c>
       <c r="AT4">
-        <v>0.006106439943871569</v>
+        <v>0.005092432838213502</v>
       </c>
       <c r="AU4">
-        <v>0.006239526266550355</v>
+        <v>0.005197379589356691</v>
       </c>
       <c r="AV4">
-        <v>0.006455516740897852</v>
+        <v>0.005385652029227447</v>
       </c>
       <c r="AW4">
-        <v>0.006539925542596849</v>
+        <v>0.005441673752135621</v>
       </c>
       <c r="AX4">
-        <v>0.006543317921565131</v>
+        <v>0.005441673752135621</v>
       </c>
       <c r="AY4">
-        <v>0.006543837145475582</v>
+        <v>0.005441673752135621</v>
       </c>
       <c r="AZ4">
-        <v>0.006832198951279783</v>
+        <v>0.005702685505012783</v>
       </c>
       <c r="BA4">
-        <v>0.007528494425294949</v>
+        <v>0.006373705118469387</v>
       </c>
       <c r="BB4">
-        <v>0.008129675037395624</v>
+        <v>0.006949126245991014</v>
       </c>
       <c r="BC4">
-        <v>0.00886192105213441</v>
+        <v>0.007656279195422088</v>
       </c>
       <c r="BD4">
-        <v>0.009438233163734528</v>
+        <v>0.008206705375282815</v>
       </c>
       <c r="BE4">
-        <v>0.009616200947316697</v>
+        <v>0.008356761793018072</v>
       </c>
       <c r="BF4">
-        <v>0.009637524922745911</v>
+        <v>0.008356761793018072</v>
       </c>
       <c r="BG4">
-        <v>0.009751405625038123</v>
+        <v>0.008442405270272801</v>
       </c>
       <c r="BH4">
-        <v>0.01024767419502711</v>
+        <v>0.008912380916611472</v>
       </c>
       <c r="BI4">
-        <v>0.01048950009989463</v>
+        <v>0.009126620150645401</v>
       </c>
       <c r="BJ4">
-        <v>0.01060751945227014</v>
+        <v>0.009216423321493906</v>
       </c>
       <c r="BK4">
-        <v>0.01067241365357635</v>
+        <v>0.009252831219457937</v>
       </c>
       <c r="BL4">
-        <v>0.01084811548711291</v>
+        <v>0.009400610165626665</v>
       </c>
       <c r="BM4">
-        <v>0.01085820520431599</v>
+        <v>0.009400610165626665</v>
       </c>
       <c r="BN4">
-        <v>0.01085828531589361</v>
+        <v>0.009400610165626665</v>
       </c>
       <c r="BO4">
-        <v>0.01085838458503561</v>
+        <v>0.009400610165626665</v>
       </c>
       <c r="BP4">
-        <v>0.01089679644380877</v>
+        <v>0.009410401068105321</v>
       </c>
       <c r="BQ4">
-        <v>0.01090317175593709</v>
+        <v>0.009410401068105321</v>
       </c>
       <c r="BR4">
-        <v>0.01094455033176996</v>
+        <v>0.009423173772306625</v>
       </c>
       <c r="BS4">
-        <v>0.01101943124327718</v>
+        <v>0.009469619159212675</v>
       </c>
       <c r="BT4">
-        <v>0.01108518491060068</v>
+        <v>0.009506890893261967</v>
       </c>
       <c r="BU4">
-        <v>0.01119321797277519</v>
+        <v>0.009586656997304006</v>
       </c>
       <c r="BV4">
-        <v>0.01132263485538012</v>
+        <v>0.009687915650622846</v>
       </c>
       <c r="BW4">
-        <v>0.01146575714826091</v>
+        <v>0.009802949401177997</v>
       </c>
       <c r="BX4">
-        <v>0.01164659073190076</v>
+        <v>0.009955886190508106</v>
       </c>
       <c r="BY4">
-        <v>0.01182857473556377</v>
+        <v>0.01010997924932323</v>
       </c>
       <c r="BZ4">
-        <v>0.01202107666943849</v>
+        <v>0.01027464371814905</v>
       </c>
       <c r="CA4">
-        <v>0.01223362889371678</v>
+        <v>0.01045946042571609</v>
       </c>
       <c r="CB4">
-        <v>0.01232565315556906</v>
+        <v>0.01052313633058593</v>
       </c>
       <c r="CC4">
-        <v>0.01275180041414663</v>
+        <v>0.01092263412448622</v>
       </c>
       <c r="CD4">
-        <v>0.01291444546742038</v>
+        <v>0.01105728990147627</v>
       </c>
       <c r="CE4">
-        <v>0.01297102058855914</v>
+        <v>0.011085336419816</v>
       </c>
       <c r="CF4">
-        <v>0.01302303380260607</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="CG4">
-        <v>0.01303035978775353</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="CH4">
-        <v>0.01303036210637017</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="CI4">
-        <v>0.01304643420369367</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="CJ4">
-        <v>0.0130614143419952</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="CK4">
-        <v>0.01308383677244652</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="CL4">
-        <v>0.01308819314483421</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="CM4">
-        <v>0.01308900727165059</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="CN4">
-        <v>0.01927485739616054</v>
+        <v>0.0172972844617502</v>
       </c>
       <c r="CO4">
-        <v>0.122652693476969</v>
+        <v>0.1211719424751145</v>
       </c>
       <c r="CP4">
-        <v>0.1817675846668446</v>
+        <v>0.1805585948348447</v>
       </c>
       <c r="CQ4">
-        <v>0.2136636753088551</v>
+        <v>0.2125880490767739</v>
       </c>
       <c r="CR4">
-        <v>0.2355694367497784</v>
+        <v>0.2345763769753295</v>
       </c>
       <c r="CS4">
-        <v>0.2513007870664219</v>
+        <v>0.2503588991444728</v>
       </c>
       <c r="CT4">
-        <v>0.2557714298564079</v>
+        <v>0.2548234572390549</v>
       </c>
       <c r="CU4">
-        <v>0.2815310133749016</v>
+        <v>0.2806852024802098</v>
       </c>
       <c r="CV4">
-        <v>0.2885438635160575</v>
+        <v>0.2877048941134717</v>
       </c>
       <c r="CW4">
-        <v>0.3049957478472042</v>
+        <v>0.3042116139470458</v>
       </c>
       <c r="CX4">
-        <v>0.3172813620944913</v>
+        <v>0.3165308797487651</v>
       </c>
       <c r="CY4">
-        <v>0.3215432211802748</v>
+        <v>0.3207855925509512</v>
       </c>
       <c r="CZ4">
-        <v>0.396287268684737</v>
+        <v>0.395880869725369</v>
       </c>
       <c r="DA4">
-        <v>0.3978660218165144</v>
+        <v>0.3974388339685686</v>
       </c>
       <c r="DB4">
-        <v>0.4613524830943818</v>
+        <v>0.4612192842391485</v>
       </c>
       <c r="DC4">
-        <v>0.4639184731460305</v>
+        <v>0.4637695051381339</v>
       </c>
       <c r="DD4">
-        <v>0.4694937472582507</v>
+        <v>0.4693443111981377</v>
       </c>
       <c r="DE4">
-        <v>0.4723145520150284</v>
+        <v>0.4721506424411216</v>
       </c>
       <c r="DF4">
-        <v>0.4724212530911761</v>
+        <v>0.4722290697864788</v>
       </c>
       <c r="DG4">
-        <v>0.4731471567657872</v>
+        <v>0.47292984814732</v>
       </c>
       <c r="DH4">
-        <v>0.4775764908549416</v>
+        <v>0.4773528875015502</v>
       </c>
       <c r="DI4">
-        <v>0.4775887165041877</v>
+        <v>0.4773528875015502</v>
       </c>
       <c r="DJ4">
-        <v>0.4794904767424667</v>
+        <v>0.4792355012233512</v>
       </c>
       <c r="DK4">
-        <v>0.4828571159102311</v>
+        <v>0.4825904422441472</v>
       </c>
       <c r="DL4">
-        <v>0.4830989418150986</v>
+        <v>0.4828046814781811</v>
       </c>
       <c r="DM4">
-        <v>0.4832206972575493</v>
+        <v>0.482898239735746</v>
       </c>
       <c r="DN4">
-        <v>0.487267837839011</v>
+        <v>0.4869371422691451</v>
       </c>
       <c r="DO4">
-        <v>0.4885582080649838</v>
+        <v>0.4882052572857408</v>
       </c>
       <c r="DP4">
-        <v>0.4905781313056412</v>
+        <v>0.490206634825241</v>
       </c>
       <c r="DQ4">
-        <v>0.4942422023793923</v>
+        <v>0.4938605200836542</v>
       </c>
       <c r="DR4">
-        <v>0.4951671246280093</v>
+        <v>0.4947613289546065</v>
       </c>
       <c r="DS4">
-        <v>0.495190260438475</v>
+        <v>0.4947613289546065</v>
       </c>
       <c r="DT4">
-        <v>0.495219966859073</v>
+        <v>0.494762370154965</v>
       </c>
       <c r="DU4">
-        <v>0.4979207489134349</v>
+        <v>0.4974480684243229</v>
       </c>
       <c r="DV4">
-        <v>0.5081836901200093</v>
+        <v>0.5077343766383261</v>
       </c>
       <c r="DW4">
-        <v>0.521233482882678</v>
+        <v>0.5208217065215576</v>
       </c>
       <c r="DX4">
-        <v>0.5220990083500995</v>
+        <v>0.5216628166005712</v>
       </c>
       <c r="DY4">
-        <v>0.5221061608298434</v>
+        <v>0.5216628166005712</v>
       </c>
       <c r="DZ4">
-        <v>0.522669728641187</v>
+        <v>0.5222004336801053</v>
       </c>
       <c r="EA4">
-        <v>0.5595478423834765</v>
+        <v>0.5592372427737707</v>
       </c>
       <c r="EB4">
-        <v>0.5714506471230585</v>
+        <v>0.5711717526225135</v>
       </c>
       <c r="EC4">
-        <v>0.5717729501695459</v>
+        <v>0.5714668781947745</v>
       </c>
       <c r="ED4">
-        <v>0.5904713835459114</v>
+        <v>0.5902315699475497</v>
       </c>
       <c r="EE4">
-        <v>0.607184492882316</v>
+        <v>0.6070008430192653</v>
       </c>
       <c r="EF4">
-        <v>0.6071883727913941</v>
+        <v>0.6070008430192653</v>
       </c>
       <c r="EG4">
-        <v>0.6081713260111792</v>
+        <v>0.607959977927488</v>
       </c>
       <c r="EH4">
-        <v>0.6088113343240614</v>
+        <v>0.6085744241803406</v>
       </c>
       <c r="EI4">
-        <v>0.610446581656976</v>
+        <v>0.6101891698768704</v>
       </c>
       <c r="EJ4">
-        <v>0.6125685491996873</v>
+        <v>0.6122931105760946</v>
       </c>
       <c r="EK4">
-        <v>0.6197035593433021</v>
+        <v>0.6194355833504086</v>
       </c>
       <c r="EL4">
-        <v>0.627828477506842</v>
+        <v>0.6275729974621217</v>
       </c>
       <c r="EM4">
-        <v>0.6587933881301096</v>
+        <v>0.6586665369780771</v>
       </c>
       <c r="EN4">
-        <v>0.6789408575356416</v>
+        <v>0.6788876325742188</v>
       </c>
       <c r="EO4">
-        <v>0.6912809227840248</v>
+        <v>0.6912616262403081</v>
       </c>
       <c r="EP4">
-        <v>0.7238363234393059</v>
+        <v>0.7239537428439522</v>
       </c>
       <c r="EQ4">
-        <v>0.7618465712043834</v>
+        <v>0.7621284424446899</v>
       </c>
       <c r="ER4">
-        <v>0.7945446848625372</v>
+        <v>0.7949639976942326</v>
       </c>
       <c r="ES4">
-        <v>0.804426141061433</v>
+        <v>0.8048668811898806</v>
       </c>
       <c r="ET4">
-        <v>0.807536406224037</v>
+        <v>0.8079641446381807</v>
       </c>
       <c r="EU4">
-        <v>0.812369626821321</v>
+        <v>0.8127931241145913</v>
       </c>
       <c r="EV4">
-        <v>0.8139297692527238</v>
+        <v>0.8143323830288633</v>
       </c>
       <c r="EW4">
-        <v>0.81798509133435</v>
+        <v>0.8183795086623403</v>
       </c>
       <c r="EX4">
-        <v>0.8182448298095781</v>
+        <v>0.8186117515455539</v>
       </c>
       <c r="EY4">
-        <v>0.8190169068951186</v>
+        <v>0.8193589380921029</v>
       </c>
       <c r="EZ4">
-        <v>0.82175443345022</v>
+        <v>0.8220815676944453</v>
       </c>
       <c r="FA4">
-        <v>0.8221272693277245</v>
+        <v>0.8224274830385464</v>
       </c>
       <c r="FB4">
-        <v>0.8365788316186082</v>
+        <v>0.8369237099314547</v>
       </c>
       <c r="FC4">
-        <v>0.8560441500104098</v>
+        <v>0.8564591860273519</v>
       </c>
       <c r="FD4">
-        <v>0.8566235522820721</v>
+        <v>0.8570127180796</v>
       </c>
       <c r="FE4">
-        <v>0.8587317711245067</v>
+        <v>0.8591028401714733</v>
       </c>
       <c r="FF4">
-        <v>0.8591802527535338</v>
+        <v>0.8595247858978661</v>
       </c>
       <c r="FG4">
-        <v>0.8596081650621469</v>
+        <v>0.8599260577164308</v>
       </c>
       <c r="FH4">
-        <v>0.8614233809986839</v>
+        <v>0.8617216870906094</v>
       </c>
       <c r="FI4">
-        <v>0.8625851904220689</v>
+        <v>0.8628605876203143</v>
       </c>
       <c r="FJ4">
-        <v>0.879995507772507</v>
+        <v>0.880330613751875</v>
       </c>
       <c r="FK4">
-        <v>0.8811682604961124</v>
+        <v>0.8814805132244489</v>
       </c>
       <c r="FL4">
-        <v>0.8815243831832805</v>
+        <v>0.8818096303978</v>
       </c>
       <c r="FM4">
-        <v>0.8819296429914377</v>
+        <v>0.8821881345362921</v>
       </c>
       <c r="FN4">
-        <v>0.8881222127160829</v>
+        <v>0.8883833749294203</v>
       </c>
       <c r="FO4">
-        <v>0.8913272921805954</v>
+        <v>0.8915759347754124</v>
       </c>
       <c r="FP4">
-        <v>0.8925324410048529</v>
+        <v>0.8927583950708713</v>
       </c>
       <c r="FQ4">
-        <v>0.8968628535920162</v>
+        <v>0.8970820099437279</v>
       </c>
       <c r="FR4">
-        <v>0.899357949642238</v>
+        <v>0.8995609763714154</v>
       </c>
       <c r="FS4">
-        <v>0.9056686702692613</v>
+        <v>0.9058749684207187</v>
       </c>
       <c r="FT4">
-        <v>0.9059610345551461</v>
+        <v>0.9061400030048126</v>
       </c>
       <c r="FU4">
-        <v>0.9060842125576254</v>
+        <v>0.9062349910555996</v>
       </c>
       <c r="FV4">
-        <v>0.9065187762963723</v>
+        <v>0.9066429481243692</v>
       </c>
       <c r="FW4">
-        <v>0.906519055493398</v>
+        <v>0.9066429481243692</v>
       </c>
       <c r="FX4">
-        <v>0.9123051541098617</v>
+        <v>0.9124296506535262</v>
       </c>
       <c r="FY4">
-        <v>0.9208649622821551</v>
+        <v>0.9210041660294188</v>
       </c>
       <c r="FZ4">
-        <v>0.925338488872199</v>
+        <v>0.9254716225871193</v>
       </c>
       <c r="GA4">
-        <v>0.9286508336388706</v>
+        <v>0.9287719931398019</v>
       </c>
       <c r="GB4">
-        <v>0.928758418831036</v>
+        <v>0.928851309096581</v>
       </c>
       <c r="GC4">
-        <v>0.9288748199333789</v>
+        <v>0.9289394857891918</v>
       </c>
       <c r="GD4">
-        <v>0.9289058203700029</v>
+        <v>0.928941827585171</v>
       </c>
       <c r="GE4">
-        <v>0.9290436232827767</v>
+        <v>0.9290515149085316</v>
       </c>
       <c r="GF4">
-        <v>0.9293425965487945</v>
+        <v>0.9293231920769869</v>
       </c>
       <c r="GG4">
-        <v>0.9329090916205816</v>
+        <v>0.9328790051954254</v>
       </c>
       <c r="GH4">
-        <v>0.9386919101369792</v>
+        <v>0.9386624109464163</v>
       </c>
       <c r="GI4">
-        <v>0.9455553562751279</v>
+        <v>0.9455319389123751</v>
       </c>
       <c r="GJ4">
-        <v>0.9534376314337838</v>
+        <v>0.9534254762689447</v>
       </c>
       <c r="GK4">
-        <v>0.9569850235051863</v>
+        <v>0.9569620892552817</v>
       </c>
       <c r="GL4">
-        <v>0.9582065359297731</v>
+        <v>0.9581609963539472</v>
       </c>
       <c r="GM4">
-        <v>0.9582156971079575</v>
+        <v>0.9581609963539472</v>
       </c>
       <c r="GN4">
-        <v>0.9582293036192314</v>
+        <v>0.9581609963539472</v>
       </c>
       <c r="GO4">
-        <v>0.9589380504334972</v>
+        <v>0.958844530618131</v>
       </c>
       <c r="GP4">
-        <v>0.9590768578362912</v>
+        <v>0.9589552275389733</v>
       </c>
       <c r="GQ4">
-        <v>0.9594345941834918</v>
+        <v>0.9592859665772235</v>
       </c>
       <c r="GR4">
-        <v>0.967886089353605</v>
+        <v>0.9677516182192362</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.227807454014945E-05</v>
+        <v>5.071269256000138E-05</v>
       </c>
       <c r="C5">
-        <v>0.000145572224612397</v>
+        <v>0.0001224856270335844</v>
       </c>
       <c r="D5">
-        <v>0.0003500175195167145</v>
+        <v>0.0003156643118040704</v>
       </c>
       <c r="E5">
-        <v>0.0004758256486882843</v>
+        <v>0.0004300405707267491</v>
       </c>
       <c r="F5">
-        <v>0.0005543056144095719</v>
+        <v>0.0004969892035892657</v>
       </c>
       <c r="G5">
-        <v>0.0006648919274714523</v>
+        <v>0.0005961116569598806</v>
       </c>
       <c r="H5">
-        <v>0.0008297079094867434</v>
+        <v>0.0007495777457684222</v>
       </c>
       <c r="I5">
-        <v>0.001023325723601724</v>
+        <v>0.0009319061952326152</v>
       </c>
       <c r="J5">
-        <v>0.001106743215682963</v>
+        <v>0.00100380273092487</v>
       </c>
       <c r="K5">
-        <v>0.001275649377996434</v>
+        <v>0.001161367595759329</v>
       </c>
       <c r="L5">
-        <v>0.001390493706368729</v>
+        <v>0.001264757012882149</v>
       </c>
       <c r="M5">
-        <v>0.00148616094334299</v>
+        <v>0.001348929036946754</v>
       </c>
       <c r="N5">
-        <v>0.002034555283321623</v>
+        <v>0.001886779593691964</v>
       </c>
       <c r="O5">
-        <v>0.002230341047594649</v>
+        <v>0.002071280549374804</v>
       </c>
       <c r="P5">
-        <v>0.002358767196957076</v>
+        <v>0.002188280330394645</v>
       </c>
       <c r="Q5">
-        <v>0.00237043893080796</v>
+        <v>0.002188280330394645</v>
       </c>
       <c r="R5">
-        <v>0.002370743888160192</v>
+        <v>0.002188280330394645</v>
       </c>
       <c r="S5">
-        <v>0.002387315239368264</v>
+        <v>0.002193190244553869</v>
       </c>
       <c r="T5">
-        <v>0.002428589732377226</v>
+        <v>0.002222855215457996</v>
       </c>
       <c r="U5">
-        <v>0.002433302626720802</v>
+        <v>0.002222855215457996</v>
       </c>
       <c r="V5">
-        <v>0.002439649147583471</v>
+        <v>0.002222855215457996</v>
       </c>
       <c r="W5">
-        <v>0.002475172052173135</v>
+        <v>0.002246756510679059</v>
       </c>
       <c r="X5">
-        <v>0.002475577398582686</v>
+        <v>0.002246756510679059</v>
       </c>
       <c r="Y5">
-        <v>0.002475594307861918</v>
+        <v>0.002246756510679059</v>
       </c>
       <c r="Z5">
-        <v>0.002486184578633963</v>
+        <v>0.002246756510679059</v>
       </c>
       <c r="AA5">
-        <v>0.002544309572871347</v>
+        <v>0.00229330739502091</v>
       </c>
       <c r="AB5">
-        <v>0.002591279644295524</v>
+        <v>0.002328679913896065</v>
       </c>
       <c r="AC5">
-        <v>0.002592168438260318</v>
+        <v>0.002328679913896065</v>
       </c>
       <c r="AD5">
-        <v>0.002621982573433806</v>
+        <v>0.002346860442423561</v>
       </c>
       <c r="AE5">
-        <v>0.002723867545861348</v>
+        <v>0.002437263268837574</v>
       </c>
       <c r="AF5">
-        <v>0.002885715927660297</v>
+        <v>0.002587755520862769</v>
       </c>
       <c r="AG5">
-        <v>0.003059596480336407</v>
+        <v>0.002750305230001283</v>
       </c>
       <c r="AH5">
-        <v>0.00338395447398251</v>
+        <v>0.003063648616319181</v>
       </c>
       <c r="AI5">
-        <v>0.003577572288097491</v>
+        <v>0.003245977065783373</v>
       </c>
       <c r="AJ5">
-        <v>0.003700704997074019</v>
+        <v>0.003357672281975596</v>
       </c>
       <c r="AK5">
-        <v>0.003701209881380826</v>
+        <v>0.003357672281975596</v>
       </c>
       <c r="AL5">
-        <v>0.003735857531906683</v>
+        <v>0.003380696483740677</v>
       </c>
       <c r="AM5">
-        <v>0.00399926957110975</v>
+        <v>0.003632965834505928</v>
       </c>
       <c r="AN5">
-        <v>0.004366536917883998</v>
+        <v>0.003989308750200937</v>
       </c>
       <c r="AO5">
-        <v>0.004423438836032219</v>
+        <v>0.004034633988095278</v>
       </c>
       <c r="AP5">
-        <v>0.0045332185740353</v>
+        <v>0.004132948171347438</v>
       </c>
       <c r="AQ5">
-        <v>0.004666961593785333</v>
+        <v>0.004255275996435979</v>
       </c>
       <c r="AR5">
-        <v>0.00472103333172723</v>
+        <v>0.004297765106352327</v>
       </c>
       <c r="AS5">
-        <v>0.004726808350648236</v>
+        <v>0.004297765106352327</v>
       </c>
       <c r="AT5">
-        <v>0.004728173065647726</v>
+        <v>0.004297765106352327</v>
       </c>
       <c r="AU5">
-        <v>0.004853186864761388</v>
+        <v>0.004411345365890953</v>
       </c>
       <c r="AV5">
-        <v>0.004919293649580656</v>
+        <v>0.004465894814964894</v>
       </c>
       <c r="AW5">
-        <v>0.005019692546899861</v>
+        <v>0.004554808443206037</v>
       </c>
       <c r="AX5">
-        <v>0.005180468478620627</v>
+        <v>0.00470422599134314</v>
       </c>
       <c r="AY5">
-        <v>0.005240377295988054</v>
+        <v>0.004752564447612602</v>
       </c>
       <c r="AZ5">
-        <v>0.005323671446060302</v>
+        <v>0.004824337382086185</v>
       </c>
       <c r="BA5">
-        <v>0.005413444652604881</v>
+        <v>0.004902602989108011</v>
       </c>
       <c r="BB5">
-        <v>0.005664667130919314</v>
+        <v>0.005142657161985132</v>
       </c>
       <c r="BC5">
-        <v>0.005977854373751055</v>
+        <v>0.005444806321571808</v>
       </c>
       <c r="BD5">
-        <v>0.006114296293697841</v>
+        <v>0.005569838718736969</v>
       </c>
       <c r="BE5">
-        <v>0.006137024509354757</v>
+        <v>0.005580918436317565</v>
       </c>
       <c r="BF5">
-        <v>0.006211327699771552</v>
+        <v>0.005643681516163919</v>
       </c>
       <c r="BG5">
-        <v>0.006222429612580896</v>
+        <v>0.005643681516163919</v>
       </c>
       <c r="BH5">
-        <v>0.006345562321557424</v>
+        <v>0.005755376732356141</v>
       </c>
       <c r="BI5">
-        <v>0.006347131450871815</v>
+        <v>0.005755376732356141</v>
       </c>
       <c r="BJ5">
-        <v>0.006347149362793121</v>
+        <v>0.005755376732356141</v>
       </c>
       <c r="BK5">
-        <v>0.006347157074495683</v>
+        <v>0.005755376732356141</v>
       </c>
       <c r="BL5">
-        <v>0.006386026505329313</v>
+        <v>0.005782631586721034</v>
       </c>
       <c r="BM5">
-        <v>0.006451448530098661</v>
+        <v>0.005836494836686011</v>
       </c>
       <c r="BN5">
-        <v>0.006763381782838984</v>
+        <v>0.006137387370855531</v>
       </c>
       <c r="BO5">
-        <v>0.006803263211746391</v>
+        <v>0.006165656350061061</v>
       </c>
       <c r="BP5">
-        <v>0.006820793307024357</v>
+        <v>0.006171527023140966</v>
       </c>
       <c r="BQ5">
-        <v>0.006868688014515941</v>
+        <v>0.006207826121254565</v>
       </c>
       <c r="BR5">
-        <v>0.006912439754705497</v>
+        <v>0.00623997354540375</v>
       </c>
       <c r="BS5">
-        <v>0.006959844856161388</v>
+        <v>0.006275782008548975</v>
       </c>
       <c r="BT5">
-        <v>0.00714937222997817</v>
+        <v>0.006454011421440828</v>
       </c>
       <c r="BU5">
-        <v>0.007269941748767839</v>
+        <v>0.006563138060768006</v>
       </c>
       <c r="BV5">
-        <v>0.007336048533587106</v>
+        <v>0.006617687509841947</v>
       </c>
       <c r="BW5">
-        <v>0.007532023347873915</v>
+        <v>0.006802377912837057</v>
       </c>
       <c r="BX5">
-        <v>0.007697925129968362</v>
+        <v>0.006956932083590389</v>
       </c>
       <c r="BY5">
-        <v>0.007698234298450901</v>
+        <v>0.006956932083590389</v>
       </c>
       <c r="BZ5">
-        <v>0.007852220569676693</v>
+        <v>0.007099545702406013</v>
       </c>
       <c r="CA5">
-        <v>0.007965343047923464</v>
+        <v>0.007201209650845248</v>
       </c>
       <c r="CB5">
-        <v>0.008018795659820225</v>
+        <v>0.007243078333590709</v>
       </c>
       <c r="CC5">
-        <v>0.008019352200300797</v>
+        <v>0.007243078333590709</v>
       </c>
       <c r="CD5">
-        <v>0.008026922604152689</v>
+        <v>0.007243078333590709</v>
       </c>
       <c r="CE5">
-        <v>0.008103240885716387</v>
+        <v>0.007307860739403363</v>
       </c>
       <c r="CF5">
-        <v>0.008110019977810591</v>
+        <v>0.007307860739403363</v>
       </c>
       <c r="CG5">
-        <v>0.008110365361735769</v>
+        <v>0.007307860739403363</v>
       </c>
       <c r="CH5">
-        <v>0.008111730076735258</v>
+        <v>0.007307860739403363</v>
       </c>
       <c r="CI5">
-        <v>0.008117155449530775</v>
+        <v>0.007307860739403363</v>
       </c>
       <c r="CJ5">
-        <v>0.008208463256187229</v>
+        <v>0.007387664171579429</v>
       </c>
       <c r="CK5">
-        <v>0.008353072186729401</v>
+        <v>0.007520880742739725</v>
       </c>
       <c r="CL5">
-        <v>0.008572462302723214</v>
+        <v>0.007729035655922564</v>
       </c>
       <c r="CM5">
-        <v>0.008580968360343316</v>
+        <v>0.007729035655922564</v>
       </c>
       <c r="CN5">
-        <v>0.0929614845117884</v>
+        <v>0.09227518561099345</v>
       </c>
       <c r="CO5">
-        <v>0.09498351685919708</v>
+        <v>0.09428977110248539</v>
       </c>
       <c r="CP5">
-        <v>0.1691658722671835</v>
+        <v>0.1686163283461197</v>
       </c>
       <c r="CQ5">
-        <v>0.1935042980414851</v>
+        <v>0.1929942063320266</v>
       </c>
       <c r="CR5">
-        <v>0.2267952934684403</v>
+        <v>0.2263434682637663</v>
       </c>
       <c r="CS5">
-        <v>0.2319856298468223</v>
+        <v>0.2315330161427964</v>
       </c>
       <c r="CT5">
-        <v>0.2333956892496174</v>
+        <v>0.2329343425965368</v>
       </c>
       <c r="CU5">
-        <v>0.2492894454082921</v>
+        <v>0.2488498040521192</v>
       </c>
       <c r="CV5">
-        <v>0.2575494170104544</v>
+        <v>0.2571154381538376</v>
       </c>
       <c r="CW5">
-        <v>0.2926699145707825</v>
+        <v>0.2922980470133327</v>
       </c>
       <c r="CX5">
-        <v>0.2968511345755987</v>
+        <v>0.2964763578079799</v>
       </c>
       <c r="CY5">
-        <v>0.3178074811033426</v>
+        <v>0.317465048930972</v>
       </c>
       <c r="CZ5">
-        <v>0.3938972166503794</v>
+        <v>0.3937029947727397</v>
       </c>
       <c r="DA5">
-        <v>0.3984257409805144</v>
+        <v>0.398229339770903</v>
       </c>
       <c r="DB5">
-        <v>0.4491289196768395</v>
+        <v>0.4490273775854889</v>
       </c>
       <c r="DC5">
-        <v>0.4506427936872028</v>
+        <v>0.4505327368186229</v>
       </c>
       <c r="DD5">
-        <v>0.4513270494670859</v>
+        <v>0.4512067343351915</v>
       </c>
       <c r="DE5">
-        <v>0.4524029601455211</v>
+        <v>0.452273209833558</v>
       </c>
       <c r="DF5">
-        <v>0.4524493533029033</v>
+        <v>0.4523080042259761</v>
       </c>
       <c r="DG5">
-        <v>0.4554071615185312</v>
+        <v>0.4552603321675981</v>
       </c>
       <c r="DH5">
-        <v>0.4613939265549738</v>
+        <v>0.4612479824411524</v>
       </c>
       <c r="DI5">
-        <v>0.4614737210407909</v>
+        <v>0.4613162483566434</v>
       </c>
       <c r="DJ5">
-        <v>0.4616816947759525</v>
+        <v>0.4615129628968728</v>
       </c>
       <c r="DK5">
-        <v>0.4663096871133389</v>
+        <v>0.4661389849395051</v>
       </c>
       <c r="DL5">
-        <v>0.4665325301095845</v>
+        <v>0.466350599989348</v>
       </c>
       <c r="DM5">
-        <v>0.469674513938639</v>
+        <v>0.4694874905990772</v>
       </c>
       <c r="DN5">
-        <v>0.4760058348002002</v>
+        <v>0.4758204207998304</v>
       </c>
       <c r="DO5">
-        <v>0.4760856971760223</v>
+        <v>0.4758887547480009</v>
       </c>
       <c r="DP5">
-        <v>0.4786116434601669</v>
+        <v>0.4784083131777122</v>
       </c>
       <c r="DQ5">
-        <v>0.4806616417096144</v>
+        <v>0.4804509233430481</v>
       </c>
       <c r="DR5">
-        <v>0.4813892817626603</v>
+        <v>0.4811683963070978</v>
       </c>
       <c r="DS5">
-        <v>0.4815006152107766</v>
+        <v>0.4812682674656663</v>
       </c>
       <c r="DT5">
-        <v>0.4815933404725364</v>
+        <v>0.4813494913318017</v>
       </c>
       <c r="DU5">
-        <v>0.4901311910949564</v>
+        <v>0.4898935884310669</v>
       </c>
       <c r="DV5">
-        <v>0.4951013254572854</v>
+        <v>0.4948624715279948</v>
       </c>
       <c r="DW5">
-        <v>0.5006593621624732</v>
+        <v>0.5004204924752915</v>
       </c>
       <c r="DX5">
-        <v>0.5010757625428293</v>
+        <v>0.5008260716802072</v>
       </c>
       <c r="DY5">
-        <v>0.5019135617639059</v>
+        <v>0.5016539353175385</v>
       </c>
       <c r="DZ5">
-        <v>0.509173604293172</v>
+        <v>0.5089175389431364</v>
       </c>
       <c r="EA5">
-        <v>0.5415390326526522</v>
+        <v>0.5413392886798187</v>
       </c>
       <c r="EB5">
-        <v>0.547895573716052</v>
+        <v>0.5476974920839832</v>
       </c>
       <c r="EC5">
-        <v>0.5483809535814368</v>
+        <v>0.5481721957379218</v>
       </c>
       <c r="ED5">
-        <v>0.5801665858986491</v>
+        <v>0.5800129309606408</v>
       </c>
       <c r="EE5">
-        <v>0.5861658353360019</v>
+        <v>0.5860130918717263</v>
       </c>
       <c r="EF5">
-        <v>0.5863237759575159</v>
+        <v>0.5861596681511041</v>
       </c>
       <c r="EG5">
-        <v>0.5875031547434941</v>
+        <v>0.587329829200651</v>
       </c>
       <c r="EH5">
-        <v>0.5875038269800131</v>
+        <v>0.587329829200651</v>
       </c>
       <c r="EI5">
-        <v>0.5900655891667688</v>
+        <v>0.5898852788019653</v>
       </c>
       <c r="EJ5">
-        <v>0.5955780799686362</v>
+        <v>0.5953976581288446</v>
       </c>
       <c r="EK5">
-        <v>0.6018184214235649</v>
+        <v>0.6016394177249857</v>
       </c>
       <c r="EL5">
-        <v>0.6091861319606802</v>
+        <v>0.6090109156283803</v>
       </c>
       <c r="EM5">
-        <v>0.647940690785936</v>
+        <v>0.6478352229225456</v>
       </c>
       <c r="EN5">
-        <v>0.6526480038291049</v>
+        <v>0.6525407323675706</v>
       </c>
       <c r="EO5">
-        <v>0.673471201347142</v>
+        <v>0.6733959946612509</v>
       </c>
       <c r="EP5">
-        <v>0.7097296669904295</v>
+        <v>0.7097189631031263</v>
       </c>
       <c r="EQ5">
-        <v>0.7455473226015813</v>
+        <v>0.7456001951275374</v>
       </c>
       <c r="ER5">
-        <v>0.7731815376161502</v>
+        <v>0.7732807886271088</v>
       </c>
       <c r="ES5">
-        <v>0.7785219850054754</v>
+        <v>0.7786207629832198</v>
       </c>
       <c r="ET5">
-        <v>0.7830391523347826</v>
+        <v>0.7831357271132242</v>
       </c>
       <c r="EU5">
-        <v>0.7879430756922847</v>
+        <v>0.788038260059437</v>
       </c>
       <c r="EV5">
-        <v>0.7931617984727362</v>
+        <v>0.7932562539960446</v>
       </c>
       <c r="EW5">
-        <v>0.7947303667870868</v>
+        <v>0.7948164224761052</v>
       </c>
       <c r="EX5">
-        <v>0.7947337133658308</v>
+        <v>0.7948164224761052</v>
       </c>
       <c r="EY5">
-        <v>0.7960195227595679</v>
+        <v>0.7960932378028975</v>
       </c>
       <c r="EZ5">
-        <v>0.7988128017632015</v>
+        <v>0.7988806907657844</v>
       </c>
       <c r="FA5">
-        <v>0.7992322229437778</v>
+        <v>0.7992892971192899</v>
       </c>
       <c r="FB5">
-        <v>0.8212529815491186</v>
+        <v>0.8213446372375092</v>
       </c>
       <c r="FC5">
-        <v>0.8304750022214155</v>
+        <v>0.8305743422057805</v>
       </c>
       <c r="FD5">
-        <v>0.8306178396418284</v>
+        <v>0.8307057835438906</v>
       </c>
       <c r="FE5">
-        <v>0.83510475196893</v>
+        <v>0.8351904290892204</v>
       </c>
       <c r="FF5">
-        <v>0.8353925636099118</v>
+        <v>0.8354671493188032</v>
       </c>
       <c r="FG5">
-        <v>0.837373383454316</v>
+        <v>0.8374404356970609</v>
       </c>
       <c r="FH5">
-        <v>0.8384926524359121</v>
+        <v>0.8385503606183292</v>
       </c>
       <c r="FI5">
-        <v>0.8418904964836191</v>
+        <v>0.8419436491503373</v>
       </c>
       <c r="FJ5">
-        <v>0.856779663569058</v>
+        <v>0.8568524103362249</v>
       </c>
       <c r="FK5">
-        <v>0.8567824559537616</v>
+        <v>0.8568524103362249</v>
       </c>
       <c r="FL5">
-        <v>0.8567986853529447</v>
+        <v>0.8568569775797292</v>
       </c>
       <c r="FM5">
-        <v>0.8574610316512306</v>
+        <v>0.8575090195707796</v>
       </c>
       <c r="FN5">
-        <v>0.8682178914354191</v>
+        <v>0.86827678919558</v>
       </c>
       <c r="FO5">
-        <v>0.869860894955196</v>
+        <v>0.8699115493105428</v>
       </c>
       <c r="FP5">
-        <v>0.8756580833778184</v>
+        <v>0.8757092245651114</v>
       </c>
       <c r="FQ5">
-        <v>0.8784383913805063</v>
+        <v>0.8784836792678159</v>
       </c>
       <c r="FR5">
-        <v>0.8833098463356415</v>
+        <v>0.8833536755776167</v>
       </c>
       <c r="FS5">
-        <v>0.8864046777612585</v>
+        <v>0.8864433146906675</v>
       </c>
       <c r="FT5">
-        <v>0.8873385701293405</v>
+        <v>0.8873674734197765</v>
       </c>
       <c r="FU5">
-        <v>0.8873406708644936</v>
+        <v>0.8873674734197765</v>
       </c>
       <c r="FV5">
-        <v>0.8873432339332805</v>
+        <v>0.8873674734197765</v>
       </c>
       <c r="FW5">
-        <v>0.8881963781554758</v>
+        <v>0.8882107143065486</v>
       </c>
       <c r="FX5">
-        <v>0.9001541440272118</v>
+        <v>0.9001819137858248</v>
       </c>
       <c r="FY5">
-        <v>0.9052561040991511</v>
+        <v>0.9052828996309837</v>
       </c>
       <c r="FZ5">
-        <v>0.9084463596317247</v>
+        <v>0.9084681633897408</v>
       </c>
       <c r="GA5">
-        <v>0.9087833850362943</v>
+        <v>0.9087942008082085</v>
       </c>
       <c r="GB5">
-        <v>0.9087955670621823</v>
+        <v>0.9087947121726511</v>
       </c>
       <c r="GC5">
-        <v>0.908835849429119</v>
+        <v>0.9088233829324781</v>
       </c>
       <c r="GD5">
-        <v>0.9090272296530708</v>
+        <v>0.9090034690893665</v>
       </c>
       <c r="GE5">
-        <v>0.9094528819841013</v>
+        <v>0.9094183196884147</v>
       </c>
       <c r="GF5">
-        <v>0.9114781051317427</v>
+        <v>0.9114361026857728</v>
       </c>
       <c r="GG5">
-        <v>0.9181774362201323</v>
+        <v>0.9181378165060862</v>
       </c>
       <c r="GH5">
-        <v>0.9260637787950565</v>
+        <v>0.926029036379632</v>
       </c>
       <c r="GI5">
-        <v>0.9338268796609963</v>
+        <v>0.9337967555452986</v>
       </c>
       <c r="GJ5">
-        <v>0.9396885377883185</v>
+        <v>0.9396590359910221</v>
       </c>
       <c r="GK5">
-        <v>0.9414778648187627</v>
+        <v>0.9414404271231597</v>
       </c>
       <c r="GL5">
-        <v>0.9418664700170926</v>
+        <v>0.9418181527330208</v>
       </c>
       <c r="GM5">
-        <v>0.9418763844623154</v>
+        <v>0.9418181527330208</v>
       </c>
       <c r="GN5">
-        <v>0.941915253893149</v>
+        <v>0.9418454075873858</v>
       </c>
       <c r="GO5">
-        <v>0.9436146591170378</v>
+        <v>0.9435366879375903</v>
       </c>
       <c r="GP5">
-        <v>0.9436200844898333</v>
+        <v>0.9435366879375903</v>
       </c>
       <c r="GQ5">
-        <v>0.9454458850229364</v>
+        <v>0.9453546292233596</v>
       </c>
       <c r="GR5">
-        <v>0.960665647132476</v>
+        <v>0.9605946801960752</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.295179130312002E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.416555596978664E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4.85602195364895E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7.720401320686067E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001276306043870302</v>
+        <v>1.03506767123996E-05</v>
       </c>
       <c r="G6">
-        <v>0.0001790500855904371</v>
+        <v>2.170078514311971E-05</v>
       </c>
       <c r="H6">
-        <v>0.0001945793639538799</v>
+        <v>2.170078514311971E-05</v>
       </c>
       <c r="I6">
-        <v>0.0002404555690275535</v>
+        <v>2.747109535066819E-05</v>
       </c>
       <c r="J6">
-        <v>0.0002452584246399581</v>
+        <v>2.747109535066819E-05</v>
       </c>
       <c r="K6">
-        <v>0.0002501040660533641</v>
+        <v>2.747109535066819E-05</v>
       </c>
       <c r="L6">
-        <v>0.0002637353643723872</v>
+        <v>2.747109535066819E-05</v>
       </c>
       <c r="M6">
-        <v>0.0002672446572545177</v>
+        <v>2.747109535066819E-05</v>
       </c>
       <c r="N6">
-        <v>0.0003522138452431122</v>
+        <v>7.259195413311721E-05</v>
       </c>
       <c r="O6">
-        <v>0.000440513067309642</v>
+        <v>0.0001210647870543789</v>
       </c>
       <c r="P6">
-        <v>0.0006631964925212613</v>
+        <v>0.0003048072187440117</v>
       </c>
       <c r="Q6">
-        <v>0.0008670171572914219</v>
+        <v>0.000469562611950965</v>
       </c>
       <c r="R6">
-        <v>0.001099596482734642</v>
+        <v>0.0006632661434012238</v>
       </c>
       <c r="S6">
-        <v>0.001291122217217056</v>
+        <v>0.0008156456006872489</v>
       </c>
       <c r="T6">
-        <v>0.001363242418904936</v>
+        <v>0.0008478328171159062</v>
       </c>
       <c r="U6">
-        <v>0.001365600485960124</v>
+        <v>0.0008478328171159062</v>
       </c>
       <c r="V6">
-        <v>0.001376390256212644</v>
+        <v>0.0008478328171159062</v>
       </c>
       <c r="W6">
-        <v>0.001606556841599397</v>
+        <v>0.001039107712076664</v>
       </c>
       <c r="X6">
-        <v>0.001634042389242661</v>
+        <v>0.001039107712076664</v>
       </c>
       <c r="Y6">
-        <v>0.001647601865060003</v>
+        <v>0.001039107712076664</v>
       </c>
       <c r="Z6">
-        <v>0.001793537068475429</v>
+        <v>0.001145596263283422</v>
       </c>
       <c r="AA6">
-        <v>0.001890054365734292</v>
+        <v>0.001202341316509589</v>
       </c>
       <c r="AB6">
-        <v>0.001897551887909762</v>
+        <v>0.001202341316509589</v>
       </c>
       <c r="AC6">
-        <v>0.00189990995496495</v>
+        <v>0.001202341316509589</v>
       </c>
       <c r="AD6">
-        <v>0.001943918043994903</v>
+        <v>0.001206231202517174</v>
       </c>
       <c r="AE6">
-        <v>0.002205221870110383</v>
+        <v>0.001428848487145425</v>
       </c>
       <c r="AF6">
-        <v>0.002307682382508339</v>
+        <v>0.001491575912618063</v>
       </c>
       <c r="AG6">
-        <v>0.002494017186869266</v>
+        <v>0.001638730239134736</v>
       </c>
       <c r="AH6">
-        <v>0.002569207848629007</v>
+        <v>0.001674008145482553</v>
       </c>
       <c r="AI6">
-        <v>0.002569318764047603</v>
+        <v>0.001674008145482553</v>
       </c>
       <c r="AJ6">
-        <v>0.002608585694966595</v>
+        <v>0.001674008145482553</v>
       </c>
       <c r="AK6">
-        <v>0.002646006505842381</v>
+        <v>0.001674008145482553</v>
       </c>
       <c r="AL6">
-        <v>0.002782494869036715</v>
+        <v>0.001770987615588788</v>
       </c>
       <c r="AM6">
-        <v>0.002889433721539482</v>
+        <v>0.001838222886886666</v>
       </c>
       <c r="AN6">
-        <v>0.002922148862305137</v>
+        <v>0.001838222886886666</v>
       </c>
       <c r="AO6">
-        <v>0.002923068861926669</v>
+        <v>0.001838222886886666</v>
       </c>
       <c r="AP6">
-        <v>0.00297195475607078</v>
+        <v>0.001847022715619812</v>
       </c>
       <c r="AQ6">
-        <v>0.003009983546960795</v>
+        <v>0.001847022715619812</v>
       </c>
       <c r="AR6">
-        <v>0.003109646604293281</v>
+        <v>0.001906934254883932</v>
       </c>
       <c r="AS6">
-        <v>0.003111487257136359</v>
+        <v>0.001906934254883932</v>
       </c>
       <c r="AT6">
-        <v>0.003111759606922733</v>
+        <v>0.001906934254883932</v>
       </c>
       <c r="AU6">
-        <v>0.003112353021876621</v>
+        <v>0.001906934254883932</v>
       </c>
       <c r="AV6">
-        <v>0.003113811389610752</v>
+        <v>0.001906934254883932</v>
       </c>
       <c r="AW6">
-        <v>0.003151840180500767</v>
+        <v>0.001906934254883932</v>
       </c>
       <c r="AX6">
-        <v>0.003401390786341178</v>
+        <v>0.002117720882681721</v>
       </c>
       <c r="AY6">
-        <v>0.003406369467757697</v>
+        <v>0.002117720882681721</v>
       </c>
       <c r="AZ6">
-        <v>0.0035489623210949</v>
+        <v>0.002220845062604925</v>
       </c>
       <c r="BA6">
-        <v>0.003772542406327504</v>
+        <v>0.00240549006199546</v>
       </c>
       <c r="BB6">
-        <v>0.003806985131133592</v>
+        <v>0.00240549006199546</v>
       </c>
       <c r="BC6">
-        <v>0.003832725659736016</v>
+        <v>0.00240549006199546</v>
       </c>
       <c r="BD6">
-        <v>0.003948895682454826</v>
+        <v>0.002482017323438479</v>
       </c>
       <c r="BE6">
-        <v>0.004016203674030083</v>
+        <v>0.002509360624318366</v>
       </c>
       <c r="BF6">
-        <v>0.004051112244847073</v>
+        <v>0.002509360624318366</v>
       </c>
       <c r="BG6">
-        <v>0.004142995936997493</v>
+        <v>0.002561441543746056</v>
       </c>
       <c r="BH6">
-        <v>0.004153849788251513</v>
+        <v>0.002561441543746056</v>
       </c>
       <c r="BI6">
-        <v>0.004250367085510376</v>
+        <v>0.002618186596972223</v>
       </c>
       <c r="BJ6">
-        <v>0.004520751571838378</v>
+        <v>0.002849944370100998</v>
       </c>
       <c r="BK6">
-        <v>0.004557326076694357</v>
+        <v>0.002849944370100998</v>
       </c>
       <c r="BL6">
-        <v>0.004562438701814012</v>
+        <v>0.002849944370100998</v>
       </c>
       <c r="BM6">
-        <v>0.004562888607854541</v>
+        <v>0.002849944370100998</v>
       </c>
       <c r="BN6">
-        <v>0.004599824632718981</v>
+        <v>0.002849944370100998</v>
       </c>
       <c r="BO6">
-        <v>0.004632996113495317</v>
+        <v>0.002849944370100998</v>
       </c>
       <c r="BP6">
-        <v>0.004637668315204664</v>
+        <v>0.002849944370100998</v>
       </c>
       <c r="BQ6">
-        <v>0.00464159915429666</v>
+        <v>0.002849944370100998</v>
       </c>
       <c r="BR6">
-        <v>0.004644437293063083</v>
+        <v>0.002849944370100998</v>
       </c>
       <c r="BS6">
-        <v>0.004706941954525925</v>
+        <v>0.002872452693938553</v>
       </c>
       <c r="BT6">
-        <v>0.004902338239098923</v>
+        <v>0.003028728202587111</v>
       </c>
       <c r="BU6">
-        <v>0.005267404047642819</v>
+        <v>0.003355791109557958</v>
       </c>
       <c r="BV6">
-        <v>0.005521686873593981</v>
+        <v>0.003571341135885362</v>
       </c>
       <c r="BW6">
-        <v>0.005576433924875266</v>
+        <v>0.003586040738220676</v>
       </c>
       <c r="BX6">
-        <v>0.005591961635238672</v>
+        <v>0.003586040738220676</v>
       </c>
       <c r="BY6">
-        <v>0.005592398570348898</v>
+        <v>0.003586040738220676</v>
       </c>
       <c r="BZ6">
-        <v>0.005787800394922026</v>
+        <v>0.003742321823369873</v>
       </c>
       <c r="CA6">
-        <v>0.006114803502575113</v>
+        <v>0.004031071251843687</v>
       </c>
       <c r="CB6">
-        <v>0.006178416214063886</v>
+        <v>0.004054694926138478</v>
       </c>
       <c r="CC6">
-        <v>0.006195061470453447</v>
+        <v>0.004054694926138478</v>
       </c>
       <c r="CD6">
-        <v>0.006195099067828327</v>
+        <v>0.004054694926138478</v>
       </c>
       <c r="CE6">
-        <v>0.006197487142884217</v>
+        <v>0.004054694926138478</v>
       </c>
       <c r="CF6">
-        <v>0.006200225053748294</v>
+        <v>0.004054694926138478</v>
       </c>
       <c r="CG6">
-        <v>0.006313415096397362</v>
+        <v>0.004128222573795517</v>
       </c>
       <c r="CH6">
-        <v>0.006675827264879152</v>
+        <v>0.004452614357092035</v>
       </c>
       <c r="CI6">
-        <v>0.006703834219534618</v>
+        <v>0.004452614357092035</v>
       </c>
       <c r="CJ6">
-        <v>0.006705594332375811</v>
+        <v>0.004452614357092035</v>
       </c>
       <c r="CK6">
-        <v>0.006728400266909555</v>
+        <v>0.004452614357092035</v>
       </c>
       <c r="CL6">
-        <v>0.006757044060579926</v>
+        <v>0.004452614357092035</v>
       </c>
       <c r="CM6">
-        <v>0.006758778424620517</v>
+        <v>0.004452614357092035</v>
       </c>
       <c r="CN6">
-        <v>0.01176957454189176</v>
+        <v>0.009456016150182708</v>
       </c>
       <c r="CO6">
-        <v>0.1180248770286605</v>
+        <v>0.1163709777366325</v>
       </c>
       <c r="CP6">
-        <v>0.1832210725544936</v>
+        <v>0.1819563128163351</v>
       </c>
       <c r="CQ6">
-        <v>0.2173654333535985</v>
+        <v>0.2162852269313554</v>
       </c>
       <c r="CR6">
-        <v>0.2432509449594156</v>
+        <v>0.2423008780994031</v>
       </c>
       <c r="CS6">
-        <v>0.2577423757985689</v>
+        <v>0.2568473781502099</v>
       </c>
       <c r="CT6">
-        <v>0.2650655729699589</v>
+        <v>0.2641784163429784</v>
       </c>
       <c r="CU6">
-        <v>0.2873564344916479</v>
+        <v>0.2865757339330257</v>
       </c>
       <c r="CV6">
-        <v>0.2909366527754383</v>
+        <v>0.2901391324741497</v>
       </c>
       <c r="CW6">
-        <v>0.2997564729818548</v>
+        <v>0.2989766542618461</v>
       </c>
       <c r="CX6">
-        <v>0.3186174504232717</v>
+        <v>0.3179214898450647</v>
       </c>
       <c r="CY6">
-        <v>0.3214419594893757</v>
+        <v>0.3207242001485123</v>
       </c>
       <c r="CZ6">
-        <v>0.3861972510048901</v>
+        <v>0.3858657263044324</v>
       </c>
       <c r="DA6">
-        <v>0.3960716772359883</v>
+        <v>0.3957648024302036</v>
       </c>
       <c r="DB6">
-        <v>0.4488812854719293</v>
+        <v>0.4488819407010588</v>
       </c>
       <c r="DC6">
-        <v>0.4535560312813357</v>
+        <v>0.4535470781055756</v>
       </c>
       <c r="DD6">
-        <v>0.4623143574863131</v>
+        <v>0.4623227007361786</v>
       </c>
       <c r="DE6">
-        <v>0.4650654238506982</v>
+        <v>0.4650514844577701</v>
       </c>
       <c r="DF6">
-        <v>0.4651228532220423</v>
+        <v>0.4650688840527397</v>
       </c>
       <c r="DG6">
-        <v>0.4652888863459281</v>
+        <v>0.4651956029403586</v>
       </c>
       <c r="DH6">
-        <v>0.4698313950522396</v>
+        <v>0.4697276319924106</v>
       </c>
       <c r="DI6">
-        <v>0.4699637354653369</v>
+        <v>0.4698204361834869</v>
       </c>
       <c r="DJ6">
-        <v>0.471618050504054</v>
+        <v>0.4714452425900391</v>
       </c>
       <c r="DK6">
-        <v>0.4741275583627858</v>
+        <v>0.4739308762882343</v>
       </c>
       <c r="DL6">
-        <v>0.4745110814017617</v>
+        <v>0.4742765180318279</v>
       </c>
       <c r="DM6">
-        <v>0.4750329195539746</v>
+        <v>0.474761386183238</v>
       </c>
       <c r="DN6">
-        <v>0.484335216771683</v>
+        <v>0.4840845638010466</v>
       </c>
       <c r="DO6">
-        <v>0.4871629166378617</v>
+        <v>0.486890485927281</v>
       </c>
       <c r="DP6">
-        <v>0.488277711263952</v>
+        <v>0.4879722172696861</v>
       </c>
       <c r="DQ6">
-        <v>0.4914269323376554</v>
+        <v>0.4911017789586036</v>
       </c>
       <c r="DR6">
-        <v>0.4926692862667311</v>
+        <v>0.4923119100334935</v>
       </c>
       <c r="DS6">
-        <v>0.4926695584090675</v>
+        <v>0.4923119100334935</v>
       </c>
       <c r="DT6">
-        <v>0.4926722963199316</v>
+        <v>0.4923119100334935</v>
       </c>
       <c r="DU6">
-        <v>0.4974990844328964</v>
+        <v>0.497130091478283</v>
       </c>
       <c r="DV6">
-        <v>0.5074963506668695</v>
+        <v>0.5071528169431336</v>
       </c>
       <c r="DW6">
-        <v>0.5159851908655398</v>
+        <v>0.5156571780482472</v>
       </c>
       <c r="DX6">
-        <v>0.516821901335122</v>
+        <v>0.5164589930657097</v>
       </c>
       <c r="DY6">
-        <v>0.5168514003438124</v>
+        <v>0.5164589930657097</v>
       </c>
       <c r="DZ6">
-        <v>0.5171019001296751</v>
+        <v>0.5166707351272398</v>
       </c>
       <c r="EA6">
-        <v>0.5531111869724261</v>
+        <v>0.5528768624247079</v>
       </c>
       <c r="EB6">
-        <v>0.570262986373842</v>
+        <v>0.5701012589809894</v>
       </c>
       <c r="EC6">
-        <v>0.5717665037090299</v>
+        <v>0.5715742741473944</v>
       </c>
       <c r="ED6">
-        <v>0.5871493500690457</v>
+        <v>0.5870180628453852</v>
       </c>
       <c r="EE6">
-        <v>0.6112224316324452</v>
+        <v>0.6112093427041885</v>
       </c>
       <c r="EF6">
-        <v>0.6113582195856231</v>
+        <v>0.6113056171495993</v>
       </c>
       <c r="EG6">
-        <v>0.6117702899652671</v>
+        <v>0.611679994319141</v>
       </c>
       <c r="EH6">
-        <v>0.6120492392117955</v>
+        <v>0.6119203732817307</v>
       </c>
       <c r="EI6">
-        <v>0.615419707790677</v>
+        <v>0.6152726401737413</v>
       </c>
       <c r="EJ6">
-        <v>0.6194585308852004</v>
+        <v>0.6192976650614838</v>
       </c>
       <c r="EK6">
-        <v>0.6264504334488369</v>
+        <v>0.6262952258989074</v>
       </c>
       <c r="EL6">
-        <v>0.6308771121524376</v>
+        <v>0.6307106617977067</v>
       </c>
       <c r="EM6">
-        <v>0.6540006186936135</v>
+        <v>0.6539461103217961</v>
       </c>
       <c r="EN6">
-        <v>0.677916674253338</v>
+        <v>0.6779793296049051</v>
       </c>
       <c r="EO6">
-        <v>0.6853080690263241</v>
+        <v>0.6853790147218579</v>
       </c>
       <c r="EP6">
-        <v>0.7170111397682938</v>
+        <v>0.7172505542439035</v>
       </c>
       <c r="EQ6">
-        <v>0.7525542306001342</v>
+        <v>0.7529874139796536</v>
       </c>
       <c r="ER6">
-        <v>0.7872406474119251</v>
+        <v>0.7878619554647813</v>
       </c>
       <c r="ES6">
-        <v>0.7989469656858964</v>
+        <v>0.7996049931264101</v>
       </c>
       <c r="ET6">
-        <v>0.8025271839696868</v>
+        <v>0.8031683916675341</v>
       </c>
       <c r="EU6">
-        <v>0.8081836993020702</v>
+        <v>0.8088217670222565</v>
       </c>
       <c r="EV6">
-        <v>0.8090250158217601</v>
+        <v>0.8096282184369697</v>
       </c>
       <c r="EW6">
-        <v>0.8142908359449998</v>
+        <v>0.8148883244717519</v>
       </c>
       <c r="EX6">
-        <v>0.8144505226887371</v>
+        <v>0.8150086551658463</v>
       </c>
       <c r="EY6">
-        <v>0.8145931107920742</v>
+        <v>0.8151117745644738</v>
       </c>
       <c r="EZ6">
-        <v>0.8164045999344698</v>
+        <v>0.8168947906224864</v>
       </c>
       <c r="FA6">
-        <v>0.816416872534757</v>
+        <v>0.8168947906224864</v>
       </c>
       <c r="FB6">
-        <v>0.8262557767650239</v>
+        <v>0.8267581107093226</v>
       </c>
       <c r="FC6">
-        <v>0.8468415062468064</v>
+        <v>0.8474390619297586</v>
       </c>
       <c r="FD6">
-        <v>0.8482293982792882</v>
+        <v>0.8487956899915897</v>
       </c>
       <c r="FE6">
-        <v>0.8511283384471342</v>
+        <v>0.851673321789029</v>
       </c>
       <c r="FF6">
-        <v>0.8534131009006062</v>
+        <v>0.8539327293379965</v>
       </c>
       <c r="FG6">
-        <v>0.8535429379636449</v>
+        <v>0.8540230136855936</v>
       </c>
       <c r="FH6">
-        <v>0.8545035262861262</v>
+        <v>0.8549495227300757</v>
       </c>
       <c r="FI6">
-        <v>0.855369828506401</v>
+        <v>0.8557811244646476</v>
       </c>
       <c r="FJ6">
-        <v>0.8691266508283617</v>
+        <v>0.8695881760010693</v>
       </c>
       <c r="FK6">
-        <v>0.8714314276823021</v>
+        <v>0.8718677298161722</v>
       </c>
       <c r="FL6">
-        <v>0.8717070603887529</v>
+        <v>0.8721047703875291</v>
       </c>
       <c r="FM6">
-        <v>0.8717095729111117</v>
+        <v>0.8721047703875291</v>
       </c>
       <c r="FN6">
-        <v>0.8764963970231412</v>
+        <v>0.8768827245269868</v>
       </c>
       <c r="FO6">
-        <v>0.879041879582715</v>
+        <v>0.8794045699467594</v>
       </c>
       <c r="FP6">
-        <v>0.8810827161304781</v>
+        <v>0.8814184444745666</v>
       </c>
       <c r="FQ6">
-        <v>0.8876895185851018</v>
+        <v>0.8880283679557188</v>
       </c>
       <c r="FR6">
-        <v>0.890762243657015</v>
+        <v>0.8910809296459208</v>
       </c>
       <c r="FS6">
-        <v>0.8960801457814737</v>
+        <v>0.8963934608262412</v>
       </c>
       <c r="FT6">
-        <v>0.8961305723726538</v>
+        <v>0.8964038115029536</v>
       </c>
       <c r="FU6">
-        <v>0.8971072322955113</v>
+        <v>0.8973464980361848</v>
       </c>
       <c r="FV6">
-        <v>0.8971351362571643</v>
+        <v>0.8973464980361848</v>
       </c>
       <c r="FW6">
-        <v>0.8973078901212074</v>
+        <v>0.8974799819438226</v>
       </c>
       <c r="FX6">
-        <v>0.9070386543489434</v>
+        <v>0.9072344495434557</v>
       </c>
       <c r="FY6">
-        <v>0.9175878925958347</v>
+        <v>0.9178127837106044</v>
       </c>
       <c r="FZ6">
-        <v>0.9213401826836523</v>
+        <v>0.9215493877576239</v>
       </c>
       <c r="GA6">
-        <v>0.9239675440451423</v>
+        <v>0.9241536514410289</v>
       </c>
       <c r="GB6">
-        <v>0.9240852229078964</v>
+        <v>0.9242316974835593</v>
       </c>
       <c r="GC6">
-        <v>0.9241921576403991</v>
+        <v>0.9242989286077122</v>
       </c>
       <c r="GD6">
-        <v>0.9244724364069586</v>
+        <v>0.9245406458499281</v>
       </c>
       <c r="GE6">
-        <v>0.925556257032324</v>
+        <v>0.9255911991181828</v>
       </c>
       <c r="GF6">
-        <v>0.9267755985608611</v>
+        <v>0.9267781661744254</v>
       </c>
       <c r="GG6">
-        <v>0.9313422532677378</v>
+        <v>0.9313345003139197</v>
       </c>
       <c r="GH6">
-        <v>0.9372039084049223</v>
+        <v>0.937194367045139</v>
       </c>
       <c r="GI6">
-        <v>0.9446706855796726</v>
+        <v>0.9446699312237835</v>
       </c>
       <c r="GJ6">
-        <v>0.9503721382131077</v>
+        <v>0.9503685399507382</v>
       </c>
       <c r="GK6">
-        <v>0.9523127665585256</v>
+        <v>0.9522815460505062</v>
       </c>
       <c r="GL6">
-        <v>0.9530470389257103</v>
+        <v>0.952980248048093</v>
       </c>
       <c r="GM6">
-        <v>0.9530471498411289</v>
+        <v>0.952980248048093</v>
       </c>
       <c r="GN6">
-        <v>0.953332106747798</v>
+        <v>0.953226674252529</v>
       </c>
       <c r="GO6">
-        <v>0.9554858085982026</v>
+        <v>0.9553541577004762</v>
       </c>
       <c r="GP6">
-        <v>0.9560745980119825</v>
+        <v>0.955906418224481</v>
       </c>
       <c r="GQ6">
-        <v>0.9566921779864361</v>
+        <v>0.9564876589969042</v>
       </c>
       <c r="GR6">
-        <v>0.965690229197024</v>
+        <v>0.9655045860707733</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>130</v>
       </c>
       <c r="E2">
-        <v>0.001468330740408772</v>
+        <v>0.07086341403827928</v>
       </c>
       <c r="F2">
-        <v>0.5239090469637679</v>
+        <v>0.5238847704765054</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.009050955575362582</v>
+        <v>0.008735874126963356</v>
       </c>
       <c r="F3">
-        <v>0.5133010765752741</v>
+        <v>0.5132057204489122</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>125</v>
       </c>
       <c r="E4">
-        <v>0.01308383677244652</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="F4">
-        <v>0.5081836901200093</v>
+        <v>0.5077343766383261</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>126</v>
       </c>
       <c r="E5">
-        <v>0.008208463256187229</v>
+        <v>0.007729035655922564</v>
       </c>
       <c r="F5">
-        <v>0.5006593621624732</v>
+        <v>0.5004204924752915</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>125</v>
       </c>
       <c r="E6">
-        <v>0.006728400266909555</v>
+        <v>0.004452614357092035</v>
       </c>
       <c r="F6">
-        <v>0.5074963506668695</v>
+        <v>0.5071528169431336</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>146</v>
       </c>
       <c r="E2">
-        <v>0.001468330740408772</v>
+        <v>0.07086341403827928</v>
       </c>
       <c r="F2">
-        <v>0.7339293899231777</v>
+        <v>0.7339338472813647</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>145</v>
       </c>
       <c r="E3">
-        <v>0.009050955575362582</v>
+        <v>0.008735874126963356</v>
       </c>
       <c r="F3">
-        <v>0.702733729344744</v>
+        <v>0.7027277159144598</v>
       </c>
       <c r="G3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>145</v>
       </c>
       <c r="E4">
-        <v>0.01308383677244652</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="F4">
-        <v>0.7238363234393059</v>
+        <v>0.7239537428439522</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.008208463256187229</v>
+        <v>0.007729035655922564</v>
       </c>
       <c r="F5">
-        <v>0.7097296669904295</v>
+        <v>0.7097189631031263</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>145</v>
       </c>
       <c r="E6">
-        <v>0.006728400266909555</v>
+        <v>0.004452614357092035</v>
       </c>
       <c r="F6">
-        <v>0.7170111397682938</v>
+        <v>0.7172505542439035</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.001468330740408772</v>
+        <v>0.07086341403827928</v>
       </c>
       <c r="F2">
-        <v>0.8124977623773131</v>
+        <v>0.8125066300455438</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.009050955575362582</v>
+        <v>0.008735874126963356</v>
       </c>
       <c r="F3">
-        <v>0.800983981112497</v>
+        <v>0.8010277446725025</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>148</v>
       </c>
       <c r="E4">
-        <v>0.01308383677244652</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="F4">
-        <v>0.804426141061433</v>
+        <v>0.8048668811898806</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>157</v>
       </c>
       <c r="E5">
-        <v>0.008208463256187229</v>
+        <v>0.007729035655922564</v>
       </c>
       <c r="F5">
-        <v>0.8212529815491186</v>
+        <v>0.8213446372375092</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>149</v>
       </c>
       <c r="E6">
-        <v>0.006728400266909555</v>
+        <v>0.004452614357092035</v>
       </c>
       <c r="F6">
-        <v>0.8025271839696868</v>
+        <v>0.8031683916675341</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>181</v>
       </c>
       <c r="E2">
-        <v>0.001468330740408772</v>
+        <v>0.07086341403827928</v>
       </c>
       <c r="F2">
-        <v>0.9010228446427683</v>
+        <v>0.9010237898236518</v>
       </c>
       <c r="G2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>179</v>
       </c>
       <c r="E3">
-        <v>0.009050955575362582</v>
+        <v>0.008735874126963356</v>
       </c>
       <c r="F3">
-        <v>0.9064173917810702</v>
+        <v>0.9064286315654008</v>
       </c>
       <c r="G3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>174</v>
       </c>
       <c r="E4">
-        <v>0.01308383677244652</v>
+        <v>0.01110879783544753</v>
       </c>
       <c r="F4">
-        <v>0.9056686702692613</v>
+        <v>0.9058749684207187</v>
       </c>
       <c r="G4">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>179</v>
       </c>
       <c r="E5">
-        <v>0.008208463256187229</v>
+        <v>0.007729035655922564</v>
       </c>
       <c r="F5">
-        <v>0.9001541440272118</v>
+        <v>0.9001819137858248</v>
       </c>
       <c r="G5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>179</v>
       </c>
       <c r="E6">
-        <v>0.006728400266909555</v>
+        <v>0.004452614357092035</v>
       </c>
       <c r="F6">
-        <v>0.9070386543489434</v>
+        <v>0.9072344495434557</v>
       </c>
       <c r="G6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H6">
         <v>51</v>

--- a/on_trucks/Processed_Stand_Alone/51_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/51_455-55R22.xlsx
@@ -1994,13 +1994,13 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.091840228332953E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.278631243035469E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2012,88 +2012,88 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.901088899541224E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.968567341350124E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.951383919400635E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.459645349066245E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.809438263436532E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001107056675556938</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>7.059558153060062E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.421379369487698E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>7.277156745566771E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>6.089862094811346E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>6.089862094811346E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.201627500443421E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.201627500443421E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2.734976985210956E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>3.719041671484355E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>7.139880658954989E-07</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>2.580370460445037E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.955969569198917E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.292789341355262E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.484004905720221E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>4.846966788583302E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>9.145490984914404E-08</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.591747711450905E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.933215194618875E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.299301978211046E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.318858116273074E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -2102,79 +2102,79 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.618346099773592E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.697109052277999E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.734976985210956E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>7.710033119809579E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>5.135586849756298E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>5.936959877164923E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.697109052277999E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.484004905720221E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>9.075885866270912E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>4.194938559909231E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>2.102140828469101E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>4.002578548227847E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>4.140659622409259E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>6.571322389561918E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>3.346238614886272E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>3.766401516771145E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>4.263343608925274E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>2.29477511405887E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
         <v>0</v>
       </c>
       <c r="BF2">
-        <v>2.706087143607729E-06</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>1.273320095488429E-06</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>5.874729266850832E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>2.336639268798375E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.624164545525858E-06</v>
+        <v>0</v>
       </c>
       <c r="BK2">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="BO2">
-        <v>9.849601049143145E-07</v>
+        <v>0</v>
       </c>
       <c r="BP2">
         <v>0</v>
@@ -2198,16 +2198,16 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>5.966333211426462E-07</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>2.749733813689976E-06</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>4.901088899541224E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>8.597064196344596E-07</v>
+        <v>0</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -2216,40 +2216,40 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>3.233048330491623E-07</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>7.830849761216723E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>3.132035893649321E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>6.740851781495423E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
         <v>0</v>
       </c>
       <c r="CC2">
-        <v>1.423796767960146E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>2.091840228332953E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.789252922661389E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>1.919659108522058E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.201627500443421E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>3.333377118037245E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>1.871742043397836E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
         <v>0</v>
@@ -2261,337 +2261,337 @@
         <v>0</v>
       </c>
       <c r="CM2">
-        <v>4.86512983074196E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.06944067046762395</v>
+        <v>0.2042558516766369</v>
       </c>
       <c r="CO2">
-        <v>0.007777958079060218</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.07658531123572888</v>
+        <v>0.2412619850465309</v>
       </c>
       <c r="CQ2">
-        <v>0.01572399698042367</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.03526438607379483</v>
+        <v>0.02723755510790297</v>
       </c>
       <c r="CS2">
-        <v>0.007339800984360165</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0005147590857802416</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.02076474052080205</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.009207650610788451</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.02874438885347727</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.00305233936571311</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.02008325372800709</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.07395552247035671</v>
+        <v>0.2276408224234275</v>
       </c>
       <c r="DA2">
-        <v>0.003356668877334951</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.04218267710029349</v>
+        <v>0.06307129521157195</v>
       </c>
       <c r="DC2">
-        <v>0.0008109541019885897</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.0005707752380675036</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.002156567642525694</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.0001261986075555805</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.001458538195137528</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.007232914778874847</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>6.252112010558834E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.001402274985283543</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.002283594340934187</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.0002860708992944415</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.00181374946268427</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.006647096977849519</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0003437148108648368</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.002836677614508534</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.001261118894594533</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0001717201244946763</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>9.944624900589052E-05</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>3.254645762895321E-06</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.01050340953473372</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.007237854229813102</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.008552942057573697</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.0003062837090681187</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>3.117479011759727E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.01134082666075435</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.04092822280071191</v>
+        <v>0.05657376725691368</v>
       </c>
       <c r="EB2">
-        <v>0.009123480998481754</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.0001274044985394554</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.03160821515178298</v>
+        <v>0.008300179086548965</v>
       </c>
       <c r="EE2">
-        <v>0.008791113553759331</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>6.381675089967816E-06</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.000693893225709839</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>5.650174943593818E-06</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.001064234718740593</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.004313782293710457</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.008654261165873317</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.008589941178714883</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.03911195359300349</v>
+        <v>0.04716628230173699</v>
       </c>
       <c r="EN2">
-        <v>0.006315054308802866</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.02144909198109133</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.03237930082195416</v>
+        <v>0.01229406766347426</v>
       </c>
       <c r="EQ2">
-        <v>0.03781531746466138</v>
+        <v>0.04045027081073822</v>
       </c>
       <c r="ER2">
-        <v>0.02928357348853888</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.00527913102899227</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.003118676122797793</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.00464871993731325</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.005607722793946002</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.0009958033735973078</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.0005854076875650572</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>7.971590665163341E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.001264130796395815</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>4.373100983419818E-05</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.02766617061854665</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.0106211449681906</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.0001846291324142272</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.006550095675639093</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.0005945930878492116</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.001658334249486385</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.0007065937150426095</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.001331160514946999</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.01317417684849084</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0004498741469827951</v>
+        <v>0</v>
       </c>
       <c r="FL2">
         <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0003180742963852114</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.007822665896399697</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.001158404261124501</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.004641456644898201</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.00219759840307656</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.006433791275626386</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.005223141182834582</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0004578306209156185</v>
+        <v>0</v>
       </c>
       <c r="FU2">
         <v>0</v>
       </c>
       <c r="FV2">
-        <v>3.76792606200444E-06</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0009500742182765275</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.01170452440572969</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.007787359169602218</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.004547869138134036</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0004291810653012727</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0001076263000342677</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>1.270454737833302E-05</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.0002480511103281083</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>9.864581749786472E-05</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0009084851276295278</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0061339094003454</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.006928040940419765</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.007660499810185277</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.008466481911551228</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.001913832683010434</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0006585328864201475</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>1.506905233009608E-05</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0002686505601925419</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.002355228332323993</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0001915277398542662</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001754296709636897</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0169676037524299</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.04385784242947882</v>
+        <v>0.07174792341451765</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2770,46 +2770,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.540730091970526E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.474078227123903E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.4936617077939E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.139580496798291E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002890464868624962</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0005476086978999688</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.000458599196330358</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.722008242095279E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.427592201386943E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.895238562977682E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0002220487983869654</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.934510236217141E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.836601897855053E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2821,22 +2821,22 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4.787444445523059E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.687888084303722E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>3.669622558541265E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>6.285845866635066E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1.137322480487084E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2848,106 +2848,106 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.368443535528856E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0001378129919863425</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0001099492494042265</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0001074211860009014</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.584327703556867E-06</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.634968391556108E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.922810712019655E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.066697857363707E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.603840952645594E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0001684273304828899</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.268734959061655E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>9.299779258561584E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>3.646377193743839E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0001498296875368315</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0003339596726272093</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0002676104059579327</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0001691895856501212</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>7.075514417084048E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0001927163312233397</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0001700448671133152</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>3.172941703355753E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>5.133380166363647E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0002329081247155362</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0003372752919482975</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0003967882317713233</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0003658108755440431</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.000297743349636211</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>5.112540474590491E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>2.540730091970526E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0001112657191131722</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0003395480959994406</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>7.765159032422923E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -2956,67 +2956,67 @@
         <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0001173879352781227</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.458696211490007E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.671391099426354E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>9.865632345684876E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>7.232208930841028E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>2.145520458894494E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0001024498427298746</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0001633510571529721</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>2.145520458894494E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0001080345190289259</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>5.20439520969203E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0002690380268280364</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0002835195639301456</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>6.926370095653514E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0001190631842415947</v>
+        <v>0</v>
       </c>
       <c r="CB3">
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0003567192389947227</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0003416836875150646</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0001493791280082732</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>7.025383802219837E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>3.162323995191479E-06</v>
+        <v>0</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -3028,295 +3028,295 @@
         <v>0</v>
       </c>
       <c r="CK3">
-        <v>3.172941703355753E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>1.044292881815555E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.03637898517316703</v>
+        <v>0.03600084313345002</v>
       </c>
       <c r="CO3">
-        <v>0.05191649933993037</v>
+        <v>0.1239681035912216</v>
       </c>
       <c r="CP3">
-        <v>0.1201700918511796</v>
+        <v>0.5103929515542973</v>
       </c>
       <c r="CQ3">
-        <v>0.01345032912594177</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.01471717413495182</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.006703668619970135</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.0006249454259884253</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.002081173358311335</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.0005859899764896847</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.02099673534719745</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.005825847871072811</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.00675275177575576</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.05706599272162486</v>
+        <v>0.1531224986039118</v>
       </c>
       <c r="DA3">
-        <v>0.006211558213259861</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.03153257236445808</v>
+        <v>0.008562370463121371</v>
       </c>
       <c r="DC3">
-        <v>0.01802027618994423</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.001088424250369132</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.001048305546822005</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.0002261912958761489</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0004415532159878259</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.0118749610802835</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.005085810125566539</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.004670153022399843</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0130984004899831</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.001080579516473003</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.002460525085449756</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.01078021722085669</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>7.308118588510837E-05</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0001203440647618967</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.0009557730858803682</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.00263629784632261</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001193961707420701</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0003072077919439622</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.006522035852985163</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.008187916132686289</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.00675275177575576</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.0004754913505116263</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>8.282056968744491E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>6.080330612313563E-05</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.03221164931267408</v>
+        <v>0.01240703558351556</v>
       </c>
       <c r="EB3">
-        <v>0.02115148426526479</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.000197699338060296</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.03244745571042215</v>
+        <v>0.01374207815117968</v>
       </c>
       <c r="EE3">
-        <v>0.02168821146465157</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>1.741491892928355E-05</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.002047086701976659</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.001017679228500146</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.001141199334107175</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.003407084610784254</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.008475991398997592</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.004299545366753593</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.0261351156144178</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.02089351469028062</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.01202144922323651</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0345810635991651</v>
+        <v>0.02582172222096879</v>
       </c>
       <c r="EQ3">
-        <v>0.03645867553159669</v>
+        <v>0.03645201842704693</v>
       </c>
       <c r="ER3">
-        <v>0.03996861422464982</v>
+        <v>0.05632390320145245</v>
       </c>
       <c r="ES3">
-        <v>0.009414744321709507</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.001139970626376636</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.006932144205317249</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0009230294009901636</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.003462850447402615</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.0001042445256476771</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.0005435540724794839</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.005778091203212619</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>3.614386256223E-05</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.01338193002809362</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.01466393947428956</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.0003880404772585046</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.005066831960533465</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.001348003345408896</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.002813532506178927</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002409292166525583</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.0003461203062291815</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.01144782276074213</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.001486753141719798</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.0001790995233330409</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>7.070118591671963E-07</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.009388921142705398</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.007474549761835859</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.0009049012330863127</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.006762206830364145</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.004737356940015192</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.004666194375696763</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.000433376169543967</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0004826190563337415</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.00199746910786888</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>3.4020682225694E-06</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.008555783841151719</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.01285464156993573</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.004241612552878442</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0008406997779549702</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0002402889481332614</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0003927640012793848</v>
+        <v>0</v>
       </c>
       <c r="GD3">
         <v>0</v>
@@ -3325,46 +3325,46 @@
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.001215755581771275</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.005280368493545158</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.003394877298898864</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.004896413591090424</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.008544431530499689</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.00391620917173473</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0009604664051286594</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>4.634968391556108E-05</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>4.198273233928145E-05</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.001858785165568461</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.001232419748967925</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0004106187449330255</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.009083546688382077</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.03411913674764237</v>
+        <v>0.02320647506983436</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3549,40 +3549,40 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.260672080817386E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>8.1558029264176E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0004491606145747367</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.00105912545327214</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0009631899222500615</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001593416510697075</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.386778701167589E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0002135655157410455</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.00046377005268212</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001238906871669713</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>5.026166016077654E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>8.933266057050203E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1.249980261158857E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>5.780035789596157E-06</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -3609,16 +3609,16 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>9.266759878552741E-07</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.515562623423542E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>1.749547837967212E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>6.575036340790946E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>2.918214137583122E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>8.734108231789656E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>1.277958099049086E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.000123631556242069</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -3645,43 +3645,43 @@
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>3.349846937189687E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.000403049511788251</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0001543768947207643</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0001876357589472875</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.724544577063207E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0002473351639875647</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0001104492478824869</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>3.065318226698058E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.000104946751143189</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0001882724398707559</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>5.602172290817403E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -3690,43 +3690,43 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0002610117528771618</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0006710196134566035</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0005754211275216278</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0007071529494310745</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0005504261798607267</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0001500564177352564</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>8.564347725472942E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0004699756463386709</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0002142392340339292</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>8.980317084850423E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>3.640789796403099E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0001477789461687277</v>
+        <v>0</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -3738,55 +3738,55 @@
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>9.790902478654538E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>1.27727042013039E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>4.644538690604993E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>3.727173404929242E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>7.976610404203902E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0001012586533188402</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0001150337505551509</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0001529367893301098</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0001540930588151231</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0001646644688258202</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0001848167075670346</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>6.367590486983987E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.000399497793900292</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001346557769900518</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>2.80465183397332E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>2.346141563153212E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
@@ -3810,313 +3810,313 @@
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.006188486626302665</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1038746580133643</v>
+        <v>0.3564799242215281</v>
       </c>
       <c r="CP4">
-        <v>0.05938665235973023</v>
+        <v>0.1414442665446689</v>
       </c>
       <c r="CQ4">
-        <v>0.03202945424192916</v>
+        <v>0.009211476986547886</v>
       </c>
       <c r="CR4">
-        <v>0.02198832789855569</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.01578252216914329</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.004464558094581992</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.02586174524115493</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.00701969163326188</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.01650671983357418</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01231926580171932</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.004254712802186016</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.07509527717441784</v>
+        <v>0.2173729223384233</v>
       </c>
       <c r="DA4">
-        <v>0.001557964243199545</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.06378045027057992</v>
+        <v>0.1626819734181753</v>
       </c>
       <c r="DC4">
-        <v>0.002550220898985392</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.005574806060003839</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.002806331242983952</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>7.842734535715439E-05</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.0007007783608411861</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.004423039354230146</v>
+        <v>0</v>
       </c>
       <c r="DI4">
         <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.001882613721800967</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.003354941020796019</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0002142392340339292</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>9.355825756488905E-05</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.004038902533399109</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.001268115016595653</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.002001377539500268</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.003653885258413181</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.000900808870952266</v>
+        <v>0</v>
       </c>
       <c r="DS4">
         <v>0</v>
       </c>
       <c r="DT4">
-        <v>1.041200358493688E-06</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.002685698269357878</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.01028630821400322</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01308732988323151</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0008411100790136263</v>
+        <v>0</v>
       </c>
       <c r="DY4">
         <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0005376170795340153</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.03703680909366551</v>
+        <v>0.03341485108579979</v>
       </c>
       <c r="EB4">
-        <v>0.01193450984874283</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.000295125572260964</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.01876469175277517</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.01676927307171556</v>
+        <v>0</v>
       </c>
       <c r="EF4">
         <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0009591349082227618</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0006144462528525956</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.001614745696529842</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.002103940699224148</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.007142472774314042</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.008137414111713056</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.03109353951595541</v>
+        <v>0.004687672521224948</v>
       </c>
       <c r="EN4">
-        <v>0.02022109559614175</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.01237399366608925</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.03269211660364411</v>
+        <v>0.01241449844537648</v>
       </c>
       <c r="EQ4">
-        <v>0.03817469960073777</v>
+        <v>0.03891491857494677</v>
       </c>
       <c r="ER4">
-        <v>0.03283555524954276</v>
+        <v>0.01310781843362757</v>
       </c>
       <c r="ES4">
-        <v>0.009902883495647913</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.003097263448300056</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.004828979476410596</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.001539258914272077</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.004047125633477026</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0002322428832135029</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0007471865465490225</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.002722629602342416</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.0003459153441011319</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.01449622689290831</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.0195354760958972</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0005535320522480362</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.002090122091873265</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.0004219457263927704</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0004012718185647822</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0017956293741785</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.001138900529704864</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.01747002613156081</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.001149899472573857</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.000329117173351119</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0003785041384920571</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.006195240393128255</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.003192559845992115</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.001182460295458925</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.004323614872856608</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.002478966427687487</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.006313992049303271</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.0002650345840939141</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>9.498805078701711E-05</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0004079570687696658</v>
+        <v>0</v>
       </c>
       <c r="FW4">
         <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.005786702529157009</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.008574515375892612</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.004467456557700576</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.003300370552682541</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>7.931595677908032E-05</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>8.817669261088422E-05</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>2.341795979153106E-06</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0001096873233605696</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0002716771684553329</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.003555813118438511</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.005783405750990955</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.006869527965958694</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.007893537356569639</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.003536612986337009</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.001198907098665549</v>
+        <v>0</v>
       </c>
       <c r="GM4">
         <v>0</v>
@@ -4125,19 +4125,19 @@
         <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0006835342641837516</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0001106969208423597</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0003307390382501877</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.008465651642012595</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.03224838178076332</v>
+        <v>0.01026967742968093</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,49 +4313,49 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.071269256000138E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.177293447358306E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001931786847704859</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001143762589226788</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6.69486328625165E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9.912245337061489E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001534660888085417</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001823284494641929</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.189653569225525E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0001575648648344585</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001033894171228199</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>8.417202406460519E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0005378505567452105</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001845009556828401</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001169997810198409</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -4364,10 +4364,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>4.909914159223897E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.966497090412668E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>2.390129522106363E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -4388,58 +4388,58 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>4.655088434185096E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>3.537251887515465E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>1.818052852749586E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>9.040282641401371E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001504922520251946</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001625497091385136</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.000313343386317898</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0001823284494641929</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0001116952161922223</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.30242017650818E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0002522693507652513</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0003563429156950092</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>4.53252378943415E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>9.831418325215949E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0001223278250885412</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>4.248910991634806E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -4448,46 +4448,46 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0001135802595386257</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>5.454944907394159E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>8.891362824114252E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.000149417548137103</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>4.83384562694627E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>7.177293447358306E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>7.826560702182603E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0002400541728771206</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0003021491595866759</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0001250323971651605</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>1.107971758059661E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>6.276307984635373E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0001116952161922223</v>
+        <v>0</v>
       </c>
       <c r="BI5">
         <v>0</v>
@@ -4499,55 +4499,55 @@
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>2.725485436489283E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>5.386324996497651E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0003008925341695208</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.826897920552961E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>5.870673079905039E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>3.629909811359882E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>3.21474241491854E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>3.580846314522456E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001782294128918535</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0001091266393271774</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>5.454944907394159E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0001846904029951098</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0001545541707533315</v>
+        <v>0</v>
       </c>
       <c r="BY5">
         <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0001426136188156241</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0001016639484392352</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>4.186868274546028E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>6.478240581265367E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
         <v>0</v>
@@ -4571,271 +4571,271 @@
         <v>0</v>
       </c>
       <c r="CJ5">
-        <v>7.980343217606666E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0001332165711602959</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0002081549131828399</v>
+        <v>0</v>
       </c>
       <c r="CM5">
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.08454614995507088</v>
+        <v>0.2613400365467622</v>
       </c>
       <c r="CO5">
-        <v>0.002014585491491941</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.07432655724363428</v>
+        <v>0.2123300622025885</v>
       </c>
       <c r="CQ5">
-        <v>0.02437787798590695</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.03334926193173963</v>
+        <v>0.01581575398733752</v>
       </c>
       <c r="CS5">
-        <v>0.00518954787903017</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.001401326453740356</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0159154614555824</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.008265634101718444</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.0351826088594951</v>
+        <v>0.02460791316925019</v>
       </c>
       <c r="CX5">
-        <v>0.004178310794647117</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.02098869112299219</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.07623794584176766</v>
+        <v>0.2214964848577135</v>
       </c>
       <c r="DA5">
-        <v>0.004526344998163299</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.0507980378145859</v>
+        <v>0.09949463263761188</v>
       </c>
       <c r="DC5">
-        <v>0.001505359233133963</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.000673997516568684</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.001066475498366444</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>3.479439241807555E-05</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.002952327941622038</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.005987650273554244</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>6.826591549105318E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0001967145402293865</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.004626022042632221</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.0002116150498429301</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.003136890609729271</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.006332930200753191</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>6.833394817039723E-05</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.002519558429711344</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.002042610165335925</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0007174729640496998</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>9.987115856846029E-05</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>8.12238661354073E-05</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.008544097099265185</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.004968883096927931</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.005558020947296704</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.0004055792049156918</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0008278636373313483</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.007263603625597842</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.03242174973668228</v>
+        <v>0.01136769522734422</v>
       </c>
       <c r="EB5">
-        <v>0.00635820340416449</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.000474703653938524</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.03184073522271897</v>
+        <v>0.008581331110204017</v>
       </c>
       <c r="EE5">
-        <v>0.00600016091108559</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.0001465762793777716</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.001170161049546872</v>
+        <v>0</v>
       </c>
       <c r="EH5">
         <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.002555449601314216</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.005512379326879314</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.006241759596141097</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.007371497903394518</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.03882430729416528</v>
+        <v>0.04207236130255679</v>
       </c>
       <c r="EN5">
-        <v>0.00470550944502501</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.02085526229368032</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.03632296844187546</v>
+        <v>0.03007672151158749</v>
       </c>
       <c r="EQ5">
-        <v>0.0358812320244111</v>
+        <v>0.02795829163887954</v>
       </c>
       <c r="ER5">
-        <v>0.02768059349957146</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.005339974356110982</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.004514964130004359</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.004902532946212809</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.005217993936607607</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.001560168480060577</v>
+        <v>0</v>
       </c>
       <c r="EX5">
         <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.001276815326792358</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.002787452962886806</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0004086063535055068</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.02205534011821933</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.009229704968271317</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.0001314413381099969</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.004484645545329818</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.0002767202295827995</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.001973286378257781</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.00110992492126825</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.003393288532008066</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.01490876118588774</v>
+        <v>0</v>
       </c>
       <c r="FK5">
         <v>0</v>
       </c>
       <c r="FL5">
-        <v>4.567243504237003E-06</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.0006520419910504173</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0107677696248004</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.001634760114962788</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.005797675254568571</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.002774454702704572</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.00486999630980075</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.003089639113050778</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.0009241587291089881</v>
+        <v>0</v>
       </c>
       <c r="FU5">
         <v>0</v>
@@ -4844,73 +4844,73 @@
         <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0008432408867721292</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.01197119947927616</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.005100985845158988</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.003185263758757003</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0003260374184676955</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>5.113644425959584E-07</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>2.867075982698857E-05</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0001800861568883573</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0004148505990482192</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.002017782997358063</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.006701713820313417</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.007891219873545779</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.007767719165666607</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.005862280445723496</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.00178139113213764</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0003777256098611851</v>
+        <v>0</v>
       </c>
       <c r="GM5">
         <v>0</v>
       </c>
       <c r="GN5">
-        <v>2.725485436489283E-05</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.001691280350204501</v>
+        <v>0</v>
       </c>
       <c r="GP5">
         <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001817941285769332</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.01524005097271569</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.03940531980392534</v>
+        <v>0.04485871580816422</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5098,16 +5098,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.03506767123996E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.135010843072011E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.770310207548477E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5122,25 +5122,25 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.512085878244902E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>4.847283292126173E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0001837424316896327</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0001647553932069534</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0001937035314502588</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001523794572860251</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>3.21872164286573E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0001912748949607577</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -5158,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001064885512067585</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>5.674505322616646E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -5170,19 +5170,19 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>3.889886007584686E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0002226172846282519</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>6.272742547263714E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0001471543265166735</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>3.527790634781694E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -5194,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>9.697947010623479E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>6.723527129787809E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -5206,13 +5206,13 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>8.799828733145832E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>5.991153926412027E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -5230,16 +5230,16 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0002107866277977883</v>
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0001031241799232038</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0001846449993905354</v>
+        <v>0</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -5248,25 +5248,25 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>7.652726144301885E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>2.734330087988638E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>5.208091942769076E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
         <v>0</v>
       </c>
       <c r="BI6">
-        <v>5.674505322616646E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0002317577731287751</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -5293,19 +5293,19 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>2.250832383755493E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0001562755086485582</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0003270629069708468</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0002155500263274046</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>1.469960233531356E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
         <v>0</v>
@@ -5314,13 +5314,13 @@
         <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0001562810851491972</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0002887494284738146</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>2.362367429479092E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -5335,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>7.352764765703976E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0003243917832965183</v>
+        <v>0</v>
       </c>
       <c r="CI6">
         <v>0</v>
@@ -5356,97 +5356,97 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.005003401793090672</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1069149615864498</v>
+        <v>0.3902275628166262</v>
       </c>
       <c r="CP6">
-        <v>0.06558533507970263</v>
+        <v>0.1801124007454619</v>
       </c>
       <c r="CQ6">
-        <v>0.03432891411502031</v>
+        <v>0.02120828009761117</v>
       </c>
       <c r="CR6">
-        <v>0.02601565116804766</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0145465000508068</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.007331038192768461</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.02239731759004724</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.003563398541124006</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.008837521787696406</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.01894483558321864</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.002802710303447504</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.06514152615592013</v>
+        <v>0.1778561262075354</v>
       </c>
       <c r="DA6">
-        <v>0.009899076125771242</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.05311713827085515</v>
+        <v>0.1167254937092109</v>
       </c>
       <c r="DC6">
-        <v>0.004665137404516788</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.00877562263060307</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.002728783721591409</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>1.739959496962904E-05</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.0001267188876189172</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.004532029052052041</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>9.280419107632452E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.001624806406552221</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.002485633698195135</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0003456417435935714</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0004848681514101383</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.009323177617808629</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.002805922126234336</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.001081731342405163</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.003129561688917487</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001210131074889892</v>
+        <v>0</v>
       </c>
       <c r="DS6">
         <v>0</v>
@@ -5455,235 +5455,235 @@
         <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.004818181444789531</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.01002272546485059</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.008504361105113515</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0008018150174626216</v>
+        <v>0</v>
       </c>
       <c r="DY6">
         <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0002117420615300199</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.03620612729746812</v>
+        <v>0.03075182029891826</v>
       </c>
       <c r="EB6">
-        <v>0.0172243965562815</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.001473015166404992</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.01544378869799082</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.02419127985880328</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>9.627444541082153E-05</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0003743771695417429</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0002403789625896446</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.003352266892010597</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.004025024887742501</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.006997560837423651</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.00441543589879935</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.02323544852408926</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0240332192831091</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.007399685116952747</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.03187153952204557</v>
+        <v>0.008715264686785799</v>
       </c>
       <c r="EQ6">
-        <v>0.03573685973575016</v>
+        <v>0.02836611691568024</v>
       </c>
       <c r="ER6">
-        <v>0.03487454148512772</v>
+        <v>0.02398218813865928</v>
       </c>
       <c r="ES6">
-        <v>0.0117430376616288</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.003563398541124006</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.005653375354722424</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.0008064514147132437</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.00526010603478207</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.0001203306940944432</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.0001031193986275296</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.001783016058012584</v>
+        <v>0</v>
       </c>
       <c r="FA6">
         <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.009863320086836233</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.02068095122043601</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.001356628061831147</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.002877631797439272</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.002259407548967495</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>9.028434759712978E-05</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0009265090444820809</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0008316017345718795</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.01380705153642166</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.002279553815102872</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.0002370405713569011</v>
+        <v>0</v>
       </c>
       <c r="FM6">
         <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.00477795413945766</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.002521845419772616</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.002013874527807167</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.006609923481152159</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.003052561690201974</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.005312531180320417</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>1.03506767123996E-05</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0009426865332312477</v>
+        <v>0</v>
       </c>
       <c r="FV6">
         <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0001334839076378371</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.009754467599633037</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.01057833416714874</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.003736604047019427</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.002604263683405065</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>7.804604253042099E-05</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>6.723112415299853E-05</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0002417172422159291</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.001050553268254694</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.001186967056242631</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.004556334139494324</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.005859866731219243</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0074755641786445</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.005698608726954679</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.001913006099768002</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0006987019975868158</v>
+        <v>0</v>
       </c>
       <c r="GM6">
         <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.000246426204436058</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.002127483447947122</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.00055226052400481</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0005812407724232752</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.009016927073869075</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.03449541392922672</v>
+        <v>0.02205474638351112</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.091840228332953E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.091840228332953E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.370471471368422E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.370471471368422E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.370471471368422E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3.370471471368422E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.860580361322544E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.557437095457557E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.508821014858192E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0001296846636392444</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001877790462736097</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002984847138293035</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0003690802953599041</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0003785016747293918</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0003785016747293918</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0003857788314749586</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0003857788314749586</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0003918686935697699</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0003979585556645813</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0004099748306690155</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0004219911056734497</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0004493408755255593</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0004530599171970436</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0004537739052629391</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0004795776098673895</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0004991373055593787</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0005014300949007339</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0005049140998064542</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0005097610665950375</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0005098525215048867</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0005357699986193957</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0005417032138140146</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0005746962335961251</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0005878848147588558</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0005878848147588558</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0005878848147588558</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0006040682757565916</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0006210393662793716</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0006483891361314812</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.000725489467329577</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0007768453358271399</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0008362149345987891</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0008531860251215691</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0008566700300272894</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0008566700300272894</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0008657459158935603</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0008699408544534696</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0008909622627381606</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.000930988048220439</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0009723946444445316</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.001038107868340151</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.001071570254489014</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.001109234269656725</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.001151867705745978</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.001174815456886566</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.001174815456886566</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001177521544030174</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.001178794864125663</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.001184669593392513</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001208035986080497</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.001209660150626023</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.001209660150626023</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.001209660150626023</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.001209660150626023</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.001209660150626023</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.001210645110730937</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001210645110730937</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001210645110730937</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.00121124174405208</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.00121399147786577</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.001218892566765311</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.001219752273184946</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.001219752273184946</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.001219752273184946</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.001220075578017995</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.001227906427779212</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.001231038463672861</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.001237779315454356</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.001237779315454356</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.001252017283133958</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.001272935685417287</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.001290828214643901</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.001310024805729122</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.001322041080733556</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.001355374851913929</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001374092272347907</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.001374092272347907</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.001374092272347907</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001374092272347907</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001422743570655327</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.07086341403827928</v>
+        <v>0.2042558516766369</v>
       </c>
       <c r="CO2">
-        <v>0.0786413721173395</v>
+        <v>0.2042558516766369</v>
       </c>
       <c r="CP2">
-        <v>0.1552266833530684</v>
+        <v>0.4455178367231678</v>
       </c>
       <c r="CQ2">
-        <v>0.1709506803334921</v>
+        <v>0.4455178367231678</v>
       </c>
       <c r="CR2">
-        <v>0.2062150664072869</v>
+        <v>0.4727553918310708</v>
       </c>
       <c r="CS2">
-        <v>0.213554867391647</v>
+        <v>0.4727553918310708</v>
       </c>
       <c r="CT2">
-        <v>0.2140696264774273</v>
+        <v>0.4727553918310708</v>
       </c>
       <c r="CU2">
-        <v>0.2348343669982293</v>
+        <v>0.4727553918310708</v>
       </c>
       <c r="CV2">
-        <v>0.2440420176090178</v>
+        <v>0.4727553918310708</v>
       </c>
       <c r="CW2">
-        <v>0.272786406462495</v>
+        <v>0.4727553918310708</v>
       </c>
       <c r="CX2">
-        <v>0.2758387458282081</v>
+        <v>0.4727553918310708</v>
       </c>
       <c r="CY2">
-        <v>0.2959219995562152</v>
+        <v>0.4727553918310708</v>
       </c>
       <c r="CZ2">
-        <v>0.3698775220265719</v>
+        <v>0.7003962142544984</v>
       </c>
       <c r="DA2">
-        <v>0.3732341909039068</v>
+        <v>0.7003962142544984</v>
       </c>
       <c r="DB2">
-        <v>0.4154168680042003</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DC2">
-        <v>0.4162278221061889</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DD2">
-        <v>0.4167985973442564</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DE2">
-        <v>0.4189551649867821</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DF2">
-        <v>0.4190813635943377</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DG2">
-        <v>0.4205399017894752</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DH2">
-        <v>0.42777281656835</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DI2">
-        <v>0.4278353376884556</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DJ2">
-        <v>0.4292376126737392</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DK2">
-        <v>0.4315212070146733</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DL2">
-        <v>0.4318072779139678</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DM2">
-        <v>0.433621027376652</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DN2">
-        <v>0.4402681243545016</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DO2">
-        <v>0.4406118391653664</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DP2">
-        <v>0.4434485167798749</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DQ2">
-        <v>0.4447096356744694</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DR2">
-        <v>0.4448813557989641</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DS2">
-        <v>0.44498080204797</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DT2">
-        <v>0.4449840566937329</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DU2">
-        <v>0.4554874662284666</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DV2">
-        <v>0.4627253204582797</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DW2">
-        <v>0.4712782625158534</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DX2">
-        <v>0.4715845462249215</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DY2">
-        <v>0.4716157210150391</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="DZ2">
-        <v>0.4829565476757934</v>
+        <v>0.7634675094660703</v>
       </c>
       <c r="EA2">
-        <v>0.5238847704765054</v>
+        <v>0.820041276722984</v>
       </c>
       <c r="EB2">
-        <v>0.5330082514749871</v>
+        <v>0.820041276722984</v>
       </c>
       <c r="EC2">
-        <v>0.5331356559735265</v>
+        <v>0.820041276722984</v>
       </c>
       <c r="ED2">
-        <v>0.5647438711253095</v>
+        <v>0.828341455809533</v>
       </c>
       <c r="EE2">
-        <v>0.5735349846790688</v>
+        <v>0.828341455809533</v>
       </c>
       <c r="EF2">
-        <v>0.5735413663541588</v>
+        <v>0.828341455809533</v>
       </c>
       <c r="EG2">
-        <v>0.5742352595798685</v>
+        <v>0.828341455809533</v>
       </c>
       <c r="EH2">
-        <v>0.5742409097548121</v>
+        <v>0.828341455809533</v>
       </c>
       <c r="EI2">
-        <v>0.5753051444735527</v>
+        <v>0.828341455809533</v>
       </c>
       <c r="EJ2">
-        <v>0.5796189267672632</v>
+        <v>0.828341455809533</v>
       </c>
       <c r="EK2">
-        <v>0.5882731879331365</v>
+        <v>0.828341455809533</v>
       </c>
       <c r="EL2">
-        <v>0.5968631291118515</v>
+        <v>0.828341455809533</v>
       </c>
       <c r="EM2">
-        <v>0.6359750827048549</v>
+        <v>0.87550773811127</v>
       </c>
       <c r="EN2">
-        <v>0.6422901370136578</v>
+        <v>0.87550773811127</v>
       </c>
       <c r="EO2">
-        <v>0.6637392289947491</v>
+        <v>0.87550773811127</v>
       </c>
       <c r="EP2">
-        <v>0.6961185298167033</v>
+        <v>0.8878018057747443</v>
       </c>
       <c r="EQ2">
-        <v>0.7339338472813647</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="ER2">
-        <v>0.7632174207699036</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="ES2">
-        <v>0.7684965517988959</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="ET2">
-        <v>0.7716152279216937</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="EU2">
-        <v>0.776263947859007</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="EV2">
-        <v>0.7818716706529529</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="EW2">
-        <v>0.7828674740265502</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="EX2">
-        <v>0.7834528817141153</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="EY2">
-        <v>0.783532597620767</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="EZ2">
-        <v>0.7847967284171629</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FA2">
-        <v>0.7848404594269971</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FB2">
-        <v>0.8125066300455438</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FC2">
-        <v>0.8231277750137344</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FD2">
-        <v>0.8233124041461486</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FE2">
-        <v>0.8298624998217877</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FF2">
-        <v>0.830457092909637</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FG2">
-        <v>0.8321154271591233</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FH2">
-        <v>0.8328220208741659</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FI2">
-        <v>0.8341531813891129</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FJ2">
-        <v>0.8473273582376037</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FK2">
-        <v>0.8477772323845866</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FL2">
-        <v>0.8477772323845866</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FM2">
-        <v>0.8480953066809718</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FN2">
-        <v>0.8559179725773715</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FO2">
-        <v>0.8570763768384959</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FP2">
-        <v>0.8617178334833941</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FQ2">
-        <v>0.8639154318864707</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FR2">
-        <v>0.8703492231620971</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FS2">
-        <v>0.8755723643449317</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FT2">
-        <v>0.8760301949658473</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FU2">
-        <v>0.8760301949658473</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FV2">
-        <v>0.8760339628919094</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FW2">
-        <v>0.8769840371101859</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FX2">
-        <v>0.8886885615159156</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FY2">
-        <v>0.8964759206855178</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="FZ2">
-        <v>0.9010237898236518</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GA2">
-        <v>0.9014529708889532</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GB2">
-        <v>0.9015605971889874</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GC2">
-        <v>0.9015733017363657</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GD2">
-        <v>0.9018213528466938</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GE2">
-        <v>0.9019199986641917</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GF2">
-        <v>0.9028284837918212</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GG2">
-        <v>0.9089623931921667</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GH2">
-        <v>0.9158904341325864</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GI2">
-        <v>0.9235509339427717</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GJ2">
-        <v>0.9320174158543229</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GK2">
-        <v>0.9339312485373333</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GL2">
-        <v>0.9345897814237535</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GM2">
-        <v>0.9346048504760835</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GN2">
-        <v>0.9348735010362761</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GO2">
-        <v>0.9372287293686001</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GP2">
-        <v>0.9374202571084544</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GQ2">
-        <v>0.9391745538180913</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GR2">
-        <v>0.9561421575705212</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7421,769 +7421,769 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.540730091970526E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.540730091970526E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5.014808319094429E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001150847002688833</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001564805052368662</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0004455269920993624</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0009931356899993311</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001451734886329689</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001459456894571785</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001483732816585654</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001552685202215431</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001774734000602396</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001874079102964567</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001892445121943118</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001892445121943118</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001892445121943118</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001892445121943118</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001897232566388641</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001924111447231678</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001960807672817091</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001960807672817091</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001967093518683726</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001978466743488597</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001978466743488597</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001978466743488597</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.001978466743488597</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.001992151178843885</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002129964170830228</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002239913420234454</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002347334606235356</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002350918933938913</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002397268617854474</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00243649672497467</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002447163703548307</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.002447163703548307</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.002473202113074763</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.002641629443557653</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.00265431679314827</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.002663616572406831</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.00270008034434427</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.002849910031881101</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.00318386970450831</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.003451480110466243</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.003620669696116364</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.003691424840287205</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.003884141171510544</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.00405418603862386</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.004085915455657417</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.004086428793674053</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.004086428793674053</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.004319336918389589</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.004656612210337887</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.00505340044210921</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.005419211317653253</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.005716954667289464</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.005768080072035369</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.005793487372955075</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.005904753092068247</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.006244301188067687</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.006321952778391917</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.006321952778391917</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.006321952778391917</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.006439340713670039</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.006463927675784939</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.006480641586779202</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.006490507219124887</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.006562829308433297</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.006584284513022242</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.006686734355752117</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.006850085412905089</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.006871540617494034</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.00697957513652296</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.00703161908861988</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.007300657115447916</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.007584176679378062</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.007653440380334597</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.007772503564576192</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.007772503564576192</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.008129222803570915</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.008470906491085979</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.008620285619094253</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.008690539457116451</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.008693701781111642</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.008693701781111642</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.008693701781111642</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.008693701781111642</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0087254311981452</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0087254311981452</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.008735874126963356</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.04511485930013039</v>
+        <v>0.03600084313345002</v>
       </c>
       <c r="CO3">
-        <v>0.09703135864006077</v>
+        <v>0.1599689467246716</v>
       </c>
       <c r="CP3">
-        <v>0.2172014504912403</v>
+        <v>0.670361898278969</v>
       </c>
       <c r="CQ3">
-        <v>0.2306517796171821</v>
+        <v>0.670361898278969</v>
       </c>
       <c r="CR3">
-        <v>0.2453689537521339</v>
+        <v>0.670361898278969</v>
       </c>
       <c r="CS3">
-        <v>0.252072622372104</v>
+        <v>0.670361898278969</v>
       </c>
       <c r="CT3">
-        <v>0.2526975677980924</v>
+        <v>0.670361898278969</v>
       </c>
       <c r="CU3">
-        <v>0.2547787411564038</v>
+        <v>0.670361898278969</v>
       </c>
       <c r="CV3">
-        <v>0.2553647311328934</v>
+        <v>0.670361898278969</v>
       </c>
       <c r="CW3">
-        <v>0.2763614664800909</v>
+        <v>0.670361898278969</v>
       </c>
       <c r="CX3">
-        <v>0.2821873143511637</v>
+        <v>0.670361898278969</v>
       </c>
       <c r="CY3">
-        <v>0.2889400661269194</v>
+        <v>0.670361898278969</v>
       </c>
       <c r="CZ3">
-        <v>0.3460060588485443</v>
+        <v>0.8234843968828808</v>
       </c>
       <c r="DA3">
-        <v>0.3522176170618042</v>
+        <v>0.8234843968828808</v>
       </c>
       <c r="DB3">
-        <v>0.3837501894262623</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DC3">
-        <v>0.4017704656162065</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DD3">
-        <v>0.4028588898665756</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DE3">
-        <v>0.4039071954133976</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DF3">
-        <v>0.4041333867092738</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DG3">
-        <v>0.4045749399252616</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DH3">
-        <v>0.4164499010055451</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DI3">
-        <v>0.4215357111311117</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DJ3">
-        <v>0.4262058641535115</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DK3">
-        <v>0.4393042646434946</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DL3">
-        <v>0.4403848441599676</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DM3">
-        <v>0.4428453692454174</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DN3">
-        <v>0.4536255864662741</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DO3">
-        <v>0.4536986676521592</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DP3">
-        <v>0.4538190117169211</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DQ3">
-        <v>0.4547747848028015</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DR3">
-        <v>0.4574110826491241</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DS3">
-        <v>0.4586050443565448</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DT3">
-        <v>0.4589122521484888</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DU3">
-        <v>0.465434288001474</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DV3">
-        <v>0.4736222041341602</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DW3">
-        <v>0.480374955909916</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DX3">
-        <v>0.4808504472604276</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DY3">
-        <v>0.480933267830115</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="DZ3">
-        <v>0.4809940711362382</v>
+        <v>0.8320467673460021</v>
       </c>
       <c r="EA3">
-        <v>0.5132057204489122</v>
+        <v>0.8444538029295177</v>
       </c>
       <c r="EB3">
-        <v>0.534357204714177</v>
+        <v>0.8444538029295177</v>
       </c>
       <c r="EC3">
-        <v>0.5345549040522373</v>
+        <v>0.8444538029295177</v>
       </c>
       <c r="ED3">
-        <v>0.5670023597626594</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EE3">
-        <v>0.5886905712273111</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EF3">
-        <v>0.5887079861462403</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EG3">
-        <v>0.5907550728482169</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EH3">
-        <v>0.5917727520767171</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EI3">
-        <v>0.5929139514108243</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EJ3">
-        <v>0.5963210360216085</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EK3">
-        <v>0.604797027420606</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EL3">
-        <v>0.6090965727873596</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EM3">
-        <v>0.6352316884017775</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EN3">
-        <v>0.6561252030920581</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EO3">
-        <v>0.6681466523152947</v>
+        <v>0.8581958810806973</v>
       </c>
       <c r="EP3">
-        <v>0.7027277159144598</v>
+        <v>0.8840176033016661</v>
       </c>
       <c r="EQ3">
-        <v>0.7391863914460565</v>
+        <v>0.920469621728713</v>
       </c>
       <c r="ER3">
-        <v>0.7791550056707063</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="ES3">
-        <v>0.7885697499924158</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="ET3">
-        <v>0.7897097206187924</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="EU3">
-        <v>0.7966418648241097</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="EV3">
-        <v>0.7975648942250999</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="EW3">
-        <v>0.8010277446725025</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="EX3">
-        <v>0.8011319891981502</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="EY3">
-        <v>0.8016755432706297</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="EZ3">
-        <v>0.8074536344738423</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FA3">
-        <v>0.8074897783364046</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FB3">
-        <v>0.8208717083644982</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FC3">
-        <v>0.8355356478387878</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FD3">
-        <v>0.8359236883160462</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FE3">
-        <v>0.8409905202765797</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FF3">
-        <v>0.8423385236219886</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FG3">
-        <v>0.8451520561281675</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FH3">
-        <v>0.8475613482946931</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FI3">
-        <v>0.8479074686009223</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FJ3">
-        <v>0.8593552913616643</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FK3">
-        <v>0.8608420445033841</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FL3">
-        <v>0.8610211440267171</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FM3">
-        <v>0.8610218510385763</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FN3">
-        <v>0.8704107721812817</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FO3">
-        <v>0.8778853219431175</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FP3">
-        <v>0.8787902231762038</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FQ3">
-        <v>0.8855524300065679</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FR3">
-        <v>0.8902897869465831</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FS3">
-        <v>0.8949559813222798</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FT3">
-        <v>0.8953893574918238</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FU3">
-        <v>0.8958719765481575</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FV3">
-        <v>0.8978694456560264</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FW3">
-        <v>0.897872847724249</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FX3">
-        <v>0.9064286315654008</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FY3">
-        <v>0.9192832731353365</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="FZ3">
-        <v>0.923524885688215</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GA3">
-        <v>0.92436558546617</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GB3">
-        <v>0.9246058744143032</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GC3">
-        <v>0.9249986384155826</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GD3">
-        <v>0.9249986384155826</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GE3">
-        <v>0.9249986384155826</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GF3">
-        <v>0.9262143939973538</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GG3">
-        <v>0.931494762490899</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GH3">
-        <v>0.9348896397897979</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GI3">
-        <v>0.9397860533808883</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GJ3">
-        <v>0.9483304849113879</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GK3">
-        <v>0.9522466940831227</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GL3">
-        <v>0.9532071604882514</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GM3">
-        <v>0.953253510172167</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GN3">
-        <v>0.9532954929045062</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GO3">
-        <v>0.9551542780700747</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GP3">
-        <v>0.9563866978190426</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GQ3">
-        <v>0.9567973165639756</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GR3">
-        <v>0.9658808632523577</v>
+        <v>0.9767935249301655</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8200,763 +8200,763 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.260672080817386E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>9.081870134499339E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0005399793159197302</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.00159910476919187</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002562294691441931</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.002721636342511639</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002721636342511639</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.002765504129523315</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.00297906964526436</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.00344283969794648</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.003566730385113451</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.003571756551129529</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.003571756551129529</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.003571756551129529</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.003571756551129529</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.003661089211700031</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.00367358901431162</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.003679369050101216</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.003679369050101216</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.003679369050101216</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.003680295726089071</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.003695451352323306</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.003697200900161274</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.003762951263569183</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.003762951263569183</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.003762951263569183</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.003792133404945014</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.003800867513176804</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.003802145471275853</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.003925777027517922</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.003925777027517922</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.003925777027517922</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.003959275496889819</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.00436232500867807</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.004516701903398834</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.004516701903398834</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.004704337662346121</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.004731583108116753</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.004978918272104317</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.005089367519986804</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.005092432838213502</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.005092432838213502</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.005197379589356691</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.005385652029227447</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.005441673752135621</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.005441673752135621</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.005441673752135621</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.005702685505012783</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.006373705118469387</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.006949126245991014</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.007656279195422088</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.008206705375282815</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.008356761793018072</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.008356761793018072</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.008442405270272801</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.008912380916611472</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.009126620150645401</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.009216423321493906</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.009252831219457937</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.009400610165626665</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.009400610165626665</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.009400610165626665</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.009400610165626665</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.009410401068105321</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.009410401068105321</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.009423173772306625</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.009469619159212675</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.009506890893261967</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.009586656997304006</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.009687915650622846</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.009802949401177997</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.009955886190508106</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01010997924932323</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.01027464371814905</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01045946042571609</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01052313633058593</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01092263412448622</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01105728990147627</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.011085336419816</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.0172972844617502</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1211719424751145</v>
+        <v>0.3564799242215281</v>
       </c>
       <c r="CP4">
-        <v>0.1805585948348447</v>
+        <v>0.497924190766197</v>
       </c>
       <c r="CQ4">
-        <v>0.2125880490767739</v>
+        <v>0.5071356677527449</v>
       </c>
       <c r="CR4">
-        <v>0.2345763769753295</v>
+        <v>0.5071356677527449</v>
       </c>
       <c r="CS4">
-        <v>0.2503588991444728</v>
+        <v>0.5071356677527449</v>
       </c>
       <c r="CT4">
-        <v>0.2548234572390549</v>
+        <v>0.5071356677527449</v>
       </c>
       <c r="CU4">
-        <v>0.2806852024802098</v>
+        <v>0.5071356677527449</v>
       </c>
       <c r="CV4">
-        <v>0.2877048941134717</v>
+        <v>0.5071356677527449</v>
       </c>
       <c r="CW4">
-        <v>0.3042116139470458</v>
+        <v>0.5071356677527449</v>
       </c>
       <c r="CX4">
-        <v>0.3165308797487651</v>
+        <v>0.5071356677527449</v>
       </c>
       <c r="CY4">
-        <v>0.3207855925509512</v>
+        <v>0.5071356677527449</v>
       </c>
       <c r="CZ4">
-        <v>0.395880869725369</v>
+        <v>0.7245085900911682</v>
       </c>
       <c r="DA4">
-        <v>0.3974388339685686</v>
+        <v>0.7245085900911682</v>
       </c>
       <c r="DB4">
-        <v>0.4612192842391485</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DC4">
-        <v>0.4637695051381339</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DD4">
-        <v>0.4693443111981377</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DE4">
-        <v>0.4721506424411216</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DF4">
-        <v>0.4722290697864788</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DG4">
-        <v>0.47292984814732</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DH4">
-        <v>0.4773528875015502</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DI4">
-        <v>0.4773528875015502</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DJ4">
-        <v>0.4792355012233512</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DK4">
-        <v>0.4825904422441472</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DL4">
-        <v>0.4828046814781811</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DM4">
-        <v>0.482898239735746</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DN4">
-        <v>0.4869371422691451</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DO4">
-        <v>0.4882052572857408</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DP4">
-        <v>0.490206634825241</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DQ4">
-        <v>0.4938605200836542</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DR4">
-        <v>0.4947613289546065</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DS4">
-        <v>0.4947613289546065</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DT4">
-        <v>0.494762370154965</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DU4">
-        <v>0.4974480684243229</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DV4">
-        <v>0.5077343766383261</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DW4">
-        <v>0.5208217065215576</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DX4">
-        <v>0.5216628166005712</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DY4">
-        <v>0.5216628166005712</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="DZ4">
-        <v>0.5222004336801053</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="EA4">
-        <v>0.5592372427737707</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="EB4">
-        <v>0.5711717526225135</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="EC4">
-        <v>0.5714668781947745</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="ED4">
-        <v>0.5902315699475497</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="EE4">
-        <v>0.6070008430192653</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="EF4">
-        <v>0.6070008430192653</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="EG4">
-        <v>0.607959977927488</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="EH4">
-        <v>0.6085744241803406</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="EI4">
-        <v>0.6101891698768704</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="EJ4">
-        <v>0.6122931105760946</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="EK4">
-        <v>0.6194355833504086</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="EL4">
-        <v>0.6275729974621217</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="EM4">
-        <v>0.6586665369780771</v>
+        <v>0.9252930871163682</v>
       </c>
       <c r="EN4">
-        <v>0.6788876325742188</v>
+        <v>0.9252930871163682</v>
       </c>
       <c r="EO4">
-        <v>0.6912616262403081</v>
+        <v>0.9252930871163682</v>
       </c>
       <c r="EP4">
-        <v>0.7239537428439522</v>
+        <v>0.9377075855617446</v>
       </c>
       <c r="EQ4">
-        <v>0.7621284424446899</v>
+        <v>0.9766225041366914</v>
       </c>
       <c r="ER4">
-        <v>0.7949639976942326</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="ES4">
-        <v>0.8048668811898806</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="ET4">
-        <v>0.8079641446381807</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="EU4">
-        <v>0.8127931241145913</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="EV4">
-        <v>0.8143323830288633</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="EW4">
-        <v>0.8183795086623403</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="EX4">
-        <v>0.8186117515455539</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="EY4">
-        <v>0.8193589380921029</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="EZ4">
-        <v>0.8220815676944453</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FA4">
-        <v>0.8224274830385464</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FB4">
-        <v>0.8369237099314547</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FC4">
-        <v>0.8564591860273519</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FD4">
-        <v>0.8570127180796</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FE4">
-        <v>0.8591028401714733</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FF4">
-        <v>0.8595247858978661</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FG4">
-        <v>0.8599260577164308</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FH4">
-        <v>0.8617216870906094</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FI4">
-        <v>0.8628605876203143</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FJ4">
-        <v>0.880330613751875</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FK4">
-        <v>0.8814805132244489</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FL4">
-        <v>0.8818096303978</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FM4">
-        <v>0.8821881345362921</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FN4">
-        <v>0.8883833749294203</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FO4">
-        <v>0.8915759347754124</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FP4">
-        <v>0.8927583950708713</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FQ4">
-        <v>0.8970820099437279</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FR4">
-        <v>0.8995609763714154</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FS4">
-        <v>0.9058749684207187</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FT4">
-        <v>0.9061400030048126</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FU4">
-        <v>0.9062349910555996</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FV4">
-        <v>0.9066429481243692</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FW4">
-        <v>0.9066429481243692</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FX4">
-        <v>0.9124296506535262</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FY4">
-        <v>0.9210041660294188</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="FZ4">
-        <v>0.9254716225871193</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GA4">
-        <v>0.9287719931398019</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GB4">
-        <v>0.928851309096581</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GC4">
-        <v>0.9289394857891918</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GD4">
-        <v>0.928941827585171</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GE4">
-        <v>0.9290515149085316</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GF4">
-        <v>0.9293231920769869</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GG4">
-        <v>0.9328790051954254</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GH4">
-        <v>0.9386624109464163</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GI4">
-        <v>0.9455319389123751</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GJ4">
-        <v>0.9534254762689447</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GK4">
-        <v>0.9569620892552817</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GL4">
-        <v>0.9581609963539472</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GM4">
-        <v>0.9581609963539472</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GN4">
-        <v>0.9581609963539472</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GO4">
-        <v>0.958844530618131</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GP4">
-        <v>0.9589552275389733</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GQ4">
-        <v>0.9592859665772235</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GR4">
-        <v>0.9677516182192362</v>
+        <v>0.9897303225703189</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.071269256000138E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001224856270335844</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0003156643118040704</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0004300405707267491</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0004969892035892657</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0005961116569598806</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0007495777457684222</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0009319061952326152</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00100380273092487</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001161367595759329</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001264757012882149</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001348929036946754</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001886779593691964</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.002071280549374804</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.002188280330394645</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.002188280330394645</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.002188280330394645</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.002193190244553869</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002222855215457996</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002222855215457996</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002222855215457996</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002246756510679059</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002246756510679059</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.002246756510679059</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.002246756510679059</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.00229330739502091</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.002328679913896065</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.002328679913896065</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002346860442423561</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002437263268837574</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.002587755520862769</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.002750305230001283</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.003063648616319181</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.003245977065783373</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.003357672281975596</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.003357672281975596</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.003380696483740677</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.003632965834505928</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.003989308750200937</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.004034633988095278</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.004132948171347438</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.004255275996435979</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.004297765106352327</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.004297765106352327</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.004297765106352327</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.004411345365890953</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.004465894814964894</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.004554808443206037</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.00470422599134314</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.004752564447612602</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.004824337382086185</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.004902602989108011</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.005142657161985132</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.005444806321571808</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.005569838718736969</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.005580918436317565</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.005643681516163919</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.005643681516163919</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.005755376732356141</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.005755376732356141</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.005755376732356141</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.005755376732356141</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.005782631586721034</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.005836494836686011</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.006137387370855531</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.006165656350061061</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.006171527023140966</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.006207826121254565</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.00623997354540375</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.006275782008548975</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.006454011421440828</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.006563138060768006</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.006617687509841947</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.006802377912837057</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.006956932083590389</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.006956932083590389</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.007099545702406013</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.007201209650845248</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.007243078333590709</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.007243078333590709</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.007243078333590709</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.007307860739403363</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.007307860739403363</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.007307860739403363</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.007307860739403363</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.007307860739403363</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.007387664171579429</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.007520880742739725</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.007729035655922564</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.007729035655922564</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.09227518561099345</v>
+        <v>0.2613400365467622</v>
       </c>
       <c r="CO5">
-        <v>0.09428977110248539</v>
+        <v>0.2613400365467622</v>
       </c>
       <c r="CP5">
-        <v>0.1686163283461197</v>
+        <v>0.4736700987493507</v>
       </c>
       <c r="CQ5">
-        <v>0.1929942063320266</v>
+        <v>0.4736700987493507</v>
       </c>
       <c r="CR5">
-        <v>0.2263434682637663</v>
+        <v>0.4894858527366882</v>
       </c>
       <c r="CS5">
-        <v>0.2315330161427964</v>
+        <v>0.4894858527366882</v>
       </c>
       <c r="CT5">
-        <v>0.2329343425965368</v>
+        <v>0.4894858527366882</v>
       </c>
       <c r="CU5">
-        <v>0.2488498040521192</v>
+        <v>0.4894858527366882</v>
       </c>
       <c r="CV5">
-        <v>0.2571154381538376</v>
+        <v>0.4894858527366882</v>
       </c>
       <c r="CW5">
-        <v>0.2922980470133327</v>
+        <v>0.5140937659059384</v>
       </c>
       <c r="CX5">
-        <v>0.2964763578079799</v>
+        <v>0.5140937659059384</v>
       </c>
       <c r="CY5">
-        <v>0.317465048930972</v>
+        <v>0.5140937659059384</v>
       </c>
       <c r="CZ5">
-        <v>0.3937029947727397</v>
+        <v>0.7355902507636519</v>
       </c>
       <c r="DA5">
-        <v>0.398229339770903</v>
+        <v>0.7355902507636519</v>
       </c>
       <c r="DB5">
-        <v>0.4490273775854889</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DC5">
-        <v>0.4505327368186229</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DD5">
-        <v>0.4512067343351915</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DE5">
-        <v>0.452273209833558</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DF5">
-        <v>0.4523080042259761</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DG5">
-        <v>0.4552603321675981</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DH5">
-        <v>0.4612479824411524</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DI5">
-        <v>0.4613162483566434</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DJ5">
-        <v>0.4615129628968728</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DK5">
-        <v>0.4661389849395051</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DL5">
-        <v>0.466350599989348</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DM5">
-        <v>0.4694874905990772</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DN5">
-        <v>0.4758204207998304</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DO5">
-        <v>0.4758887547480009</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DP5">
-        <v>0.4784083131777122</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DQ5">
-        <v>0.4804509233430481</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DR5">
-        <v>0.4811683963070978</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DS5">
-        <v>0.4812682674656663</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DT5">
-        <v>0.4813494913318017</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DU5">
-        <v>0.4898935884310669</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DV5">
-        <v>0.4948624715279948</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DW5">
-        <v>0.5004204924752915</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DX5">
-        <v>0.5008260716802072</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DY5">
-        <v>0.5016539353175385</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="DZ5">
-        <v>0.5089175389431364</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="EA5">
-        <v>0.5413392886798187</v>
+        <v>0.8464525786286081</v>
       </c>
       <c r="EB5">
-        <v>0.5476974920839832</v>
+        <v>0.8464525786286081</v>
       </c>
       <c r="EC5">
-        <v>0.5481721957379218</v>
+        <v>0.8464525786286081</v>
       </c>
       <c r="ED5">
-        <v>0.5800129309606408</v>
+        <v>0.8550339097388121</v>
       </c>
       <c r="EE5">
-        <v>0.5860130918717263</v>
+        <v>0.8550339097388121</v>
       </c>
       <c r="EF5">
-        <v>0.5861596681511041</v>
+        <v>0.8550339097388121</v>
       </c>
       <c r="EG5">
-        <v>0.587329829200651</v>
+        <v>0.8550339097388121</v>
       </c>
       <c r="EH5">
-        <v>0.587329829200651</v>
+        <v>0.8550339097388121</v>
       </c>
       <c r="EI5">
-        <v>0.5898852788019653</v>
+        <v>0.8550339097388121</v>
       </c>
       <c r="EJ5">
-        <v>0.5953976581288446</v>
+        <v>0.8550339097388121</v>
       </c>
       <c r="EK5">
-        <v>0.6016394177249857</v>
+        <v>0.8550339097388121</v>
       </c>
       <c r="EL5">
-        <v>0.6090109156283803</v>
+        <v>0.8550339097388121</v>
       </c>
       <c r="EM5">
-        <v>0.6478352229225456</v>
+        <v>0.8971062710413689</v>
       </c>
       <c r="EN5">
-        <v>0.6525407323675706</v>
+        <v>0.8971062710413689</v>
       </c>
       <c r="EO5">
-        <v>0.6733959946612509</v>
+        <v>0.8971062710413689</v>
       </c>
       <c r="EP5">
-        <v>0.7097189631031263</v>
+        <v>0.9271829925529563</v>
       </c>
       <c r="EQ5">
-        <v>0.7456001951275374</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="ER5">
-        <v>0.7732807886271088</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="ES5">
-        <v>0.7786207629832198</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="ET5">
-        <v>0.7831357271132242</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="EU5">
-        <v>0.788038260059437</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="EV5">
-        <v>0.7932562539960446</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="EW5">
-        <v>0.7948164224761052</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="EX5">
-        <v>0.7948164224761052</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="EY5">
-        <v>0.7960932378028975</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="EZ5">
-        <v>0.7988806907657844</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FA5">
-        <v>0.7992892971192899</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FB5">
-        <v>0.8213446372375092</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FC5">
-        <v>0.8305743422057805</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FD5">
-        <v>0.8307057835438906</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FE5">
-        <v>0.8351904290892204</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FF5">
-        <v>0.8354671493188032</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FG5">
-        <v>0.8374404356970609</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FH5">
-        <v>0.8385503606183292</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FI5">
-        <v>0.8419436491503373</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FJ5">
-        <v>0.8568524103362249</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FK5">
-        <v>0.8568524103362249</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FL5">
-        <v>0.8568569775797292</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FM5">
-        <v>0.8575090195707796</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FN5">
-        <v>0.86827678919558</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FO5">
-        <v>0.8699115493105428</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FP5">
-        <v>0.8757092245651114</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FQ5">
-        <v>0.8784836792678159</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FR5">
-        <v>0.8833536755776167</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FS5">
-        <v>0.8864433146906675</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FT5">
-        <v>0.8873674734197765</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FU5">
-        <v>0.8873674734197765</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FV5">
-        <v>0.8873674734197765</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FW5">
-        <v>0.8882107143065486</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FX5">
-        <v>0.9001819137858248</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FY5">
-        <v>0.9052828996309837</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="FZ5">
-        <v>0.9084681633897408</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GA5">
-        <v>0.9087942008082085</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GB5">
-        <v>0.9087947121726511</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GC5">
-        <v>0.9088233829324781</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GD5">
-        <v>0.9090034690893665</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GE5">
-        <v>0.9094183196884147</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GF5">
-        <v>0.9114361026857728</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GG5">
-        <v>0.9181378165060862</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GH5">
-        <v>0.926029036379632</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GI5">
-        <v>0.9337967555452986</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GJ5">
-        <v>0.9396590359910221</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GK5">
-        <v>0.9414404271231597</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GL5">
-        <v>0.9418181527330208</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GM5">
-        <v>0.9418181527330208</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GN5">
-        <v>0.9418454075873858</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GO5">
-        <v>0.9435366879375903</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GP5">
-        <v>0.9435366879375903</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GQ5">
-        <v>0.9453546292233596</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GR5">
-        <v>0.9605946801960752</v>
+        <v>0.9551412841918359</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9749,589 +9749,589 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.03506767123996E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2.170078514311971E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2.170078514311971E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2.747109535066819E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2.747109535066819E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2.747109535066819E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.747109535066819E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.747109535066819E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>7.259195413311721E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001210647870543789</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0003048072187440117</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.000469562611950965</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0006632661434012238</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0008156456006872489</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0008478328171159062</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0008478328171159062</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0008478328171159062</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001039107712076664</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.001039107712076664</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.001039107712076664</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001145596263283422</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001202341316509589</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001202341316509589</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001202341316509589</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001206231202517174</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001428848487145425</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001491575912618063</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001638730239134736</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001674008145482553</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001674008145482553</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001674008145482553</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001674008145482553</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001770987615588788</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.001838222886886666</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.001838222886886666</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.001838222886886666</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001847022715619812</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.001847022715619812</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.001906934254883932</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.001906934254883932</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.001906934254883932</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.001906934254883932</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.001906934254883932</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.001906934254883932</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.002117720882681721</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.002117720882681721</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.002220845062604925</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.00240549006199546</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.00240549006199546</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.00240549006199546</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.002482017323438479</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.002509360624318366</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.002509360624318366</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.002561441543746056</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.002561441543746056</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.002618186596972223</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.002849944370100998</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.002849944370100998</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.002849944370100998</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.002849944370100998</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.002849944370100998</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.002849944370100998</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.002849944370100998</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.002849944370100998</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.002849944370100998</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002872452693938553</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.003028728202587111</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.003355791109557958</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.003571341135885362</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.003586040738220676</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.003586040738220676</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.003586040738220676</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.003742321823369873</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.004031071251843687</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.004054694926138478</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.004054694926138478</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.004054694926138478</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.004054694926138478</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.004054694926138478</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.004128222573795517</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.004452614357092035</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.004452614357092035</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.004452614357092035</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.004452614357092035</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.004452614357092035</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.004452614357092035</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.009456016150182708</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1163709777366325</v>
+        <v>0.3902275628166262</v>
       </c>
       <c r="CP6">
-        <v>0.1819563128163351</v>
+        <v>0.570339963562088</v>
       </c>
       <c r="CQ6">
-        <v>0.2162852269313554</v>
+        <v>0.5915482436596993</v>
       </c>
       <c r="CR6">
-        <v>0.2423008780994031</v>
+        <v>0.5915482436596993</v>
       </c>
       <c r="CS6">
-        <v>0.2568473781502099</v>
+        <v>0.5915482436596993</v>
       </c>
       <c r="CT6">
-        <v>0.2641784163429784</v>
+        <v>0.5915482436596993</v>
       </c>
       <c r="CU6">
-        <v>0.2865757339330257</v>
+        <v>0.5915482436596993</v>
       </c>
       <c r="CV6">
-        <v>0.2901391324741497</v>
+        <v>0.5915482436596993</v>
       </c>
       <c r="CW6">
-        <v>0.2989766542618461</v>
+        <v>0.5915482436596993</v>
       </c>
       <c r="CX6">
-        <v>0.3179214898450647</v>
+        <v>0.5915482436596993</v>
       </c>
       <c r="CY6">
-        <v>0.3207242001485123</v>
+        <v>0.5915482436596993</v>
       </c>
       <c r="CZ6">
-        <v>0.3858657263044324</v>
+        <v>0.7694043698672346</v>
       </c>
       <c r="DA6">
-        <v>0.3957648024302036</v>
+        <v>0.7694043698672346</v>
       </c>
       <c r="DB6">
-        <v>0.4488819407010588</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DC6">
-        <v>0.4535470781055756</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DD6">
-        <v>0.4623227007361786</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DE6">
-        <v>0.4650514844577701</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DF6">
-        <v>0.4650688840527397</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DG6">
-        <v>0.4651956029403586</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DH6">
-        <v>0.4697276319924106</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DI6">
-        <v>0.4698204361834869</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DJ6">
-        <v>0.4714452425900391</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DK6">
-        <v>0.4739308762882343</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DL6">
-        <v>0.4742765180318279</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DM6">
-        <v>0.474761386183238</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DN6">
-        <v>0.4840845638010466</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DO6">
-        <v>0.486890485927281</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DP6">
-        <v>0.4879722172696861</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DQ6">
-        <v>0.4911017789586036</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DR6">
-        <v>0.4923119100334935</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DS6">
-        <v>0.4923119100334935</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DT6">
-        <v>0.4923119100334935</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DU6">
-        <v>0.497130091478283</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DV6">
-        <v>0.5071528169431336</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DW6">
-        <v>0.5156571780482472</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DX6">
-        <v>0.5164589930657097</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DY6">
-        <v>0.5164589930657097</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="DZ6">
-        <v>0.5166707351272398</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="EA6">
-        <v>0.5528768624247079</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EB6">
-        <v>0.5701012589809894</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EC6">
-        <v>0.5715742741473944</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="ED6">
-        <v>0.5870180628453852</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EE6">
-        <v>0.6112093427041885</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EF6">
-        <v>0.6113056171495993</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EG6">
-        <v>0.611679994319141</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EH6">
-        <v>0.6119203732817307</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EI6">
-        <v>0.6152726401737413</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EJ6">
-        <v>0.6192976650614838</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EK6">
-        <v>0.6262952258989074</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EL6">
-        <v>0.6307106617977067</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EM6">
-        <v>0.6539461103217961</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EN6">
-        <v>0.6779793296049051</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EO6">
-        <v>0.6853790147218579</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="EP6">
-        <v>0.7172505542439035</v>
+        <v>0.9255969485621495</v>
       </c>
       <c r="EQ6">
-        <v>0.7529874139796536</v>
+        <v>0.9539630654778297</v>
       </c>
       <c r="ER6">
-        <v>0.7878619554647813</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="ES6">
-        <v>0.7996049931264101</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="ET6">
-        <v>0.8031683916675341</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="EU6">
-        <v>0.8088217670222565</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="EV6">
-        <v>0.8096282184369697</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="EW6">
-        <v>0.8148883244717519</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="EX6">
-        <v>0.8150086551658463</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="EY6">
-        <v>0.8151117745644738</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="EZ6">
-        <v>0.8168947906224864</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FA6">
-        <v>0.8168947906224864</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FB6">
-        <v>0.8267581107093226</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FC6">
-        <v>0.8474390619297586</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FD6">
-        <v>0.8487956899915897</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FE6">
-        <v>0.851673321789029</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FF6">
-        <v>0.8539327293379965</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FG6">
-        <v>0.8540230136855936</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FH6">
-        <v>0.8549495227300757</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FI6">
-        <v>0.8557811244646476</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FJ6">
-        <v>0.8695881760010693</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FK6">
-        <v>0.8718677298161722</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FL6">
-        <v>0.8721047703875291</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FM6">
-        <v>0.8721047703875291</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FN6">
-        <v>0.8768827245269868</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FO6">
-        <v>0.8794045699467594</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FP6">
-        <v>0.8814184444745666</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FQ6">
-        <v>0.8880283679557188</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FR6">
-        <v>0.8910809296459208</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FS6">
-        <v>0.8963934608262412</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FT6">
-        <v>0.8964038115029536</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FU6">
-        <v>0.8973464980361848</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FV6">
-        <v>0.8973464980361848</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FW6">
-        <v>0.8974799819438226</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FX6">
-        <v>0.9072344495434557</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FY6">
-        <v>0.9178127837106044</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="FZ6">
-        <v>0.9215493877576239</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GA6">
-        <v>0.9241536514410289</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GB6">
-        <v>0.9242316974835593</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GC6">
-        <v>0.9242989286077122</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GD6">
-        <v>0.9245406458499281</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GE6">
-        <v>0.9255911991181828</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GF6">
-        <v>0.9267781661744254</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GG6">
-        <v>0.9313345003139197</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GH6">
-        <v>0.937194367045139</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GI6">
-        <v>0.9446699312237835</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GJ6">
-        <v>0.9503685399507382</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GK6">
-        <v>0.9522815460505062</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GL6">
-        <v>0.952980248048093</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GM6">
-        <v>0.952980248048093</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GN6">
-        <v>0.953226674252529</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GO6">
-        <v>0.9553541577004762</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GP6">
-        <v>0.955906418224481</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GQ6">
-        <v>0.9564876589969042</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GR6">
-        <v>0.9655045860707733</v>
+        <v>0.977945253616489</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>0.07086341403827928</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5238847704765054</v>
+        <v>0.7003962142544984</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -10611,16 +10611,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.008735874126963356</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5132057204489122</v>
+        <v>0.670361898278969</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -10652,16 +10652,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5077343766383261</v>
+        <v>0.5071356677527449</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.007729035655922564</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5004204924752915</v>
+        <v>0.5140937659059384</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -10734,16 +10734,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.004452614357092035</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5071528169431336</v>
+        <v>0.570339963562088</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>0.07086341403827928</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7339338472813647</v>
+        <v>0.7003962142544984</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>0.008735874126963356</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7027277159144598</v>
+        <v>0.8234843968828808</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -10911,16 +10911,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7239537428439522</v>
+        <v>0.7245085900911682</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>0.007729035655922564</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7097189631031263</v>
+        <v>0.7355902507636519</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="E6">
-        <v>0.004452614357092035</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7172505542439035</v>
+        <v>0.7694043698672346</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>0.07086341403827928</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8125066300455438</v>
+        <v>0.820041276722984</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>0.008735874126963356</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8010277446725025</v>
+        <v>0.8234843968828808</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -11170,16 +11170,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8048668811898806</v>
+        <v>0.8871905635093434</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>0.007729035655922564</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8213446372375092</v>
+        <v>0.8350848834012639</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>0.004452614357092035</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8031683916675341</v>
+        <v>0.8861298635764454</v>
       </c>
       <c r="G6">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="E2">
-        <v>0.07086341403827928</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9010237898236518</v>
+        <v>0.9282520765854826</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="E3">
-        <v>0.008735874126963356</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9064286315654008</v>
+        <v>0.920469621728713</v>
       </c>
       <c r="G3">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -11429,16 +11429,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>0.01110879783544753</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9058749684207187</v>
+        <v>0.9206054145951432</v>
       </c>
       <c r="G4">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E5">
-        <v>0.007729035655922564</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9001819137858248</v>
+        <v>0.9271829925529563</v>
       </c>
       <c r="G5">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>0.004452614357092035</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9072344495434557</v>
+        <v>0.9168816838753636</v>
       </c>
       <c r="G6">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>51</v>

--- a/on_trucks/Processed_Stand_Alone/51_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/51_455-55R22.xlsx
@@ -674,49 +674,49 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2134495792816247</v>
+        <v>0.1811435519263472</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.009316160306502454</v>
       </c>
       <c r="F2">
-        <v>0.2406170914667071</v>
+        <v>0.2010525851117242</v>
       </c>
       <c r="G2">
-        <v>0.00919181057470487</v>
+        <v>0.03145834454140034</v>
       </c>
       <c r="H2">
-        <v>0.08349418294383669</v>
+        <v>0.0859089834946998</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.008095205408709109</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.02835924893863941</v>
+        <v>0.04550472331419719</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01330009693577723</v>
       </c>
       <c r="M2">
-        <v>0.05870187921872385</v>
+        <v>0.06774056254240343</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0257678939149017</v>
+        <v>0.04360571346702332</v>
       </c>
       <c r="P2">
-        <v>0.2306173139206638</v>
+        <v>0.1937244977383105</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1098009997401977</v>
+        <v>0.1051872775479908</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.007797359641352123</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.006164938023562178</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -784,22 +784,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09423456441127903</v>
+        <v>0.08998202977656139</v>
       </c>
       <c r="E3">
-        <v>0.1582194154976511</v>
+        <v>0.1338324908650348</v>
       </c>
       <c r="F3">
-        <v>0.4392937177360471</v>
+        <v>0.3264599260158483</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.02527205564436814</v>
       </c>
       <c r="H3">
-        <v>0.00502931969419195</v>
+        <v>0.02884738546717558</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.006231418202691876</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -811,25 +811,25 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.03088910554801839</v>
+        <v>0.04656976059326211</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.003754004880391086</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.006369942228464359</v>
       </c>
       <c r="P3">
-        <v>0.1794254825468319</v>
+        <v>0.1483655530225822</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.004842568737515367</v>
       </c>
       <c r="R3">
-        <v>0.07427660984145061</v>
+        <v>0.07630433114304561</v>
       </c>
       <c r="S3">
-        <v>0.01863178472452991</v>
+        <v>0.03816950395917588</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -844,16 +844,16 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.02082600240543147</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.001665447083112227</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.0004923665354176646</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.02427883158089236</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.01773638185902971</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -894,55 +894,55 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.003583621028066395</v>
       </c>
       <c r="E4">
-        <v>0.3149650003624415</v>
+        <v>0.2587782657676923</v>
       </c>
       <c r="F4">
-        <v>0.1581713204460294</v>
+        <v>0.1425581228677392</v>
       </c>
       <c r="G4">
-        <v>0.06175351744339048</v>
+        <v>0.07109037717135615</v>
       </c>
       <c r="H4">
-        <v>0.02636453727330397</v>
+        <v>0.04485901163006848</v>
       </c>
       <c r="I4">
-        <v>0.004492774247185013</v>
+        <v>0.02864700980879237</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.04001602265852432</v>
+        <v>0.05497789896731796</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.005755054952078799</v>
       </c>
       <c r="M4">
-        <v>0.007045138982908239</v>
+        <v>0.03053889852826559</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.01959962402452297</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2135348516930171</v>
+        <v>0.1835952202584066</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.1736568368931999</v>
+        <v>0.1540364486225093</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.001980446373183933</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1004,49 +1004,49 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2443469104940232</v>
+        <v>0.2100262200267631</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2088463382012462</v>
+        <v>0.1831355023249108</v>
       </c>
       <c r="G5">
-        <v>0.03533583254936181</v>
+        <v>0.05170601472930404</v>
       </c>
       <c r="H5">
-        <v>0.06650040762864799</v>
+        <v>0.07531233250480017</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001215943094987203</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.005939296083658979</v>
+        <v>0.02943893810326729</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.009310019696327563</v>
       </c>
       <c r="M5">
-        <v>0.07286904354049681</v>
+        <v>0.08013640094626159</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.02356255775867579</v>
+        <v>0.04278807937289045</v>
       </c>
       <c r="P5">
-        <v>0.2154860733671778</v>
+        <v>0.188164921075956</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.1271135403767112</v>
+        <v>0.1212251315524002</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.003315982381709649</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.004224514190421797</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1117,52 +1117,52 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3341081403915468</v>
+        <v>0.2659551940545829</v>
       </c>
       <c r="F6">
-        <v>0.1847185328357171</v>
+        <v>0.1583131664833482</v>
       </c>
       <c r="G6">
-        <v>0.07173942181589185</v>
+        <v>0.07690656275541022</v>
       </c>
       <c r="H6">
-        <v>0.04169039417820153</v>
+        <v>0.05525486747094241</v>
       </c>
       <c r="I6">
-        <v>0.0002341283171150027</v>
+        <v>0.0253837366350721</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.006591238131961781</v>
       </c>
       <c r="K6">
-        <v>0.02861160593569659</v>
+        <v>0.0458310038727204</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01051483876344519</v>
       </c>
       <c r="N6">
-        <v>0.01613230293474915</v>
+        <v>0.03683909674025296</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.183114346043881</v>
+        <v>0.1571572767149673</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.01327963174575682</v>
       </c>
       <c r="R6">
-        <v>0.139651127547201</v>
+        <v>0.1258400449456436</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.01035362388352389</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.0117797178023723</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1347,82 +1347,82 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2134495792816247</v>
+        <v>0.1811435519263472</v>
       </c>
       <c r="E2">
-        <v>0.2134495792816247</v>
+        <v>0.1904597122328496</v>
       </c>
       <c r="F2">
-        <v>0.4540666707483318</v>
+        <v>0.3915122973445738</v>
       </c>
       <c r="G2">
-        <v>0.4632584813230367</v>
+        <v>0.4229706418859741</v>
       </c>
       <c r="H2">
-        <v>0.5467526642668734</v>
+        <v>0.5088796253806739</v>
       </c>
       <c r="I2">
-        <v>0.5467526642668734</v>
+        <v>0.516974830789383</v>
       </c>
       <c r="J2">
-        <v>0.5467526642668734</v>
+        <v>0.516974830789383</v>
       </c>
       <c r="K2">
-        <v>0.5751119132055128</v>
+        <v>0.5624795541035802</v>
       </c>
       <c r="L2">
-        <v>0.5751119132055128</v>
+        <v>0.5757796510393575</v>
       </c>
       <c r="M2">
-        <v>0.6338137924242366</v>
+        <v>0.6435202135817609</v>
       </c>
       <c r="N2">
-        <v>0.6338137924242366</v>
+        <v>0.6435202135817609</v>
       </c>
       <c r="O2">
-        <v>0.6595816863391384</v>
+        <v>0.6871259270487843</v>
       </c>
       <c r="P2">
-        <v>0.8901990002598021</v>
+        <v>0.8808504247870947</v>
       </c>
       <c r="Q2">
-        <v>0.8901990002598021</v>
+        <v>0.8808504247870947</v>
       </c>
       <c r="R2">
-        <v>0.9999999999999999</v>
+        <v>0.9860377023350856</v>
       </c>
       <c r="S2">
-        <v>0.9999999999999999</v>
+        <v>0.9860377023350856</v>
       </c>
       <c r="T2">
-        <v>0.9999999999999999</v>
+        <v>0.9860377023350856</v>
       </c>
       <c r="U2">
-        <v>0.9999999999999999</v>
+        <v>0.9860377023350856</v>
       </c>
       <c r="V2">
-        <v>0.9999999999999999</v>
+        <v>0.9860377023350856</v>
       </c>
       <c r="W2">
-        <v>0.9999999999999999</v>
+        <v>0.9860377023350856</v>
       </c>
       <c r="X2">
-        <v>0.9999999999999999</v>
+        <v>0.9938350619764377</v>
       </c>
       <c r="Y2">
-        <v>0.9999999999999999</v>
+        <v>0.9938350619764377</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999999</v>
+        <v>0.9938350619764377</v>
       </c>
       <c r="AA2">
-        <v>0.9999999999999999</v>
+        <v>0.9938350619764377</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999999</v>
+        <v>0.9938350619764377</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999999</v>
+        <v>0.9938350619764377</v>
       </c>
       <c r="AD2">
         <v>0.9999999999999999</v>
@@ -1457,103 +1457,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09423456441127903</v>
+        <v>0.08998202977656139</v>
       </c>
       <c r="E3">
-        <v>0.2524539799089301</v>
+        <v>0.2238145206415962</v>
       </c>
       <c r="F3">
-        <v>0.6917476976449772</v>
+        <v>0.5502744466574445</v>
       </c>
       <c r="G3">
-        <v>0.6917476976449772</v>
+        <v>0.5755465023018127</v>
       </c>
       <c r="H3">
-        <v>0.6967770173391692</v>
+        <v>0.6043938877689883</v>
       </c>
       <c r="I3">
-        <v>0.6967770173391692</v>
+        <v>0.6106253059716802</v>
       </c>
       <c r="J3">
-        <v>0.6967770173391692</v>
+        <v>0.6106253059716802</v>
       </c>
       <c r="K3">
-        <v>0.6967770173391692</v>
+        <v>0.6106253059716802</v>
       </c>
       <c r="L3">
-        <v>0.6967770173391692</v>
+        <v>0.6106253059716802</v>
       </c>
       <c r="M3">
-        <v>0.7276661228871876</v>
+        <v>0.6571950665649423</v>
       </c>
       <c r="N3">
-        <v>0.7276661228871876</v>
+        <v>0.6609490714453334</v>
       </c>
       <c r="O3">
-        <v>0.7276661228871876</v>
+        <v>0.6673190136737978</v>
       </c>
       <c r="P3">
-        <v>0.9070916054340195</v>
+        <v>0.8156845666963799</v>
       </c>
       <c r="Q3">
-        <v>0.9070916054340195</v>
+        <v>0.8205271354338952</v>
       </c>
       <c r="R3">
-        <v>0.98136821527547</v>
+        <v>0.8968314665769408</v>
       </c>
       <c r="S3">
-        <v>0.9999999999999999</v>
+        <v>0.9350009705361166</v>
       </c>
       <c r="T3">
-        <v>0.9999999999999999</v>
+        <v>0.9350009705361166</v>
       </c>
       <c r="U3">
-        <v>0.9999999999999999</v>
+        <v>0.9350009705361166</v>
       </c>
       <c r="V3">
-        <v>0.9999999999999999</v>
+        <v>0.9350009705361166</v>
       </c>
       <c r="W3">
-        <v>0.9999999999999999</v>
+        <v>0.9350009705361166</v>
       </c>
       <c r="X3">
-        <v>0.9999999999999999</v>
+        <v>0.9558269729415481</v>
       </c>
       <c r="Y3">
-        <v>0.9999999999999999</v>
+        <v>0.9574924200246603</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999999</v>
+        <v>0.9579847865600779</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999999</v>
+        <v>0.9822636181409703</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>0.9822636181409703</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>0.9822636181409703</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,52 +1567,52 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.003583621028066395</v>
       </c>
       <c r="E4">
-        <v>0.3149650003624415</v>
+        <v>0.2623618867957587</v>
       </c>
       <c r="F4">
-        <v>0.4731363208084708</v>
+        <v>0.4049200096634978</v>
       </c>
       <c r="G4">
-        <v>0.5348898382518613</v>
+        <v>0.476010386834854</v>
       </c>
       <c r="H4">
-        <v>0.5612543755251653</v>
+        <v>0.5208693984649224</v>
       </c>
       <c r="I4">
-        <v>0.5657471497723503</v>
+        <v>0.5495164082737148</v>
       </c>
       <c r="J4">
-        <v>0.5657471497723503</v>
+        <v>0.5495164082737148</v>
       </c>
       <c r="K4">
-        <v>0.6057631724308746</v>
+        <v>0.6044943072410328</v>
       </c>
       <c r="L4">
-        <v>0.6057631724308746</v>
+        <v>0.6102493621931117</v>
       </c>
       <c r="M4">
-        <v>0.6128083114137829</v>
+        <v>0.6407882607213773</v>
       </c>
       <c r="N4">
-        <v>0.6128083114137829</v>
+        <v>0.6603878847459003</v>
       </c>
       <c r="O4">
-        <v>0.6128083114137829</v>
+        <v>0.6603878847459003</v>
       </c>
       <c r="P4">
-        <v>0.8263431631068</v>
+        <v>0.8439831050043068</v>
       </c>
       <c r="Q4">
-        <v>0.8263431631068</v>
+        <v>0.8439831050043068</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.9980195536268162</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.9980195536268162</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2443469104940232</v>
+        <v>0.2100262200267631</v>
       </c>
       <c r="E5">
-        <v>0.2443469104940232</v>
+        <v>0.2100262200267631</v>
       </c>
       <c r="F5">
-        <v>0.4531932486952693</v>
+        <v>0.3931617223516739</v>
       </c>
       <c r="G5">
-        <v>0.4885290812446311</v>
+        <v>0.4448677370809779</v>
       </c>
       <c r="H5">
-        <v>0.5550294888732791</v>
+        <v>0.5201800695857781</v>
       </c>
       <c r="I5">
-        <v>0.5550294888732791</v>
+        <v>0.5213960126807653</v>
       </c>
       <c r="J5">
-        <v>0.5550294888732791</v>
+        <v>0.5213960126807653</v>
       </c>
       <c r="K5">
-        <v>0.560968784956938</v>
+        <v>0.5508349507840326</v>
       </c>
       <c r="L5">
-        <v>0.560968784956938</v>
+        <v>0.5601449704803602</v>
       </c>
       <c r="M5">
-        <v>0.6338378284974349</v>
+        <v>0.6402813714266218</v>
       </c>
       <c r="N5">
-        <v>0.6338378284974349</v>
+        <v>0.6402813714266218</v>
       </c>
       <c r="O5">
-        <v>0.6574003862561106</v>
+        <v>0.6830694507995122</v>
       </c>
       <c r="P5">
-        <v>0.8728864596232884</v>
+        <v>0.8712343718754681</v>
       </c>
       <c r="Q5">
-        <v>0.8728864596232884</v>
+        <v>0.8712343718754681</v>
       </c>
       <c r="R5">
-        <v>0.9999999999999996</v>
+        <v>0.9924595034278684</v>
       </c>
       <c r="S5">
-        <v>0.9999999999999996</v>
+        <v>0.9924595034278684</v>
       </c>
       <c r="T5">
-        <v>0.9999999999999996</v>
+        <v>0.9924595034278684</v>
       </c>
       <c r="U5">
-        <v>0.9999999999999996</v>
+        <v>0.9924595034278684</v>
       </c>
       <c r="V5">
-        <v>0.9999999999999996</v>
+        <v>0.9924595034278684</v>
       </c>
       <c r="W5">
-        <v>0.9999999999999996</v>
+        <v>0.9924595034278684</v>
       </c>
       <c r="X5">
-        <v>0.9999999999999996</v>
+        <v>0.995775485809578</v>
       </c>
       <c r="Y5">
-        <v>0.9999999999999996</v>
+        <v>0.995775485809578</v>
       </c>
       <c r="Z5">
-        <v>0.9999999999999996</v>
+        <v>0.995775485809578</v>
       </c>
       <c r="AA5">
-        <v>0.9999999999999996</v>
+        <v>0.995775485809578</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999996</v>
+        <v>0.995775485809578</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999996</v>
+        <v>0.995775485809578</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1790,100 +1790,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3341081403915468</v>
+        <v>0.2659551940545829</v>
       </c>
       <c r="F6">
-        <v>0.5188266732272638</v>
+        <v>0.4242683605379312</v>
       </c>
       <c r="G6">
-        <v>0.5905660950431557</v>
+        <v>0.5011749232933413</v>
       </c>
       <c r="H6">
-        <v>0.6322564892213572</v>
+        <v>0.5564297907642838</v>
       </c>
       <c r="I6">
-        <v>0.6324906175384722</v>
+        <v>0.5818135273993559</v>
       </c>
       <c r="J6">
-        <v>0.6324906175384722</v>
+        <v>0.5884047655313177</v>
       </c>
       <c r="K6">
-        <v>0.6611022234741688</v>
+        <v>0.6342357694040381</v>
       </c>
       <c r="L6">
-        <v>0.6611022234741688</v>
+        <v>0.6342357694040381</v>
       </c>
       <c r="M6">
-        <v>0.6611022234741688</v>
+        <v>0.6447506081674833</v>
       </c>
       <c r="N6">
-        <v>0.6772345264089179</v>
+        <v>0.6815897049077363</v>
       </c>
       <c r="O6">
-        <v>0.6772345264089179</v>
+        <v>0.6815897049077363</v>
       </c>
       <c r="P6">
-        <v>0.8603488724527989</v>
+        <v>0.8387469816227036</v>
       </c>
       <c r="Q6">
-        <v>0.8603488724527989</v>
+        <v>0.8520266133684604</v>
       </c>
       <c r="R6">
-        <v>0.9999999999999999</v>
+        <v>0.977866658314104</v>
       </c>
       <c r="S6">
-        <v>0.9999999999999999</v>
+        <v>0.977866658314104</v>
       </c>
       <c r="T6">
-        <v>0.9999999999999999</v>
+        <v>0.9882202821976279</v>
       </c>
       <c r="U6">
-        <v>0.9999999999999999</v>
+        <v>0.9882202821976279</v>
       </c>
       <c r="V6">
-        <v>0.9999999999999999</v>
+        <v>0.9882202821976279</v>
       </c>
       <c r="W6">
-        <v>0.9999999999999999</v>
+        <v>0.9882202821976279</v>
       </c>
       <c r="X6">
-        <v>0.9999999999999999</v>
+        <v>0.9882202821976279</v>
       </c>
       <c r="Y6">
-        <v>0.9999999999999999</v>
+        <v>0.9882202821976279</v>
       </c>
       <c r="Z6">
-        <v>0.9999999999999999</v>
+        <v>0.9882202821976279</v>
       </c>
       <c r="AA6">
-        <v>0.9999999999999999</v>
+        <v>0.9882202821976279</v>
       </c>
       <c r="AB6">
-        <v>0.9999999999999999</v>
+        <v>0.9882202821976279</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999999</v>
+        <v>0.9882202821976279</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5467526642668734</v>
+        <v>0.5088796253806739</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6917476976449772</v>
+        <v>0.5502744466574445</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2033,16 +2033,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5348898382518613</v>
+        <v>0.5208693984649224</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5550294888732791</v>
+        <v>0.5201800695857781</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -2115,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5188266732272638</v>
+        <v>0.5011749232933413</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8901990002598021</v>
+        <v>0.8808504247870947</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -2251,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7276661228871876</v>
+        <v>0.8156845666963799</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8263431631068</v>
+        <v>0.8439831050043068</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8728864596232884</v>
+        <v>0.8712343718754681</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8603488724527989</v>
+        <v>0.8387469816227036</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8901990002598021</v>
+        <v>0.8808504247870947</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9070916054340195</v>
+        <v>0.8156845666963799</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8263431631068</v>
+        <v>0.8439831050043068</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8728864596232884</v>
+        <v>0.8712343718754681</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8603488724527989</v>
+        <v>0.8387469816227036</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999999999</v>
+        <v>0.9860377023350856</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -2769,16 +2769,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9070916054340195</v>
+        <v>0.9350009705361166</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9980195536268162</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999999996</v>
+        <v>0.9924595034278684</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999999999</v>
+        <v>0.977866658314104</v>
       </c>
       <c r="G6">
         <v>15</v>
